--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="15" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="14" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Австрия" sheetId="5" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="542">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -3119,6 +3119,9 @@
   </si>
   <si>
     <t>Очень неудобный набор таблиц юбилейных монет с тиражами</t>
+  </si>
+  <si>
+    <t>Международный год семейных фермерских хозяйств</t>
   </si>
 </sst>
 </file>
@@ -3604,15 +3607,6 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="98">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4373,6 +4367,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4394,9 +4397,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="97"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="96" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4674,18 +4677,18 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="6" customWidth="1"/>
     <col min="3" max="3" width="63" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="12.1796875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -4699,7 +4702,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4707,7 +4710,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2005</v>
       </c>
@@ -4725,7 +4728,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -4743,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -4779,7 +4782,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2015</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2016</v>
       </c>
@@ -4816,7 +4819,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2018</v>
       </c>
@@ -4834,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" s="11"/>
     </row>
   </sheetData>
@@ -4844,7 +4847,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D9">
-    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4876,17 +4879,17 @@
       <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -4901,7 +4904,7 @@
       </c>
       <c r="E1" s="37"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4912,7 +4915,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2009</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2012</v>
       </c>
@@ -4954,7 +4957,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2017</v>
       </c>
@@ -5004,7 +5007,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5021,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 D4:D5">
-    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5038,7 +5041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5055,7 +5058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5072,7 +5075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5089,7 +5092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5118,20 +5121,20 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -5146,7 +5149,7 @@
       </c>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5157,7 +5160,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2014</v>
       </c>
@@ -5178,7 +5181,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2015</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2016</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2016</v>
       </c>
@@ -5283,7 +5286,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2017</v>
       </c>
@@ -5304,7 +5307,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2017</v>
       </c>
@@ -5325,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2018</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2018</v>
       </c>
@@ -5375,7 +5378,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5392,7 +5395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5409,7 +5412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5 E7:E8 E11:E12">
-    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5426,7 +5429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5443,7 +5446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5460,7 +5463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5477,7 +5480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5494,7 +5497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5511,7 +5514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5543,17 +5546,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -5568,7 +5571,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5577,7 +5580,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2015</v>
       </c>
@@ -5595,7 +5598,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2017</v>
       </c>
@@ -5649,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2018</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2018</v>
       </c>
@@ -5693,7 +5696,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5719,24 +5722,24 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:F2"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -5752,7 +5755,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5766,7 +5769,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -5790,7 +5793,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -5814,7 +5817,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -5838,7 +5841,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2007</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2008</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2009</v>
       </c>
@@ -5934,7 +5937,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2009</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2010</v>
       </c>
@@ -5982,7 +5985,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2011</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2012</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2012</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2012</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2013</v>
       </c>
@@ -6102,7 +6105,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2014</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2014</v>
       </c>
@@ -6150,7 +6153,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2015</v>
       </c>
@@ -6174,7 +6177,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2015</v>
       </c>
@@ -6198,7 +6201,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2015</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2016</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2017</v>
       </c>
@@ -6270,7 +6273,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>2017</v>
       </c>
@@ -6294,7 +6297,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>2018</v>
       </c>
@@ -6318,7 +6321,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>2018</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>2019</v>
       </c>
@@ -6366,7 +6369,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>2019</v>
       </c>
@@ -6398,7 +6401,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:F28">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6415,7 +6418,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6430,17 +6434,17 @@
       <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -6455,7 +6459,7 @@
       </c>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6466,7 +6470,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2009</v>
       </c>
@@ -6487,7 +6491,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2011</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2012</v>
       </c>
@@ -6529,7 +6533,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -6550,7 +6554,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2013</v>
       </c>
@@ -6571,7 +6575,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2014</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2014</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2015</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2015</v>
       </c>
@@ -6655,7 +6659,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2015</v>
       </c>
@@ -6676,7 +6680,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2016</v>
       </c>
@@ -6697,7 +6701,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2016</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2017</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2017</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2018</v>
       </c>
@@ -6781,7 +6785,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2018</v>
       </c>
@@ -6802,7 +6806,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2019</v>
       </c>
@@ -6823,7 +6827,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2019</v>
       </c>
@@ -6852,7 +6856,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D12">
-    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6869,7 +6873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 E13:E20">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6886,7 +6890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6903,7 +6907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E12">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6920,7 +6924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D20">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6952,17 +6956,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -6977,7 +6981,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6986,7 +6990,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -7004,7 +7008,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2011</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2012</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2013</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2015</v>
       </c>
@@ -7076,7 +7080,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2016</v>
       </c>
@@ -7095,7 +7099,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2017</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2018</v>
       </c>
@@ -7131,7 +7135,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2019</v>
       </c>
@@ -7156,7 +7160,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7185,17 +7189,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -7210,7 +7214,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7219,7 +7223,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -7237,7 +7241,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2009</v>
       </c>
@@ -7255,7 +7259,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2011</v>
       </c>
@@ -7273,7 +7277,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2013</v>
       </c>
@@ -7309,7 +7313,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2013</v>
       </c>
@@ -7328,7 +7332,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2014</v>
       </c>
@@ -7346,7 +7350,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2015</v>
       </c>
@@ -7371,7 +7375,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7394,26 +7398,26 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -7428,7 +7432,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7437,7 +7441,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -7455,7 +7459,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -7469,11 +7473,11 @@
         <v>0</v>
       </c>
       <c r="E4" s="10" t="str">
-        <f t="shared" ref="E4:E24" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E4:E23" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2008</v>
       </c>
@@ -7491,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2009</v>
       </c>
@@ -7509,7 +7513,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2009</v>
       </c>
@@ -7527,7 +7531,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2010</v>
       </c>
@@ -7546,11 +7550,11 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2011</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="21" t="s">
         <v>418</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -7564,15 +7568,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>418</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -7582,7 +7586,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -7590,7 +7594,7 @@
         <v>418</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>425</v>
+        <v>1</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -7600,15 +7604,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>1</v>
+        <v>426</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -7618,15 +7622,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>419</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -7636,7 +7640,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -7644,7 +7648,7 @@
         <v>419</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>427</v>
+        <v>541</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -7653,16 +7657,17 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -7671,9 +7676,8 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -7681,7 +7685,7 @@
         <v>418</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -7691,7 +7695,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2015</v>
       </c>
@@ -7699,7 +7703,7 @@
         <v>418</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>429</v>
+        <v>289</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -7709,15 +7713,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>289</v>
+        <v>430</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -7727,15 +7731,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2016</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -7745,15 +7749,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>418</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -7763,7 +7767,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2017</v>
       </c>
@@ -7771,7 +7775,7 @@
         <v>418</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -7781,15 +7785,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -7799,7 +7803,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2018</v>
       </c>
@@ -7807,30 +7811,12 @@
         <v>421</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
       </c>
       <c r="E23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="14">
-        <v>2018</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -7841,12 +7827,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3:D23">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D24">
+  <conditionalFormatting sqref="D3:D23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7859,7 +7845,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7874,17 +7861,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -7899,7 +7886,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7908,7 +7895,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -7926,7 +7913,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -7944,7 +7931,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -7962,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -7980,7 +7967,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2008</v>
       </c>
@@ -7998,7 +7985,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -8017,7 +8004,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -8035,7 +8022,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -8053,7 +8040,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -8071,7 +8058,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2013</v>
       </c>
@@ -8089,7 +8076,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2014</v>
       </c>
@@ -8107,7 +8094,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -8125,7 +8112,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2015</v>
       </c>
@@ -8144,7 +8131,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -8162,7 +8149,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2016</v>
       </c>
@@ -8180,7 +8167,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2016</v>
       </c>
@@ -8198,7 +8185,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2017</v>
       </c>
@@ -8216,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -8234,7 +8221,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -8252,7 +8239,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -8270,7 +8257,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2019</v>
       </c>
@@ -8288,7 +8275,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -8313,7 +8300,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8345,17 +8332,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -8370,7 +8357,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8379,7 +8366,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2009</v>
       </c>
@@ -8397,7 +8384,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2009</v>
       </c>
@@ -8415,7 +8402,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2011</v>
       </c>
@@ -8433,7 +8420,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -8451,7 +8438,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2013</v>
       </c>
@@ -8469,7 +8456,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2014</v>
       </c>
@@ -8488,7 +8475,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2015</v>
       </c>
@@ -8506,7 +8493,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2015</v>
       </c>
@@ -8524,7 +8511,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2016</v>
       </c>
@@ -8542,7 +8529,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2017</v>
       </c>
@@ -8560,7 +8547,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2018</v>
       </c>
@@ -8578,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2019</v>
       </c>
@@ -8603,7 +8590,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D14">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8635,17 +8622,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" customWidth="1"/>
+    <col min="4" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -8660,7 +8647,7 @@
       </c>
       <c r="E1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8671,7 +8658,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2014</v>
       </c>
@@ -8692,7 +8679,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -8713,7 +8700,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2015</v>
       </c>
@@ -8734,7 +8721,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2016</v>
       </c>
@@ -8755,7 +8742,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2016</v>
       </c>
@@ -8776,7 +8763,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2017</v>
       </c>
@@ -8798,7 +8785,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2017</v>
       </c>
@@ -8819,7 +8806,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2018</v>
       </c>
@@ -8840,7 +8827,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2018</v>
       </c>
@@ -8861,7 +8848,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2019</v>
       </c>
@@ -8882,7 +8869,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2019</v>
       </c>
@@ -8903,7 +8890,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="G16" s="2"/>
     </row>
   </sheetData>
@@ -8914,7 +8901,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 E4:E5 D6:D7 D10:D11 E8:E9 E12:E13">
-    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8931,7 +8918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="95" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8948,7 +8935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8965,7 +8952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="93" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8982,7 +8969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8999,7 +8986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9016,7 +9003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9033,7 +9020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9050,7 +9037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9067,12 +9054,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9116,16 +9103,16 @@
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -9142,7 +9129,7 @@
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -9159,7 +9146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -9186,7 +9173,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2008</v>
       </c>
@@ -9213,7 +9200,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -9240,7 +9227,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -9267,7 +9254,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -9294,7 +9281,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -9321,7 +9308,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2013</v>
       </c>
@@ -9348,7 +9335,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2014</v>
       </c>
@@ -9375,7 +9362,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2015</v>
       </c>
@@ -9402,7 +9389,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2015</v>
       </c>
@@ -9429,7 +9416,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2016</v>
       </c>
@@ -9456,7 +9443,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2017</v>
       </c>
@@ -9483,7 +9470,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2018</v>
       </c>
@@ -9518,7 +9505,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9571,7 +9558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="45" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9588,7 +9575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="44" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9605,7 +9592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="43" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9622,7 +9609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9639,7 +9626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="41" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9656,7 +9643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="40" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9673,7 +9660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="39" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9690,7 +9677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="38" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9707,7 +9694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9724,7 +9711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9741,7 +9728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9758,7 +9745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9775,7 +9762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9792,7 +9779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9809,7 +9796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9826,7 +9813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9843,7 +9830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9860,7 +9847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9877,7 +9864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9906,7 +9893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9923,7 +9910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9940,7 +9927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9969,7 +9956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9986,7 +9973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10003,7 +9990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10032,7 +10019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10049,7 +10036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10066,7 +10053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10083,7 +10070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10100,7 +10087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10117,7 +10104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10146,7 +10133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10163,7 +10150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10180,7 +10167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10229,17 +10216,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -10254,7 +10241,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -10263,7 +10250,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -10281,7 +10268,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -10299,7 +10286,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -10317,7 +10304,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -10335,7 +10322,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2007</v>
       </c>
@@ -10353,7 +10340,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2008</v>
       </c>
@@ -10372,7 +10359,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2009</v>
       </c>
@@ -10390,7 +10377,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2009</v>
       </c>
@@ -10408,7 +10395,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2010</v>
       </c>
@@ -10426,7 +10413,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2011</v>
       </c>
@@ -10444,7 +10431,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2012</v>
       </c>
@@ -10462,7 +10449,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2012</v>
       </c>
@@ -10480,7 +10467,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2013</v>
       </c>
@@ -10499,7 +10486,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2013</v>
       </c>
@@ -10517,7 +10504,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2014</v>
       </c>
@@ -10535,7 +10522,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2014</v>
       </c>
@@ -10553,7 +10540,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2015</v>
       </c>
@@ -10571,7 +10558,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2015</v>
       </c>
@@ -10585,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2015</v>
       </c>
@@ -10599,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2016</v>
       </c>
@@ -10613,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2016</v>
       </c>
@@ -10627,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>2017</v>
       </c>
@@ -10641,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>2017</v>
       </c>
@@ -10655,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>2018</v>
       </c>
@@ -10669,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>2018</v>
       </c>
@@ -10690,7 +10677,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10722,17 +10709,17 @@
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -10747,7 +10734,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -10756,7 +10743,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -10774,7 +10761,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2008</v>
       </c>
@@ -10792,7 +10779,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -10810,7 +10797,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -10828,7 +10815,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -10846,7 +10833,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -10865,7 +10852,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2012</v>
       </c>
@@ -10883,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2013</v>
       </c>
@@ -10901,7 +10888,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2013</v>
       </c>
@@ -10919,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2014</v>
       </c>
@@ -10937,7 +10924,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2014</v>
       </c>
@@ -10955,7 +10942,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2015</v>
       </c>
@@ -10973,7 +10960,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2015</v>
       </c>
@@ -10992,7 +10979,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -11010,7 +10997,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2016</v>
       </c>
@@ -11028,7 +11015,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2016</v>
       </c>
@@ -11046,7 +11033,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2017</v>
       </c>
@@ -11064,7 +11051,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -11082,7 +11069,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -11100,7 +11087,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -11118,7 +11105,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2019</v>
       </c>
@@ -11132,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -11153,7 +11140,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11185,16 +11172,16 @@
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -11210,7 +11197,7 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -11224,7 +11211,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2012</v>
       </c>
@@ -11248,7 +11235,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -11272,7 +11259,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -11296,7 +11283,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2017</v>
       </c>
@@ -11320,7 +11307,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2018</v>
       </c>
@@ -11344,7 +11331,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2018</v>
       </c>
@@ -11368,7 +11355,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2019</v>
       </c>
@@ -11392,7 +11379,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2019</v>
       </c>
@@ -11416,7 +11403,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" s="5"/>
     </row>
   </sheetData>
@@ -11427,7 +11414,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11444,12 +11431,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11478,7 +11465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11495,7 +11482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11512,7 +11499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10 E9:E10">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11541,17 +11528,17 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>531</v>
       </c>
@@ -11562,7 +11549,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11573,7 +11560,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11584,7 +11571,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11595,7 +11582,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11631,17 +11618,17 @@
       <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -11655,7 +11642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -11663,7 +11650,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2005</v>
       </c>
@@ -11681,7 +11668,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2006</v>
       </c>
@@ -11699,7 +11686,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2007</v>
       </c>
@@ -11717,7 +11704,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2008</v>
       </c>
@@ -11735,7 +11722,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2009</v>
       </c>
@@ -11753,7 +11740,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -11772,7 +11759,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -11790,7 +11777,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -11808,7 +11795,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -11826,7 +11813,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2012</v>
       </c>
@@ -11844,7 +11831,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2013</v>
       </c>
@@ -11862,7 +11849,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -11880,7 +11867,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2014</v>
       </c>
@@ -11899,7 +11886,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -11917,7 +11904,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2015</v>
       </c>
@@ -11935,7 +11922,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2016</v>
       </c>
@@ -11953,7 +11940,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2016</v>
       </c>
@@ -11971,7 +11958,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -11989,7 +11976,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2017</v>
       </c>
@@ -12007,7 +11994,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -12025,7 +12012,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2018</v>
       </c>
@@ -12043,7 +12030,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -12061,7 +12048,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>2019</v>
       </c>
@@ -12086,7 +12073,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12115,19 +12102,19 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -12141,7 +12128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -12149,7 +12136,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -12167,7 +12154,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -12185,7 +12172,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -12203,7 +12190,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -12221,7 +12208,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2008</v>
       </c>
@@ -12239,7 +12226,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2008</v>
       </c>
@@ -12257,7 +12244,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -12275,7 +12262,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -12294,7 +12281,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -12312,7 +12299,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2013</v>
       </c>
@@ -12331,7 +12318,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2013</v>
       </c>
@@ -12349,7 +12336,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -12367,7 +12354,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2015</v>
       </c>
@@ -12385,7 +12372,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2016</v>
       </c>
@@ -12403,7 +12390,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2016</v>
       </c>
@@ -12421,7 +12408,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2017</v>
       </c>
@@ -12439,7 +12426,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2017</v>
       </c>
@@ -12457,7 +12444,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2018</v>
       </c>
@@ -12475,7 +12462,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -12493,7 +12480,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2019</v>
       </c>
@@ -12518,7 +12505,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12551,20 +12538,20 @@
       <pane xSplit="13" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="5" customWidth="1"/>
-    <col min="2" max="6" width="12.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="82.5703125" style="5" customWidth="1"/>
-    <col min="8" max="12" width="3.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" style="5" customWidth="1"/>
+    <col min="2" max="6" width="12.7265625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="82.54296875" style="5" customWidth="1"/>
+    <col min="8" max="12" width="3.7265625" style="5" customWidth="1"/>
     <col min="13" max="13" width="15" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="5"/>
+    <col min="14" max="16384" width="9.1796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -12587,7 +12574,7 @@
       <c r="L1" s="38"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="28" t="s">
         <v>112</v>
@@ -12622,7 +12609,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2006</v>
       </c>
@@ -12664,7 +12651,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -12706,7 +12693,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2007</v>
       </c>
@@ -12748,7 +12735,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2008</v>
       </c>
@@ -12790,7 +12777,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2009</v>
       </c>
@@ -12832,7 +12819,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -12874,7 +12861,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -12916,7 +12903,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -12958,7 +12945,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -13000,7 +12987,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2012</v>
       </c>
@@ -13042,7 +13029,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2013</v>
       </c>
@@ -13084,7 +13071,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2013</v>
       </c>
@@ -13126,7 +13113,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2014</v>
       </c>
@@ -13168,7 +13155,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -13210,7 +13197,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2015</v>
       </c>
@@ -13252,7 +13239,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2015</v>
       </c>
@@ -13294,7 +13281,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2016</v>
       </c>
@@ -13336,7 +13323,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -13378,7 +13365,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -13420,7 +13407,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -13462,7 +13449,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2019</v>
       </c>
@@ -13504,7 +13491,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -13554,7 +13541,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H24">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13571,7 +13558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I24">
-    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13588,7 +13575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J24">
-    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13605,7 +13592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K24">
-    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13622,7 +13609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L24">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13654,17 +13641,17 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -13678,7 +13665,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -13686,7 +13673,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -13704,7 +13691,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -13722,7 +13709,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -13740,7 +13727,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -13758,7 +13745,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -13776,7 +13763,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -13795,7 +13782,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2013</v>
       </c>
@@ -13813,7 +13800,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2013</v>
       </c>
@@ -13831,7 +13818,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2014</v>
       </c>
@@ -13849,7 +13836,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2014</v>
       </c>
@@ -13867,7 +13854,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2015</v>
       </c>
@@ -13885,7 +13872,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2015</v>
       </c>
@@ -13903,7 +13890,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2016</v>
       </c>
@@ -13922,7 +13909,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2016</v>
       </c>
@@ -13940,7 +13927,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2017</v>
       </c>
@@ -13958,7 +13945,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2017</v>
       </c>
@@ -13976,7 +13963,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2018</v>
       </c>
@@ -13994,7 +13981,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2018</v>
       </c>
@@ -14012,7 +13999,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2019</v>
       </c>
@@ -14030,7 +14017,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2019</v>
       </c>
@@ -14067,7 +14054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14087,17 +14074,17 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -14112,7 +14099,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14121,7 +14108,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -14136,7 +14123,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2009</v>
       </c>
@@ -14154,7 +14141,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2012</v>
       </c>
@@ -14172,7 +14159,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -14190,7 +14177,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2016</v>
       </c>
@@ -14208,7 +14195,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2019</v>
       </c>
@@ -14234,7 +14221,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14266,17 +14253,17 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -14291,7 +14278,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14300,7 +14287,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="13">
         <v>2005</v>
       </c>
@@ -14318,7 +14305,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -14336,7 +14323,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -14354,7 +14341,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -14372,7 +14359,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -14390,7 +14377,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -14409,7 +14396,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2012</v>
       </c>
@@ -14427,7 +14414,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2013</v>
       </c>
@@ -14445,7 +14432,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2014</v>
       </c>
@@ -14463,7 +14450,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2014</v>
       </c>
@@ -14481,7 +14468,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2015</v>
       </c>
@@ -14499,7 +14486,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2015</v>
       </c>
@@ -14517,7 +14504,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2016</v>
       </c>
@@ -14536,7 +14523,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2017</v>
       </c>
@@ -14554,7 +14541,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2018</v>
       </c>
@@ -14572,7 +14559,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2018</v>
       </c>
@@ -14590,7 +14577,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2019</v>
       </c>
@@ -14608,7 +14595,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2020</v>
       </c>
@@ -14626,7 +14613,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2021</v>
       </c>
@@ -14642,7 +14629,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2022</v>
       </c>
@@ -14665,7 +14652,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14692,23 +14679,23 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -14723,7 +14710,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14732,7 +14719,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>2004</v>
       </c>
@@ -14750,7 +14737,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -14768,7 +14755,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -14786,7 +14773,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -14804,7 +14791,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>2008</v>
       </c>
@@ -14822,7 +14809,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -14841,7 +14828,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>2009</v>
       </c>
@@ -14859,7 +14846,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>2010</v>
       </c>
@@ -14877,7 +14864,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2011</v>
       </c>
@@ -14895,7 +14882,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>2012</v>
       </c>
@@ -14913,7 +14900,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2012</v>
       </c>
@@ -14931,7 +14918,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>2013</v>
       </c>
@@ -14949,7 +14936,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>2013</v>
       </c>
@@ -14968,7 +14955,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>2014</v>
       </c>
@@ -14986,7 +14973,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>2014</v>
       </c>
@@ -15004,7 +14991,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>2015</v>
       </c>
@@ -15022,7 +15009,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>2015</v>
       </c>
@@ -15040,7 +15027,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>2015</v>
       </c>
@@ -15058,7 +15045,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>2016</v>
       </c>
@@ -15076,7 +15063,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>2016</v>
       </c>
@@ -15094,7 +15081,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2017</v>
       </c>
@@ -15112,7 +15099,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>2017</v>
       </c>
@@ -15130,7 +15117,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>2018</v>
       </c>
@@ -15148,7 +15135,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>2018</v>
       </c>
@@ -15166,7 +15153,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>2019</v>
       </c>
@@ -15184,7 +15171,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>2020</v>
       </c>
@@ -15200,7 +15187,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>2020</v>
       </c>
@@ -15223,7 +15210,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27 D29">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15240,7 +15227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="14" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Австрия" sheetId="5" r:id="rId1"/>
@@ -3608,6 +3608,15 @@
   </cellStyles>
   <dxfs count="98">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -4367,15 +4376,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4397,9 +4397,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="97"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="96" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="95"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4674,21 +4674,21 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="63" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="6"/>
+    <col min="4" max="4" width="12.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4710,7 +4710,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2005</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2015</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2016</v>
       </c>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2018</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" s="11"/>
     </row>
   </sheetData>
@@ -4847,7 +4847,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D9">
-    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4879,17 +4879,17 @@
       <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="E1" s="37"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -4915,7 +4915,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2009</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2012</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2017</v>
       </c>
@@ -5007,7 +5007,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5024,7 +5024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 D4:D5">
-    <cfRule type="containsText" dxfId="69" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5041,7 +5041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="68" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5058,7 +5058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5075,7 +5075,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5092,7 +5092,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5121,20 +5121,20 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5160,7 +5160,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2014</v>
       </c>
@@ -5181,7 +5181,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2015</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2016</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2016</v>
       </c>
@@ -5286,7 +5286,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2017</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2017</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2018</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2018</v>
       </c>
@@ -5378,7 +5378,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5395,7 +5395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5412,7 +5412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5 E7:E8 E11:E12">
-    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5429,7 +5429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5446,7 +5446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="60" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5463,7 +5463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5480,7 +5480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="58" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5497,7 +5497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5514,7 +5514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5546,17 +5546,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2015</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2017</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2018</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2018</v>
       </c>
@@ -5696,7 +5696,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5728,18 +5728,18 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -5755,7 +5755,7 @@
       <c r="E1" s="45"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -5769,7 +5769,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2007</v>
       </c>
@@ -5889,7 +5889,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2008</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2009</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2009</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2010</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2011</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2012</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2012</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2012</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2013</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2014</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2014</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2015</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2015</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2015</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2016</v>
       </c>
@@ -6249,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2017</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2017</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>2018</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>2018</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>2019</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>2019</v>
       </c>
@@ -6401,7 +6401,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:F28">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6434,17 +6434,17 @@
       <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="E1" s="43"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6470,7 +6470,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2009</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2011</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2012</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2013</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2014</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2014</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2015</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2015</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2015</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2016</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2016</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2017</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2017</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2018</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2018</v>
       </c>
@@ -6806,7 +6806,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2019</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2019</v>
       </c>
@@ -6856,7 +6856,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D12">
-    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6873,7 +6873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 E13:E20">
-    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6890,7 +6890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6907,7 +6907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E12">
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6924,7 +6924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D20">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,17 +6956,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -6990,7 +6990,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2011</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2012</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2013</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2015</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2016</v>
       </c>
@@ -7099,7 +7099,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2017</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2018</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2019</v>
       </c>
@@ -7160,7 +7160,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7189,17 +7189,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -7214,7 +7214,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7223,7 +7223,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2009</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2011</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2013</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2013</v>
       </c>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2014</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2015</v>
       </c>
@@ -7375,7 +7375,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7407,17 +7407,17 @@
       <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -7459,7 +7459,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2008</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2009</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2009</v>
       </c>
@@ -7531,7 +7531,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2010</v>
       </c>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2011</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2012</v>
       </c>
@@ -7586,7 +7586,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2013</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2014</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -7659,7 +7659,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2015</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2015</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2016</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2016</v>
       </c>
@@ -7749,7 +7749,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2017</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2018</v>
       </c>
@@ -7828,7 +7828,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D23">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7861,17 +7861,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -7895,7 +7895,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2008</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -8058,7 +8058,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2013</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2014</v>
       </c>
@@ -8094,7 +8094,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -8112,7 +8112,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2015</v>
       </c>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2016</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2016</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2017</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2019</v>
       </c>
@@ -8275,7 +8275,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -8300,7 +8300,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8332,17 +8332,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2009</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2009</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2011</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2012</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2013</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2014</v>
       </c>
@@ -8475,7 +8475,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2015</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2015</v>
       </c>
@@ -8511,7 +8511,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2016</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2017</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2018</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2019</v>
       </c>
@@ -8590,7 +8590,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D14">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8622,17 +8622,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" customWidth="1"/>
-    <col min="4" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E1" s="37"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -8658,7 +8658,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2014</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2015</v>
       </c>
@@ -8721,7 +8721,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2016</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2016</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2017</v>
       </c>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2017</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2018</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2018</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2019</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2019</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G16" s="2"/>
     </row>
   </sheetData>
@@ -8901,7 +8901,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 E4:E5 D6:D7 D10:D11 E8:E9 E12:E13">
-    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8918,7 +8918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8935,7 +8935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8952,7 +8952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8969,7 +8969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8986,7 +8986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="88" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9003,7 +9003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9020,7 +9020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9037,7 +9037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9054,12 +9054,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9103,16 +9103,16 @@
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -9129,7 +9129,7 @@
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -9146,7 +9146,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2008</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -9227,7 +9227,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -9281,7 +9281,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2013</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2014</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2015</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2015</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2016</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2017</v>
       </c>
@@ -9470,7 +9470,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2018</v>
       </c>
@@ -9505,7 +9505,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9558,7 +9558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9575,7 +9575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9592,7 +9592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9609,7 +9609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9626,7 +9626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9643,7 +9643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9660,7 +9660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9677,7 +9677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9694,7 +9694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9711,7 +9711,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9728,7 +9728,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9745,7 +9745,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9762,7 +9762,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9779,7 +9779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9796,7 +9796,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9813,7 +9813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9830,7 +9830,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9847,7 +9847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9864,7 +9864,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9893,7 +9893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9910,7 +9910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9927,7 +9927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9956,7 +9956,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9973,7 +9973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9990,7 +9990,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10019,7 +10019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10036,7 +10036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10053,7 +10053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10070,7 +10070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10087,7 +10087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10104,7 +10104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10133,7 +10133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10150,7 +10150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10167,7 +10167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10216,17 +10216,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -10241,7 +10241,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -10286,7 +10286,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2007</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2008</v>
       </c>
@@ -10359,7 +10359,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2009</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2009</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2010</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2011</v>
       </c>
@@ -10431,7 +10431,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2012</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2012</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2013</v>
       </c>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2013</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2014</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2014</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2015</v>
       </c>
@@ -10558,7 +10558,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2015</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2015</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2016</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2016</v>
       </c>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2017</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>2017</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>2018</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>2018</v>
       </c>
@@ -10677,7 +10677,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10709,17 +10709,17 @@
       <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2008</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -10797,7 +10797,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -10815,7 +10815,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2012</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2013</v>
       </c>
@@ -10888,7 +10888,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2013</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2014</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2014</v>
       </c>
@@ -10942,7 +10942,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2015</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2015</v>
       </c>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2016</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2016</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2017</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2019</v>
       </c>
@@ -11119,7 +11119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -11140,7 +11140,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11172,16 +11172,16 @@
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -11197,7 +11197,7 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -11211,7 +11211,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2012</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2015</v>
       </c>
@@ -11259,7 +11259,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2016</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2017</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2018</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2018</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2019</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2019</v>
       </c>
@@ -11403,7 +11403,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
     </row>
   </sheetData>
@@ -11414,7 +11414,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11431,12 +11431,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11465,7 +11465,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11482,7 +11482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11499,7 +11499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10 E9:E10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11524,21 +11524,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>531</v>
       </c>
@@ -11549,7 +11549,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -11571,7 +11571,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -11582,7 +11582,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -11618,17 +11618,17 @@
       <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -11650,7 +11650,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2005</v>
       </c>
@@ -11668,7 +11668,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2006</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2007</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2008</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2009</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -11759,7 +11759,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2012</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2013</v>
       </c>
@@ -11849,7 +11849,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -11867,7 +11867,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2014</v>
       </c>
@@ -11886,7 +11886,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2015</v>
       </c>
@@ -11922,7 +11922,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2016</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2016</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2017</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2018</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>2019</v>
       </c>
@@ -12073,7 +12073,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12105,16 +12105,16 @@
       <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -12136,7 +12136,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2008</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2008</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2013</v>
       </c>
@@ -12318,7 +12318,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2013</v>
       </c>
@@ -12336,7 +12336,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2014</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2015</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2016</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2016</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2017</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2017</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2018</v>
       </c>
@@ -12462,7 +12462,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2019</v>
       </c>
@@ -12505,7 +12505,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12534,24 +12534,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="5" customWidth="1"/>
-    <col min="2" max="6" width="12.7265625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="82.54296875" style="5" customWidth="1"/>
-    <col min="8" max="12" width="3.7265625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="5" customWidth="1"/>
+    <col min="2" max="6" width="12.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="82.5703125" style="5" customWidth="1"/>
+    <col min="8" max="12" width="3.7109375" style="5" customWidth="1"/>
     <col min="13" max="13" width="15" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="5"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -12574,7 +12574,7 @@
       <c r="L1" s="38"/>
       <c r="M1" s="6"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="28" t="s">
         <v>112</v>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2006</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2007</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2008</v>
       </c>
@@ -12777,7 +12777,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2009</v>
       </c>
@@ -12819,7 +12819,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2010</v>
       </c>
@@ -12903,7 +12903,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2011</v>
       </c>
@@ -12945,7 +12945,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2012</v>
       </c>
@@ -12987,7 +12987,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2012</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2013</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2013</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2014</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2015</v>
       </c>
@@ -13197,7 +13197,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2015</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2015</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2016</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2017</v>
       </c>
@@ -13365,7 +13365,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2018</v>
       </c>
@@ -13407,7 +13407,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2018</v>
       </c>
@@ -13449,7 +13449,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2019</v>
       </c>
@@ -13491,7 +13491,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2019</v>
       </c>
@@ -13541,7 +13541,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H24">
-    <cfRule type="containsText" dxfId="80" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13558,7 +13558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I24">
-    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13575,7 +13575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J24">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13592,7 +13592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K24">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13609,7 +13609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L24">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13641,17 +13641,17 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -13673,7 +13673,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2004</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -13709,7 +13709,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -13782,7 +13782,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2013</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2013</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2014</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2014</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2015</v>
       </c>
@@ -13872,7 +13872,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2015</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2016</v>
       </c>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2016</v>
       </c>
@@ -13927,7 +13927,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2017</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2017</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2018</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2018</v>
       </c>
@@ -13999,7 +13999,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2019</v>
       </c>
@@ -14017,7 +14017,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2019</v>
       </c>
@@ -14054,7 +14054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14074,17 +14074,17 @@
       <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -14099,7 +14099,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2007</v>
       </c>
@@ -14123,7 +14123,7 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2009</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2012</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2015</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2016</v>
       </c>
@@ -14195,7 +14195,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2019</v>
       </c>
@@ -14221,7 +14221,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14253,17 +14253,17 @@
       <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -14278,7 +14278,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2005</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2007</v>
       </c>
@@ -14323,7 +14323,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2009</v>
       </c>
@@ -14341,7 +14341,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2010</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2011</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2012</v>
       </c>
@@ -14396,7 +14396,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2012</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2013</v>
       </c>
@@ -14432,7 +14432,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2014</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2014</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2015</v>
       </c>
@@ -14486,7 +14486,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2015</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2016</v>
       </c>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2017</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2018</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2018</v>
       </c>
@@ -14577,7 +14577,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2019</v>
       </c>
@@ -14595,7 +14595,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2020</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2021</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2022</v>
       </c>
@@ -14652,7 +14652,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14685,17 +14685,17 @@
       <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>50</v>
       </c>
@@ -14710,7 +14710,7 @@
       </c>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
@@ -14719,7 +14719,7 @@
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2004</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2005</v>
       </c>
@@ -14755,7 +14755,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>2006</v>
       </c>
@@ -14773,7 +14773,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>2007</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>2008</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>2009</v>
       </c>
@@ -14828,7 +14828,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>2009</v>
       </c>
@@ -14846,7 +14846,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>2010</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>2011</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>2012</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>2012</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>2013</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>2013</v>
       </c>
@@ -14955,7 +14955,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>2014</v>
       </c>
@@ -14973,7 +14973,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>2014</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>2015</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>2015</v>
       </c>
@@ -15027,7 +15027,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>2015</v>
       </c>
@@ -15045,7 +15045,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>2016</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>2016</v>
       </c>
@@ -15081,7 +15081,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>2017</v>
       </c>
@@ -15099,7 +15099,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>2017</v>
       </c>
@@ -15117,7 +15117,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>2018</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>2018</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>2019</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>2020</v>
       </c>
@@ -15187,7 +15187,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>2020</v>
       </c>
@@ -15210,7 +15210,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27 D29">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15227,7 +15227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Австрия" sheetId="5" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="547">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -3122,6 +3122,21 @@
   </si>
   <si>
     <t>Международный год семейных фермерских хозяйств</t>
+  </si>
+  <si>
+    <t>Сутартинес</t>
+  </si>
+  <si>
+    <t>Жемайтия</t>
+  </si>
+  <si>
+    <t>500-летие кругосветного плавания Фернана Магеллана</t>
+  </si>
+  <si>
+    <t>600-летие открытия архипелага Мадейра</t>
+  </si>
+  <si>
+    <t>770.000</t>
   </si>
 </sst>
 </file>
@@ -3606,7 +3621,151 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
+  <dxfs count="116">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4397,9 +4556,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
+    <tableColumn id="1" name="№" dataDxfId="20"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="19" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4847,7 +5006,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D9">
-    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5007,7 +5166,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5024,7 +5183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 D4:D5">
-    <cfRule type="containsText" dxfId="72" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5041,7 +5200,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5058,7 +5217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5075,7 +5234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="69" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5092,7 +5251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5121,7 +5280,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5338,11 +5497,11 @@
       <c r="C11" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
+      <c r="D11" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="E11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5362,8 +5521,8 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
-        <v>0</v>
+      <c r="E12" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5377,12 +5536,46 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D9:D12">
-    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D9:D10 D12">
+    <cfRule type="containsText" dxfId="85" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D12">
+  <conditionalFormatting sqref="D9:D10 D12">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="84" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
+    <cfRule type="containsText" dxfId="83" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5394,13 +5587,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5411,13 +5604,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E7:E8 E11:E12">
-    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E7:E8 E11:E12">
-    <cfRule type="colorScale" priority="24">
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -5428,12 +5621,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="80" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="containsText" dxfId="79" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="78" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="77" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5445,12 +5706,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5462,74 +5723,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="62" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -5537,13 +5730,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5689,6 +5882,34 @@
       </c>
       <c r="F8" s="2"/>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>543</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -5696,11 +5917,45 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="58" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5721,11 +5976,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5782,11 +6037,11 @@
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7">
-        <v>0</v>
+      <c r="E3" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -5803,14 +6058,14 @@
       <c r="C4" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="9">
-        <v>0</v>
+      <c r="D4" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="9">
-        <v>0</v>
+      <c r="F4" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G4" s="8" t="str">
         <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -5827,14 +6082,14 @@
       <c r="C5" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="9">
-        <v>0</v>
+      <c r="D5" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
-      <c r="F5" s="9">
-        <v>0</v>
+      <c r="F5" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5851,11 +6106,11 @@
       <c r="C6" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
+      <c r="D6" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -5875,11 +6130,11 @@
       <c r="C7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0</v>
+      <c r="D7" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -5899,11 +6154,11 @@
       <c r="C8" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
+      <c r="D8" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -5926,11 +6181,11 @@
       <c r="D9" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
+      <c r="E9" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5950,11 +6205,11 @@
       <c r="D10" s="9">
         <v>0</v>
       </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
+      <c r="E10" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5974,11 +6229,11 @@
       <c r="D11" s="9">
         <v>0</v>
       </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
+      <c r="E11" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -5998,11 +6253,11 @@
       <c r="D12" s="9">
         <v>0</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
+      <c r="E12" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6022,11 +6277,11 @@
       <c r="D13" s="9">
         <v>0</v>
       </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
+      <c r="E13" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6046,11 +6301,11 @@
       <c r="D14" s="9">
         <v>0</v>
       </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
+      <c r="E14" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6070,11 +6325,11 @@
       <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
+      <c r="E15" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6094,11 +6349,11 @@
       <c r="D16" s="9">
         <v>0</v>
       </c>
-      <c r="E16" s="9">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0</v>
+      <c r="E16" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6118,11 +6373,11 @@
       <c r="D17" s="9">
         <v>0</v>
       </c>
-      <c r="E17" s="9">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
-        <v>0</v>
+      <c r="E17" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6142,11 +6397,11 @@
       <c r="D18" s="9">
         <v>0</v>
       </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0</v>
+      <c r="E18" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6166,11 +6421,11 @@
       <c r="D19" s="9">
         <v>0</v>
       </c>
-      <c r="E19" s="9">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
-        <v>0</v>
+      <c r="E19" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6190,11 +6445,11 @@
       <c r="D20" s="9">
         <v>0</v>
       </c>
-      <c r="E20" s="9">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
+      <c r="E20" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6214,11 +6469,11 @@
       <c r="D21" s="9">
         <v>0</v>
       </c>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0</v>
+      <c r="E21" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6238,11 +6493,11 @@
       <c r="D22" s="9">
         <v>0</v>
       </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0</v>
+      <c r="E22" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6262,11 +6517,11 @@
       <c r="D23" s="9">
         <v>0</v>
       </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0</v>
+      <c r="E23" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6286,11 +6541,11 @@
       <c r="D24" s="9">
         <v>0</v>
       </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0</v>
+      <c r="E24" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6310,11 +6565,11 @@
       <c r="D25" s="9">
         <v>0</v>
       </c>
-      <c r="E25" s="9">
-        <v>0</v>
-      </c>
-      <c r="F25" s="9">
-        <v>0</v>
+      <c r="E25" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6334,11 +6589,11 @@
       <c r="D26" s="9">
         <v>0</v>
       </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0</v>
+      <c r="E26" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6356,13 +6611,13 @@
         <v>368</v>
       </c>
       <c r="D27" s="9">
-        <v>0</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0</v>
-      </c>
-      <c r="F27" s="9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6382,11 +6637,11 @@
       <c r="D28" s="9">
         <v>0</v>
       </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="9">
-        <v>0</v>
+      <c r="E28" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6400,12 +6655,250 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:F28">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3 E4:E5 F6:F8 D9:D28">
+    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:F28">
+  <conditionalFormatting sqref="E4:E5 D3 F6:F8 D9:D28">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F28">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E28">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6431,7 +6924,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6820,7 +7313,7 @@
         <v>214</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6841,7 +7334,7 @@
         <v>214</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6856,7 +7349,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D12">
-    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6873,7 +7366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 E13:E20">
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6890,7 +7383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6907,7 +7400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E12">
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6924,7 +7417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D20">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6953,7 +7446,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7160,7 +7653,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7375,7 +7868,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7398,13 +7891,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7821,18 +8314,46 @@
         <v/>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>546</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>544</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>545</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D23">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D23">
+  <conditionalFormatting sqref="D3:D25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8300,7 +8821,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8590,7 +9111,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D14">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8901,7 +9422,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 E4:E5 D6:D7 D10:D11 E8:E9 E12:E13">
-    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8918,7 +9439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="95" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8935,7 +9456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8952,7 +9473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="93" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8969,7 +9490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="92" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8986,7 +9507,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9003,7 +9524,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9020,7 +9541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="89" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9037,7 +9558,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="88" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9054,12 +9575,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9100,7 +9621,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9505,7 +10026,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9558,7 +10079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="45" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9575,7 +10096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="44" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9592,7 +10113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="43" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9609,7 +10130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9626,7 +10147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="41" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9643,7 +10164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="40" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9660,7 +10181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="39" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9677,7 +10198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="38" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9694,7 +10215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9711,7 +10232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9728,7 +10249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9745,7 +10266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9762,7 +10283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9779,7 +10300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9796,7 +10317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9813,7 +10334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9830,7 +10351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9847,7 +10368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9864,7 +10385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9893,7 +10414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9910,7 +10431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9927,7 +10448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9956,7 +10477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9973,7 +10494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9990,7 +10511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10019,7 +10540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10036,7 +10557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10053,7 +10574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10070,7 +10591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10087,7 +10608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10104,7 +10625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10133,7 +10654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10150,7 +10671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10167,7 +10688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10677,7 +11198,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10706,7 +11227,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11130,7 +11651,7 @@
         <v>111</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11140,7 +11661,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11169,7 +11690,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11372,7 +11893,7 @@
         <v>214</v>
       </c>
       <c r="F9" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11414,7 +11935,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11431,12 +11952,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11465,7 +11986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11482,7 +12003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11499,7 +12020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10 E9:E10">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11528,7 +12049,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12073,7 +12594,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12505,7 +13026,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="84" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12534,7 +13055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="13" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13541,7 +14062,7 @@
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H24">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13558,7 +14079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I24">
-    <cfRule type="containsText" dxfId="82" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13575,7 +14096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J24">
-    <cfRule type="containsText" dxfId="81" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13592,7 +14113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K24">
-    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13609,7 +14130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L24">
-    <cfRule type="containsText" dxfId="79" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13638,7 +14159,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14010,7 +14531,7 @@
         <v>243</v>
       </c>
       <c r="D21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -14028,7 +14549,7 @@
         <v>242</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -14054,7 +14575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14221,7 +14742,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="77" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14652,7 +15173,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="76" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14682,7 +15203,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15164,7 +15685,7 @@
         <v>306</v>
       </c>
       <c r="D27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="10" t="str">
         <f t="shared" si="0"/>
@@ -15210,7 +15731,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27 D29">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15227,7 +15748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Австрия" sheetId="5" r:id="rId1"/>
@@ -1496,7 +1496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="547">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -3623,6 +3623,15 @@
   </cellStyles>
   <dxfs count="116">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF9BE5FF"/>
@@ -3765,15 +3774,6 @@
           <bgColor rgb="FF9BE5FF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -4556,9 +4556,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="20"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="19" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="18"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5690,7 +5690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5707,7 +5707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5917,7 +5917,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5934,7 +5934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5951,7 +5951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5976,7 +5976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -6656,7 +6656,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 E4:E5 F6:F8 D9:D28">
-    <cfRule type="containsText" dxfId="75" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6673,7 +6673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6690,7 +6690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6707,7 +6707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6724,7 +6724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="14" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6741,7 +6741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6758,7 +6758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="12" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6775,7 +6775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6792,7 +6792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6809,7 +6809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6826,7 +6826,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6843,7 +6843,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6860,7 +6860,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6877,7 +6877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F28">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6894,7 +6894,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E28">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7349,7 +7349,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D12">
-    <cfRule type="containsText" dxfId="74" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7366,7 +7366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 E13:E20">
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7383,7 +7383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="72" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7400,7 +7400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E12">
-    <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7417,7 +7417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D20">
-    <cfRule type="containsText" dxfId="70" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7653,7 +7653,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7868,7 +7868,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="68" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8349,7 +8349,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="67" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8821,7 +8821,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9111,7 +9111,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D14">
-    <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10026,7 +10026,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="containsText" dxfId="64" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10079,7 +10079,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="63" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10096,7 +10096,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="62" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10113,7 +10113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="61" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10130,7 +10130,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10147,7 +10147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="59" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10164,7 +10164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10181,7 +10181,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="57" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10198,7 +10198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="56" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10215,7 +10215,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="55" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10232,7 +10232,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="54" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10249,7 +10249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10266,7 +10266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10283,7 +10283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10300,7 +10300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="50" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10317,7 +10317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="49" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10334,7 +10334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10351,7 +10351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10368,7 +10368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10385,7 +10385,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10414,7 +10414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="44" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10431,7 +10431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="43" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10448,7 +10448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10477,7 +10477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10494,7 +10494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10511,7 +10511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10540,7 +10540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10557,7 +10557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10574,7 +10574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10591,7 +10591,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10608,7 +10608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10625,7 +10625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10654,7 +10654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10671,7 +10671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10688,7 +10688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11198,7 +11198,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11661,7 +11661,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11935,7 +11935,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11952,12 +11952,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="containsText" dxfId="25" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8">
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11986,7 +11986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12003,7 +12003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12020,7 +12020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10 E9:E10">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14767,11 +14767,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15102,8 +15102,8 @@
       <c r="A19" s="14">
         <v>2019</v>
       </c>
-      <c r="B19" s="21" t="s">
-        <v>267</v>
+      <c r="B19" s="21">
+        <v>1000000</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>272</v>

--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Австрия" sheetId="5" r:id="rId1"/>
@@ -422,6 +422,20 @@
             <charset val="204"/>
           </rPr>
           <t>Парижский монетный двор</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>с F на заезде</t>
         </r>
       </text>
     </comment>
@@ -1496,7 +1510,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="550">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -3137,13 +3151,22 @@
   </si>
   <si>
     <t>770.000</t>
+  </si>
+  <si>
+    <t>ru.ucoin</t>
+  </si>
+  <si>
+    <t>Неудобный набор таблиц с разновидностями</t>
+  </si>
+  <si>
+    <t>100 лет университету в Любляне</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3248,6 +3271,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -3487,7 +3517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3578,6 +3608,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4549,8 +4582,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C5" totalsRowShown="0">
-  <autoFilter ref="A1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C6" totalsRowShown="0">
+  <autoFilter ref="A1:C6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4848,13 +4881,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -4862,9 +4895,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>211</v>
       </c>
@@ -5049,24 +5082,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="25" t="s">
         <v>219</v>
       </c>
@@ -5294,24 +5327,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="25" t="s">
         <v>326</v>
       </c>
@@ -5736,7 +5769,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5750,13 +5783,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -5765,9 +5798,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="25" t="s">
         <v>327</v>
       </c>
@@ -5856,7 +5889,7 @@
         <v>322</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5874,7 +5907,7 @@
         <v>329</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -5980,7 +6013,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5995,25 +6028,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>371</v>
       </c>
@@ -6539,7 +6572,7 @@
         <v>365</v>
       </c>
       <c r="D24" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>214</v>
@@ -6549,7 +6582,7 @@
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Есть на обмен</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6587,7 +6620,7 @@
         <v>367</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="18" t="s">
         <v>214</v>
@@ -6597,7 +6630,7 @@
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Есть на обмен</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6635,7 +6668,7 @@
         <v>369</v>
       </c>
       <c r="D28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>214</v>
@@ -6924,7 +6957,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6938,24 +6971,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="25" t="s">
         <v>371</v>
       </c>
@@ -7271,7 +7304,7 @@
         <v>214</v>
       </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7292,7 +7325,7 @@
         <v>214</v>
       </c>
       <c r="E18" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7460,13 +7493,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -7475,9 +7508,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>213</v>
       </c>
@@ -7693,13 +7726,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -7708,9 +7741,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="25" t="s">
         <v>371</v>
       </c>
@@ -7897,7 +7930,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7911,13 +7944,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -7926,9 +7959,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>413</v>
       </c>
@@ -8307,7 +8340,7 @@
         <v>435</v>
       </c>
       <c r="D23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="10" t="str">
         <f t="shared" si="0"/>
@@ -8393,13 +8426,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -8408,9 +8441,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>218</v>
       </c>
@@ -8864,13 +8897,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -8879,9 +8912,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>461</v>
       </c>
@@ -9154,24 +9187,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="37"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="25" t="s">
         <v>212</v>
       </c>
@@ -9615,13 +9648,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9634,26 +9667,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>370</v>
       </c>
@@ -10016,6 +10049,27 @@
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>2019</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="18" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -10641,7 +10695,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="F14:F16">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10653,12 +10707,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D15">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10670,12 +10724,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="E14:E16">
     <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E15">
+  <conditionalFormatting sqref="E14:E16">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10687,12 +10741,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="G14:G16">
     <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:G15">
+  <conditionalFormatting sqref="G14:G16">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10721,7 +10775,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E4 F8:F9 G13 E10 F11:F12 F14:F15</xm:sqref>
+          <xm:sqref>E4 F8:F9 G13 E10 F11:F12 F14:F16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10734,7 +10788,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10748,13 +10802,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -10763,9 +10817,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>370</v>
       </c>
@@ -11188,7 +11242,7 @@
         <v>498</v>
       </c>
       <c r="D27" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11223,11 +11277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11241,13 +11295,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -11256,9 +11310,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>213</v>
       </c>
@@ -11601,7 +11655,7 @@
         <v>523</v>
       </c>
       <c r="D21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="10" t="str">
         <f t="shared" si="0"/>
@@ -11619,7 +11673,7 @@
         <v>518</v>
       </c>
       <c r="D22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="10" t="str">
         <f t="shared" si="0"/>
@@ -11690,7 +11744,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11703,25 +11757,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="26" t="s">
         <v>112</v>
       </c>
@@ -11818,7 +11872,7 @@
         <v>214</v>
       </c>
       <c r="E6" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="18" t="s">
         <v>214</v>
@@ -11842,7 +11896,7 @@
         <v>214</v>
       </c>
       <c r="E7" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
         <v>214</v>
@@ -11866,7 +11920,7 @@
         <v>214</v>
       </c>
       <c r="E8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>214</v>
@@ -12043,7 +12097,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -12114,16 +12168,28 @@
         <v>539</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>548</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4" location="svodka"/>
+    <hyperlink ref="B6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -12150,13 +12216,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -12164,9 +12230,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>217</v>
       </c>
@@ -12636,13 +12702,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -12650,9 +12716,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>218</v>
       </c>
@@ -13059,7 +13125,7 @@
       <pane xSplit="13" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13073,30 +13139,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="36" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
       <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
+      <c r="A2" s="36"/>
       <c r="B2" s="28" t="s">
         <v>112</v>
       </c>
@@ -13112,7 +13178,7 @@
       <c r="F2" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="26" t="s">
         <v>112</v>
       </c>
@@ -13918,7 +13984,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
@@ -13960,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="9">
         <v>0</v>
@@ -13996,7 +14062,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="9">
         <v>0</v>
@@ -14159,7 +14225,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14173,13 +14239,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -14187,9 +14253,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>219</v>
       </c>
@@ -14592,7 +14658,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14606,13 +14672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -14621,9 +14687,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>244</v>
       </c>
@@ -14727,7 +14793,7 @@
         <v>255</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="10" t="str">
         <f>IF(OR(AND(D8&gt;1,D8&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -14767,11 +14833,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14785,13 +14851,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -14800,9 +14866,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>212</v>
       </c>
@@ -15109,7 +15175,7 @@
         <v>272</v>
       </c>
       <c r="D19" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="10" t="str">
         <f t="shared" si="0"/>
@@ -15203,7 +15269,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15217,13 +15283,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>52</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -15232,9 +15298,9 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="30" t="s">
         <v>218</v>
       </c>
@@ -15649,11 +15715,11 @@
         <v>293</v>
       </c>
       <c r="D25" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Есть на обмен</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -15667,7 +15733,7 @@
         <v>294</v>
       </c>
       <c r="D26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="10" t="str">
         <f t="shared" si="0"/>

--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Австрия" sheetId="5" r:id="rId1"/>
@@ -4862,11 +4862,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6013,7 +6013,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6668,7 +6668,7 @@
         <v>369</v>
       </c>
       <c r="D28" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>214</v>
@@ -6678,7 +6678,7 @@
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Есть на обмен</v>
       </c>
     </row>
   </sheetData>
@@ -11277,11 +11277,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11744,7 +11744,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11971,11 +11971,11 @@
         <v>214</v>
       </c>
       <c r="F10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>Есть на обмен</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12202,7 +12202,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14225,7 +14225,7 @@
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15266,7 +15266,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D26" sqref="D26"/>

--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,29 +12,28 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Андорра" sheetId="7" r:id="rId1"/>
-    <sheet name="Бельгия" sheetId="8" r:id="rId2"/>
-    <sheet name="Ватикан" sheetId="9" r:id="rId3"/>
-    <sheet name="Германия" sheetId="10" r:id="rId4"/>
-    <sheet name="Греция" sheetId="11" r:id="rId5"/>
-    <sheet name="Ирландия" sheetId="12" r:id="rId6"/>
-    <sheet name="Испания" sheetId="14" r:id="rId7"/>
-    <sheet name="Италия" sheetId="15" r:id="rId8"/>
-    <sheet name="Кипр" sheetId="16" r:id="rId9"/>
-    <sheet name="Латвия" sheetId="17" r:id="rId10"/>
-    <sheet name="Литва" sheetId="18" r:id="rId11"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId12"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId13"/>
-    <sheet name="Монако" sheetId="21" r:id="rId14"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId15"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId16"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId17"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId18"/>
-    <sheet name="Словения" sheetId="26" r:id="rId19"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId20"/>
-    <sheet name="Франция" sheetId="28" r:id="rId21"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId22"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId23"/>
+    <sheet name="Бельгия" sheetId="8" r:id="rId1"/>
+    <sheet name="Ватикан" sheetId="9" r:id="rId2"/>
+    <sheet name="Германия" sheetId="10" r:id="rId3"/>
+    <sheet name="Греция" sheetId="11" r:id="rId4"/>
+    <sheet name="Ирландия" sheetId="12" r:id="rId5"/>
+    <sheet name="Испания" sheetId="14" r:id="rId6"/>
+    <sheet name="Италия" sheetId="15" r:id="rId7"/>
+    <sheet name="Кипр" sheetId="16" r:id="rId8"/>
+    <sheet name="Латвия" sheetId="17" r:id="rId9"/>
+    <sheet name="Литва" sheetId="18" r:id="rId10"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId11"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId12"/>
+    <sheet name="Монако" sheetId="21" r:id="rId13"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId14"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId15"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId16"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId17"/>
+    <sheet name="Словения" sheetId="26" r:id="rId18"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId19"/>
+    <sheet name="Франция" sheetId="28" r:id="rId20"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId21"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,29 +80,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Испании</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Парижский монетный двор</t>
+          <t xml:space="preserve">Королевский монетный двор Бельгии (Брюссель)
+</t>
         </r>
       </text>
     </comment>
@@ -154,23 +138,6 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Немецкие монетные дворы:   
-  Монетный двор Штутгарта «F»
-  Монетный двор Карлсруэ «G»</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
           <t>Монетный двор Литвы</t>
         </r>
       </text>
@@ -180,57 +147,6 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Литвы</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -311,7 +227,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -391,7 +307,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -442,7 +358,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -493,7 +409,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -544,7 +460,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -595,7 +511,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -646,7 +562,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -742,6 +658,57 @@
 </comments>
 </file>
 
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Монетный двор Финляндии (Вантаа)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -778,14 +745,14 @@
       <text>
         <r>
           <rPr>
+            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t xml:space="preserve">Королевский монетный двор Бельгии (Брюссель)
-</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -836,7 +803,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Финляндии (Вантаа)</t>
+          <t>Парижский монетный двор</t>
         </r>
       </text>
     </comment>
@@ -845,57 +812,6 @@
 </file>
 
 <file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Парижский монетный двор</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -977,57 +893,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1187,7 +1052,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1238,7 +1103,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1289,7 +1154,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1340,7 +1205,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1391,7 +1256,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1457,8 +1322,76 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Немецкие монетные дворы:   
+  Монетный двор Штутгарта «F»
+  Монетный двор Карлсруэ «G»</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Монетный двор Литвы</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="535">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -1598,12 +1531,6 @@
     <t>Бельгийско-Люксембургский экономический союз</t>
   </si>
   <si>
-    <t>30-летие принятия возраста совершеннолетия в 18 лет</t>
-  </si>
-  <si>
-    <t>25-летие подписания таможенного соглашения с ЕС</t>
-  </si>
-  <si>
     <t>Год</t>
   </si>
   <si>
@@ -1613,27 +1540,6 @@
     <t>Название монеты</t>
   </si>
   <si>
-    <t>20 лет в составе Совета Европы</t>
-  </si>
-  <si>
-    <t>100 лет гимну Андорры</t>
-  </si>
-  <si>
-    <t>Андорра — страна в Пиренеях</t>
-  </si>
-  <si>
-    <t>70 лет Конституции Андорры</t>
-  </si>
-  <si>
-    <t>70-летие со дня ратификации Всеобщей декларации прав человека</t>
-  </si>
-  <si>
-    <t>Финал Кубка мира по горнолыжному спорту 2019 года</t>
-  </si>
-  <si>
-    <t>600 years since the constitution of the General Council of Andorra</t>
-  </si>
-  <si>
     <t>Председательство в Евросоюзе</t>
   </si>
   <si>
@@ -2091,12 +1997,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>150-летие реформы 1866 года</t>
-  </si>
-  <si>
-    <t>25-летие теле-- и радиовещания в Андорре</t>
   </si>
   <si>
     <t>BE</t>
@@ -3589,95 +3489,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="115">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="104">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4516,9 +4328,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="114"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="113" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="112"/>
+    <tableColumn id="1" name="№" dataDxfId="103"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="102" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4787,494 +4599,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="37"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="16">
-        <v>105000</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="4" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="18">
-        <v>85000</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F13" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="18">
-        <v>85000</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B6" s="18">
-        <v>85000</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="18">
-        <v>85000</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B8" s="18">
-        <v>85000</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="18">
-        <v>85000</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="18">
-        <v>75000</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="18">
-        <v>75000</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="19">
-        <v>60000</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B13" s="19">
-        <v>60000</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3 E4:E5 D6:D7 D10:D11 E8:E9 E12:E13">
-    <cfRule type="containsText" dxfId="111" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5 D3 D6:D7 D10:D11 E8:E9 E12:E13">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="110" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5">
-    <cfRule type="containsText" dxfId="109" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="108" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="107" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="106" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="105" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="104" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="103" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="101" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5289,423 +4620,454 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="43"/>
+      <c r="D1" s="11" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
-      <c r="D2" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>323</v>
+      <c r="D2" s="29" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>308</v>
+        <v>2005</v>
+      </c>
+      <c r="B3" s="14">
+        <v>6000000</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>309</v>
+        <v>45</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="8" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
+      <c r="E3" s="4" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>310</v>
+        <v>2006</v>
+      </c>
+      <c r="B4" s="15">
+        <v>5000000</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
         <v>0</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" s="8" t="str">
-        <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ref="E4:E25" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>311</v>
+        <v>2007</v>
+      </c>
+      <c r="B5" s="15">
+        <v>5000000</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="8" t="str">
+      <c r="E5" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>244</v>
+        <v>2008</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5000000</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F6" s="8" t="str">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>313</v>
+        <v>2009</v>
+      </c>
+      <c r="B7" s="15">
+        <v>5011000</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8" t="str">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>2009</v>
+      </c>
+      <c r="B8" s="15">
+        <v>5000000</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>315</v>
+        <v>2010</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5000000</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F9" s="8" t="str">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>315</v>
+        <v>2011</v>
+      </c>
+      <c r="B10" s="15">
+        <v>5000000</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>319</v>
+        <v>2012</v>
+      </c>
+      <c r="B11" s="15">
+        <v>5000000</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E11" s="7">
+        <v>50</v>
+      </c>
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="str">
+      <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5000000</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="20">
+        <v>2020000</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="20">
+        <v>1750000</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="20">
+        <v>287500</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="20">
+        <v>235000</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="20">
+        <v>412500</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="20">
+        <v>325000</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1020000</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="20">
+        <v>200000</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="20">
+        <v>200000</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>2018</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F12" s="8" t="str">
+      <c r="B22" s="20">
+        <v>257500</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="20">
+        <v>257500</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="20">
+        <v>155000</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="20">
+        <v>155000</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D9:D10 D12">
-    <cfRule type="containsText" dxfId="82" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10 D12">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
-    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="74" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="D3:D25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5722,7 +5084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -5745,16 +5107,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -5763,7 +5125,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="24" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -5772,7 +5134,7 @@
         <v>2015</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>33</v>
@@ -5790,10 +5152,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -5808,7 +5170,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>32</v>
@@ -5826,10 +5188,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -5844,10 +5206,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -5862,10 +5224,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -5881,10 +5243,10 @@
         <v>2019</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D9" s="9">
         <v>1</v>
@@ -5895,10 +5257,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D10" s="9">
         <v>1</v>
@@ -5966,7 +5328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -5990,16 +5352,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="44" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="45"/>
       <c r="F1" s="46"/>
@@ -6009,13 +5371,13 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6023,19 +5385,19 @@
         <v>2004</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G3" s="8" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -6047,19 +5409,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G4" s="8" t="str">
         <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -6071,19 +5433,19 @@
         <v>2006</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6095,16 +5457,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F6" s="9">
         <v>0</v>
@@ -6119,16 +5481,16 @@
         <v>2007</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
@@ -6143,16 +5505,16 @@
         <v>2008</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
@@ -6167,19 +5529,19 @@
         <v>2009</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6191,19 +5553,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6215,7 +5577,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>34</v>
@@ -6224,10 +5586,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6239,19 +5601,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6263,19 +5625,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6287,19 +5649,19 @@
         <v>2012</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6311,19 +5673,19 @@
         <v>2012</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6335,19 +5697,19 @@
         <v>2013</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6359,19 +5721,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6383,19 +5745,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6407,19 +5769,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6431,19 +5793,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6455,19 +5817,19 @@
         <v>2015</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6479,19 +5841,19 @@
         <v>2016</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6503,19 +5865,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6527,19 +5889,19 @@
         <v>2017</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D24" s="9">
         <v>2</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6551,19 +5913,19 @@
         <v>2018</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6575,19 +5937,19 @@
         <v>2018</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D26" s="9">
         <v>2</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6599,19 +5961,19 @@
         <v>2019</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6623,19 +5985,19 @@
         <v>2019</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D28" s="9">
         <v>2</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -6910,7 +6272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
@@ -6933,16 +6295,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="42" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="43"/>
     </row>
@@ -6951,10 +6313,10 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="24" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6962,16 +6324,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F3" s="8" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -6983,7 +6345,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>29</v>
@@ -6992,7 +6354,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F4" s="8" t="str">
         <f t="shared" ref="F4:F20" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7004,7 +6366,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>28</v>
@@ -7013,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7025,16 +6387,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7046,7 +6408,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>27</v>
@@ -7055,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7067,16 +6429,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7088,7 +6450,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>26</v>
@@ -7097,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7109,16 +6471,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7130,16 +6492,16 @@
         <v>2015</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7151,16 +6513,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -7172,13 +6534,13 @@
         <v>2016</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -7193,13 +6555,13 @@
         <v>2016</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -7214,13 +6576,13 @@
         <v>2017</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -7235,13 +6597,13 @@
         <v>2017</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -7256,13 +6618,13 @@
         <v>2018</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E17" s="7">
         <v>1</v>
@@ -7277,13 +6639,13 @@
         <v>2018</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E18" s="7">
         <v>1</v>
@@ -7298,13 +6660,13 @@
         <v>2019</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E19" s="7">
         <v>1</v>
@@ -7319,13 +6681,13 @@
         <v>2019</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E20" s="7">
         <v>1</v>
@@ -7432,7 +6794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -7455,16 +6817,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -7473,7 +6835,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -7482,7 +6844,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>23</v>
@@ -7500,10 +6862,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -7518,10 +6880,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -7536,10 +6898,10 @@
         <v>2013</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -7554,10 +6916,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -7572,10 +6934,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -7591,10 +6953,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -7609,10 +6971,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -7627,10 +6989,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -7668,7 +7030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7688,16 +7050,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -7706,7 +7068,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="24" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -7715,7 +7077,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>6</v>
@@ -7733,10 +7095,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -7751,10 +7113,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -7769,10 +7131,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -7787,10 +7149,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -7805,7 +7167,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>22</v>
@@ -7824,10 +7186,10 @@
         <v>2014</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -7842,10 +7204,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -7883,7 +7245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -7906,16 +7268,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -7924,7 +7286,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -7933,10 +7295,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -7951,10 +7313,10 @@
         <v>2007</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -7969,10 +7331,10 @@
         <v>2008</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -7987,10 +7349,10 @@
         <v>2009</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -8005,10 +7367,10 @@
         <v>2009</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -8023,7 +7385,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>21</v>
@@ -8042,10 +7404,10 @@
         <v>2011</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -8060,10 +7422,10 @@
         <v>2012</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -8078,7 +7440,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>1</v>
@@ -8096,10 +7458,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -8114,10 +7476,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -8132,10 +7494,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -8151,10 +7513,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -8169,10 +7531,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>414</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>425</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -8187,10 +7549,10 @@
         <v>2015</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -8205,10 +7567,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -8223,10 +7585,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -8241,10 +7603,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -8259,10 +7621,10 @@
         <v>2017</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -8277,10 +7639,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -8295,10 +7657,10 @@
         <v>2018</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D23" s="9">
         <v>1</v>
@@ -8313,10 +7675,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -8327,10 +7689,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D25" s="9">
         <v>1</v>
@@ -8365,7 +7727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -8388,16 +7750,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -8406,7 +7768,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -8415,10 +7777,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -8433,10 +7795,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -8451,10 +7813,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -8469,10 +7831,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -8487,7 +7849,7 @@
         <v>2008</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>19</v>
@@ -8505,7 +7867,7 @@
         <v>2009</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>18</v>
@@ -8524,10 +7886,10 @@
         <v>2010</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -8542,7 +7904,7 @@
         <v>2011</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>17</v>
@@ -8560,7 +7922,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>1</v>
@@ -8578,10 +7940,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -8596,10 +7958,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -8614,10 +7976,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -8632,7 +7994,7 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>16</v>
@@ -8651,10 +8013,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -8669,7 +8031,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>15</v>
@@ -8687,7 +8049,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>14</v>
@@ -8705,10 +8067,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>440</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>451</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -8723,10 +8085,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -8741,10 +8103,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -8759,10 +8121,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -8777,10 +8139,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -8795,10 +8157,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -8836,7 +8198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -8859,16 +8221,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -8877,7 +8239,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -8886,10 +8248,10 @@
         <v>2009</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -8904,10 +8266,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -8922,10 +8284,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -8940,7 +8302,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>1</v>
@@ -8958,10 +8320,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -8976,10 +8338,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -8995,10 +8357,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -9013,10 +8375,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -9031,10 +8393,10 @@
         <v>2016</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -9049,10 +8411,10 @@
         <v>2017</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -9067,10 +8429,10 @@
         <v>2018</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -9085,10 +8447,10 @@
         <v>2019</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -9126,7 +8488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -9148,16 +8510,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="39" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -9168,16 +8530,16 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9185,7 +8547,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>6</v>
@@ -9194,13 +8556,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H3" s="4" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9212,22 +8574,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H4" s="4" t="str">
         <f t="shared" ref="H4:H15" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-"),AND(G4&gt;1,G4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9239,22 +8601,22 @@
         <v>2009</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9266,22 +8628,22 @@
         <v>2010</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9293,7 +8655,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>13</v>
@@ -9302,13 +8664,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9320,22 +8682,22 @@
         <v>2012</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F8" s="9">
         <v>0</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9347,22 +8709,22 @@
         <v>2013</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F9" s="9">
         <v>0</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9374,22 +8736,22 @@
         <v>2014</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E10" s="9">
         <v>0</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9401,22 +8763,22 @@
         <v>2015</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F11" s="9">
         <v>0</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9428,22 +8790,22 @@
         <v>2015</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9455,19 +8817,19 @@
         <v>2016</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
@@ -9482,22 +8844,22 @@
         <v>2017</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F14" s="9">
         <v>0</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9509,22 +8871,22 @@
         <v>2018</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F15" s="9">
         <v>0</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -9536,20 +8898,20 @@
         <v>2019</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -10263,494 +9625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="29" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="14">
-        <v>6000000</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B4" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" ref="E4:E25" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="15">
-        <v>5011000</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="15">
-        <v>5000000</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="20">
-        <v>2020000</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="7">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="20">
-        <v>1750000</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="20">
-        <v>287500</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="20">
-        <v>235000</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="20">
-        <v>412500</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="20">
-        <v>325000</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="20">
-        <v>1020000</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="20">
-        <v>200000</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="20">
-        <v>200000</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="20">
-        <v>257500</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="20">
-        <v>257500</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="20">
-        <v>155000</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B25" s="20">
-        <v>155000</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -10770,16 +9645,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -10788,7 +9663,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -10797,10 +9672,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -10815,10 +9690,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -10833,10 +9708,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -10851,10 +9726,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -10869,7 +9744,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>6</v>
@@ -10887,10 +9762,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -10906,10 +9781,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -10924,10 +9799,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -10942,10 +9817,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -10960,10 +9835,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -10978,10 +9853,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -10996,7 +9871,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>1</v>
@@ -11014,10 +9889,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -11033,10 +9908,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -11051,10 +9926,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -11069,7 +9944,7 @@
         <v>2014</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>10</v>
@@ -11087,10 +9962,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -11105,10 +9980,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -11119,10 +9994,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -11133,10 +10008,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -11147,10 +10022,10 @@
         <v>2016</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -11161,10 +10036,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -11175,10 +10050,10 @@
         <v>2017</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D25" s="9">
         <v>0</v>
@@ -11189,10 +10064,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D26" s="9">
         <v>0</v>
@@ -11203,10 +10078,10 @@
         <v>2018</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -11240,7 +10115,443 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="14">
+        <v>100000</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="18">
+        <v>100000</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="16">
+        <v>100000</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="15">
+        <v>106084</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="15">
+        <v>106084</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="15">
+        <v>112000</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="20">
+        <v>115000</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="20">
+        <v>115000</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="20">
+        <v>119000</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="20">
+        <v>94000</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="20">
+        <v>103000</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="20">
+        <v>122000</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="20">
+        <v>90000</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="20">
+        <v>105000</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="20">
+        <v>90000</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="20">
+        <v>105000</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="20">
+        <v>86000</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="20">
+        <v>94000</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="20">
+        <v>79000</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F10" r:id="rId1" tooltip="Ватикан" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B0%D1%82%D0%B8%D0%BA%D0%B0%D0%BD"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -11263,16 +10574,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -11281,7 +10592,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -11290,7 +10601,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>6</v>
@@ -11308,7 +10619,7 @@
         <v>2008</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>3</v>
@@ -11326,10 +10637,10 @@
         <v>2009</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -11344,10 +10655,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>498</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>509</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -11362,10 +10673,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C7" s="23" t="s">
         <v>499</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>510</v>
       </c>
       <c r="D7" s="9">
         <v>1</v>
@@ -11380,7 +10691,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>2</v>
@@ -11399,7 +10710,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>1</v>
@@ -11417,10 +10728,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -11435,7 +10746,7 @@
         <v>2013</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>9</v>
@@ -11453,10 +10764,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -11471,10 +10782,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -11489,7 +10800,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>8</v>
@@ -11507,10 +10818,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -11526,10 +10837,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -11544,7 +10855,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>0</v>
@@ -11562,7 +10873,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>7</v>
@@ -11580,10 +10891,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -11598,10 +10909,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -11616,10 +10927,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -11634,10 +10945,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -11652,10 +10963,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -11666,10 +10977,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D24" s="9">
         <v>1</v>
@@ -11703,7 +11014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -11725,16 +11036,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="39" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
@@ -11744,13 +11055,13 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11758,7 +11069,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>1</v>
@@ -11767,10 +11078,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G3" s="4" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -11782,19 +11093,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E4" s="9">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" ref="G4:G10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -11806,19 +11117,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E5" s="9">
         <v>0</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11830,19 +11141,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11854,19 +11165,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E7" s="9">
         <v>1</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G7" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11878,19 +11189,19 @@
         <v>2018</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -11902,16 +11213,16 @@
         <v>2019</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F9" s="9">
         <v>1</v>
@@ -11926,16 +11237,16 @@
         <v>2019</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F10" s="9">
         <v>2</v>
@@ -12062,7 +11373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -12082,13 +11393,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -12096,10 +11407,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -12107,10 +11418,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -12118,10 +11429,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -12129,10 +11440,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -12140,10 +11451,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -12162,442 +11473,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="64" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="29" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="14">
-        <v>100000</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="18">
-        <v>100000</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="16">
-        <v>100000</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="16">
-        <v>100000</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="15">
-        <v>106084</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="15">
-        <v>106084</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="15">
-        <v>112000</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="20">
-        <v>115000</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="20">
-        <v>115000</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="20">
-        <v>119000</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="20">
-        <v>94000</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="20">
-        <v>103000</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="20">
-        <v>122000</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="20">
-        <v>90000</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="20">
-        <v>105000</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="20">
-        <v>90000</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="20">
-        <v>105000</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="20">
-        <v>86000</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="20">
-        <v>94000</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="20">
-        <v>79000</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" tooltip="Ватикан" display="https://ru.wikipedia.org/wiki/%D0%92%D0%B0%D1%82%D0%B8%D0%BA%D0%B0%D0%BD"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -12620,20 +11495,20 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
       <c r="E1" s="40"/>
       <c r="F1" s="41"/>
       <c r="G1" s="36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
@@ -12644,35 +11519,35 @@
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
       <c r="B2" s="27" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="25" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K2" s="26" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L2" s="26" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="M2" s="6"/>
     </row>
@@ -12681,22 +11556,22 @@
         <v>2006</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -12723,22 +11598,22 @@
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -12765,22 +11640,22 @@
         <v>2007</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H5" s="9">
         <v>0</v>
@@ -12807,22 +11682,22 @@
         <v>2008</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="H6" s="9">
         <v>0</v>
@@ -12849,22 +11724,22 @@
         <v>2009</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H7" s="9">
         <v>0</v>
@@ -12891,22 +11766,22 @@
         <v>2009</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H8" s="9">
         <v>0</v>
@@ -12933,22 +11808,22 @@
         <v>2010</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H9" s="9">
         <v>0</v>
@@ -12975,22 +11850,22 @@
         <v>2011</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
@@ -13017,22 +11892,22 @@
         <v>2012</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H11" s="9">
         <v>0</v>
@@ -13059,19 +11934,19 @@
         <v>2012</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>1</v>
@@ -13101,22 +11976,22 @@
         <v>2013</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H13" s="9">
         <v>0</v>
@@ -13143,22 +12018,22 @@
         <v>2013</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H14" s="9">
         <v>0</v>
@@ -13185,22 +12060,22 @@
         <v>2014</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="H15" s="9">
         <v>0</v>
@@ -13227,22 +12102,22 @@
         <v>2015</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>179</v>
-      </c>
       <c r="F16" s="15" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G16" s="23" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="H16" s="9">
         <v>0</v>
@@ -13269,22 +12144,22 @@
         <v>2015</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>180</v>
-      </c>
       <c r="F17" s="15" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H17" s="9">
         <v>0</v>
@@ -13311,22 +12186,22 @@
         <v>2015</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="F18" s="15" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H18" s="9">
         <v>0</v>
@@ -13353,22 +12228,22 @@
         <v>2016</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="H19" s="9">
         <v>0</v>
@@ -13395,22 +12270,22 @@
         <v>2017</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H20" s="9">
         <v>0</v>
@@ -13437,22 +12312,22 @@
         <v>2018</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H21" s="9">
         <v>0</v>
@@ -13479,22 +12354,22 @@
         <v>2018</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H22" s="9">
         <v>0</v>
@@ -13521,22 +12396,22 @@
         <v>2019</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H23" s="9">
         <v>0</v>
@@ -13563,22 +12438,22 @@
         <v>2019</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G24" s="23" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H24" s="9">
         <v>0</v>
@@ -13697,7 +12572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -13720,16 +12595,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -13737,7 +12612,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -13745,10 +12620,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -13763,7 +12638,7 @@
         <v>2007</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>6</v>
@@ -13781,10 +12656,10 @@
         <v>2009</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -13799,7 +12674,7 @@
         <v>2010</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>40</v>
@@ -13817,10 +12692,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -13835,10 +12710,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -13854,10 +12729,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -13872,10 +12747,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -13890,10 +12765,10 @@
         <v>2014</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -13908,10 +12783,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -13926,10 +12801,10 @@
         <v>2015</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -13944,10 +12819,10 @@
         <v>2015</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -13962,10 +12837,10 @@
         <v>2016</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -13981,10 +12856,10 @@
         <v>2016</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -13999,10 +12874,10 @@
         <v>2017</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -14017,10 +12892,10 @@
         <v>2017</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -14035,10 +12910,10 @@
         <v>2018</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="D19" s="9">
         <v>0</v>
@@ -14053,10 +12928,10 @@
         <v>2018</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -14071,10 +12946,10 @@
         <v>2019</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>228</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>239</v>
       </c>
       <c r="D21" s="9">
         <v>1</v>
@@ -14089,10 +12964,10 @@
         <v>2019</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D22" s="9">
         <v>1</v>
@@ -14130,7 +13005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -14153,16 +13028,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -14171,7 +13046,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -14180,7 +13055,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>6</v>
@@ -14195,10 +13070,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -14213,10 +13088,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -14231,10 +13106,10 @@
         <v>2015</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
@@ -14249,10 +13124,10 @@
         <v>2016</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -14267,10 +13142,10 @@
         <v>2019</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="D8" s="9">
         <v>1</v>
@@ -14309,7 +13184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -14332,16 +13207,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -14350,7 +13225,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -14359,10 +13234,10 @@
         <v>2005</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -14377,7 +13252,7 @@
         <v>2007</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>6</v>
@@ -14395,10 +13270,10 @@
         <v>2009</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -14413,7 +13288,7 @@
         <v>2010</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>5</v>
@@ -14431,7 +13306,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>4</v>
@@ -14449,7 +13324,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>39</v>
@@ -14468,7 +13343,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C9" s="23" t="s">
         <v>1</v>
@@ -14486,10 +13361,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -14504,10 +13379,10 @@
         <v>2014</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -14522,10 +13397,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -14540,10 +13415,10 @@
         <v>2015</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D13" s="9">
         <v>0</v>
@@ -14558,10 +13433,10 @@
         <v>2015</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -14576,7 +13451,7 @@
         <v>2016</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C15" s="23" t="s">
         <v>38</v>
@@ -14595,10 +13470,10 @@
         <v>2017</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -14613,10 +13488,10 @@
         <v>2018</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D17" s="9">
         <v>0</v>
@@ -14631,10 +13506,10 @@
         <v>2018</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -14652,7 +13527,7 @@
         <v>1000000</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="D19" s="9">
         <v>1</v>
@@ -14667,10 +13542,10 @@
         <v>2020</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -14686,7 +13561,7 @@
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="23" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D21" s="9">
         <v>0</v>
@@ -14702,7 +13577,7 @@
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="23" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -14741,7 +13616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -14764,16 +13639,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="6"/>
     </row>
@@ -14782,7 +13657,7 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="29" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -14791,10 +13666,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="D3" s="7">
         <v>0</v>
@@ -14809,10 +13684,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D4" s="9">
         <v>0</v>
@@ -14827,10 +13702,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D5" s="9">
         <v>0</v>
@@ -14845,7 +13720,7 @@
         <v>2007</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>6</v>
@@ -14863,10 +13738,10 @@
         <v>2008</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D7" s="9">
         <v>0</v>
@@ -14881,10 +13756,10 @@
         <v>2009</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -14900,10 +13775,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D9" s="9">
         <v>0</v>
@@ -14918,10 +13793,10 @@
         <v>2010</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D10" s="9">
         <v>0</v>
@@ -14936,10 +13811,10 @@
         <v>2011</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D11" s="9">
         <v>0</v>
@@ -14954,10 +13829,10 @@
         <v>2012</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D12" s="9">
         <v>0</v>
@@ -14972,7 +13847,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>1</v>
@@ -14990,10 +13865,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="D14" s="9">
         <v>0</v>
@@ -15008,10 +13883,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D15" s="9">
         <v>0</v>
@@ -15027,10 +13902,10 @@
         <v>2014</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="D16" s="9">
         <v>0</v>
@@ -15045,7 +13920,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>36</v>
@@ -15063,10 +13938,10 @@
         <v>2015</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D18" s="9">
         <v>0</v>
@@ -15081,7 +13956,7 @@
         <v>2015</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C19" s="23" t="s">
         <v>16</v>
@@ -15099,10 +13974,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D20" s="9">
         <v>0</v>
@@ -15117,7 +13992,7 @@
         <v>2016</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>15</v>
@@ -15135,10 +14010,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="D22" s="9">
         <v>0</v>
@@ -15153,10 +14028,10 @@
         <v>2017</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D23" s="9">
         <v>0</v>
@@ -15171,10 +14046,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D24" s="9">
         <v>0</v>
@@ -15189,10 +14064,10 @@
         <v>2018</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D25" s="9">
         <v>2</v>
@@ -15207,10 +14082,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D26" s="9">
         <v>1</v>
@@ -15225,10 +14100,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D27" s="9">
         <v>1</v>
@@ -15244,7 +14119,7 @@
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="23" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D28" s="9">
         <v>0</v>
@@ -15260,7 +14135,7 @@
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="23" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D29" s="9">
         <v>0</v>
@@ -15315,7 +14190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -15338,16 +14213,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>50</v>
-      </c>
       <c r="D1" s="36" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E1" s="37"/>
     </row>
@@ -15356,10 +14231,10 @@
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="24" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -15367,13 +14242,13 @@
         <v>2009</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -15388,7 +14263,7 @@
         <v>2012</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>1</v>
@@ -15397,7 +14272,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F4" s="8" t="str">
         <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -15409,16 +14284,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D5" s="7">
         <v>0</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F5" s="8" t="str">
         <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -15430,16 +14305,16 @@
         <v>2017</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D6" s="9">
         <v>0</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F6" s="8" t="str">
         <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-"),AND(E6&gt;1,E6&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -15558,4 +14433,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D9:D10 D12">
+    <cfRule type="containsText" dxfId="82" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10 D12">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
+    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="74" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,26 +12,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Германия" sheetId="10" r:id="rId1"/>
-    <sheet name="Греция" sheetId="11" r:id="rId2"/>
-    <sheet name="Ирландия" sheetId="12" r:id="rId3"/>
-    <sheet name="Испания" sheetId="14" r:id="rId4"/>
-    <sheet name="Италия" sheetId="15" r:id="rId5"/>
-    <sheet name="Кипр" sheetId="16" r:id="rId6"/>
-    <sheet name="Латвия" sheetId="17" r:id="rId7"/>
-    <sheet name="Литва" sheetId="18" r:id="rId8"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId9"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId10"/>
-    <sheet name="Монако" sheetId="21" r:id="rId11"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId12"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId13"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId14"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId15"/>
-    <sheet name="Словения" sheetId="26" r:id="rId16"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId17"/>
-    <sheet name="Франция" sheetId="28" r:id="rId18"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId19"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId20"/>
+    <sheet name="Греция" sheetId="11" r:id="rId1"/>
+    <sheet name="Ирландия" sheetId="12" r:id="rId2"/>
+    <sheet name="Испания" sheetId="14" r:id="rId3"/>
+    <sheet name="Италия" sheetId="15" r:id="rId4"/>
+    <sheet name="Кипр" sheetId="16" r:id="rId5"/>
+    <sheet name="Латвия" sheetId="17" r:id="rId6"/>
+    <sheet name="Литва" sheetId="18" r:id="rId7"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId8"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId9"/>
+    <sheet name="Монако" sheetId="21" r:id="rId10"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId11"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId12"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId13"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId14"/>
+    <sheet name="Словения" sheetId="26" r:id="rId15"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId16"/>
+    <sheet name="Франция" sheetId="28" r:id="rId17"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId18"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +47,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,22 +58,18 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Берлинский монетный двор</t>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
         </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
-      <text>
         <r>
           <rPr>
-            <b/>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Баварский монетный двор (Мюнхен)</t>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -89,112 +84,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Штутгарта</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Карлсруэ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Гамбурга</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Берлинский монетный двор</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Баварский монетный двор (Мюнхен)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Штутгарта</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Карлсруэ</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Гамбурга</t>
+          <t>Монетный двор Греции (Афины)</t>
         </r>
       </text>
     </comment>
@@ -245,36 +135,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
           <t>Парижский монетный двор</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>с F на заезде</t>
         </r>
       </text>
     </comment>
@@ -325,7 +186,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
         </r>
       </text>
     </comment>
@@ -376,7 +237,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+          <t>Монетный двор Португалии (Лиссабон)</t>
         </r>
       </text>
     </comment>
@@ -427,7 +288,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -478,7 +339,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Словакии (Кремница)</t>
         </r>
       </text>
     </comment>
@@ -487,57 +348,6 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -633,7 +443,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -684,7 +494,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -735,7 +545,7 @@
 </comments>
 </file>
 
-<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -859,7 +669,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Греции (Афины)</t>
+          <t>Монетный двор Ирландии (Дублин)</t>
         </r>
       </text>
     </comment>
@@ -910,7 +720,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Ирландии (Дублин)</t>
+          <t>Королевский монетный двор Испании</t>
         </r>
       </text>
     </comment>
@@ -961,7 +771,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Испании</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -970,57 +780,6 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1086,7 +845,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1154,7 +913,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1205,7 +964,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1286,8 +1045,88 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Парижский монетный двор</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>с F на заезде</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="381">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -1415,358 +1254,16 @@
     <t>10 лет Экономическому и валютному союзу</t>
   </si>
   <si>
-    <t>50 лет Римскому договору</t>
-  </si>
-  <si>
-    <t>30 лет флагу Европы</t>
-  </si>
-  <si>
-    <t>Первая монета серии «Федеральные земли Германии» — Шлезвиг-Гольштейн</t>
-  </si>
-  <si>
-    <t>Вторая монета серии «Федеральные земли Германии» — Мекленбург-Передняя Померания</t>
-  </si>
-  <si>
-    <t>Третья монета серии «Федеральные земли Германии» — Церковь св. Михаила, Гамбург</t>
-  </si>
-  <si>
-    <t>Четвёртая монета серии «Федеральные земли Германии» — Церковь Людвига в Саарбрюккене</t>
-  </si>
-  <si>
-    <t>Пятая монета серии «Федеральные земли Германии» — Городская ратуша Бремена</t>
-  </si>
-  <si>
-    <t>Седьмая монета серии «Федеральные земли Германии» — Замок Нойшванштайн</t>
-  </si>
-  <si>
-    <t>50 лет франко-германской дружбы</t>
-  </si>
-  <si>
-    <t>Восьмая монета серии «Федеральные земли Германии» — Монастырь Маульбронн</t>
-  </si>
-  <si>
-    <t>Девятая монета серии «Федеральные земли Германии» — Нижняя Саксония</t>
-  </si>
-  <si>
-    <t>10-я монета серии «Федеральные земли Германии»: Гессен (Церковь Святого Павла во Франкфурт-на-Майне)</t>
-  </si>
-  <si>
     <t>25-летие объединения Германии</t>
   </si>
   <si>
-    <t>11-я монета серии «Федеральные земли Германии»: Саксония (Дворец Цвингер, Дрезден)</t>
-  </si>
-  <si>
-    <t>12-я монета серии «Федеральные земли Германии»: Рейнланд-Пфальц (Порта Нигра, Трир)</t>
-  </si>
-  <si>
-    <t>100-летие со дня рождения Гельмута Шмидта</t>
-  </si>
-  <si>
-    <t>13-я монета серии «Федеральные земли Германии»: Дворец Шарлоттенбург в Берлине</t>
-  </si>
-  <si>
-    <t>70 лет со дня учреждения Федерального Совета</t>
-  </si>
-  <si>
     <t>30 лет со дня падения Берлиской стены</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
     <t>Монетный двор</t>
-  </si>
-  <si>
-    <t>6.283.150</t>
-  </si>
-  <si>
-    <t>6.583.120</t>
-  </si>
-  <si>
-    <t>7.483.120</t>
-  </si>
-  <si>
-    <t>4.483.120</t>
-  </si>
-  <si>
-    <t>1.313.150</t>
-  </si>
-  <si>
-    <t>1.173.150</t>
-  </si>
-  <si>
-    <t>12.113.120</t>
-  </si>
-  <si>
-    <t>14.673.120</t>
-  </si>
-  <si>
-    <t>12.123.120</t>
-  </si>
-  <si>
-    <t>8.173.120</t>
-  </si>
-  <si>
-    <t>4.473.120</t>
-  </si>
-  <si>
-    <t>5.173.120</t>
-  </si>
-  <si>
-    <t>1.343.120</t>
-  </si>
-  <si>
-    <t>1.678.120</t>
-  </si>
-  <si>
-    <t>1.238.150</t>
-  </si>
-  <si>
-    <t>9.132.620</t>
-  </si>
-  <si>
-    <t>9.832.620</t>
-  </si>
-  <si>
-    <t>4.432.620</t>
-  </si>
-  <si>
-    <t>6.542.620</t>
-  </si>
-  <si>
-    <t>6.201.650</t>
-  </si>
-  <si>
-    <t>6.126.650</t>
-  </si>
-  <si>
-    <t>6.489.120</t>
-  </si>
-  <si>
-    <t>6.414.120</t>
-  </si>
-  <si>
-    <t>7.389.120</t>
-  </si>
-  <si>
-    <t>7.314.120</t>
-  </si>
-  <si>
-    <t>4.389.120</t>
-  </si>
-  <si>
-    <t>4.314.120</t>
-  </si>
-  <si>
-    <t>6.194.750</t>
-  </si>
-  <si>
-    <t>6.482.720</t>
-  </si>
-  <si>
-    <t>7.382.720</t>
-  </si>
-  <si>
-    <t>4.382.720</t>
-  </si>
-  <si>
-    <t>6.196.000</t>
-  </si>
-  <si>
-    <t>6.484.500</t>
-  </si>
-  <si>
-    <t>7.384.500</t>
-  </si>
-  <si>
-    <t>4.384.500</t>
-  </si>
-  <si>
-    <t>6.189.600</t>
-  </si>
-  <si>
-    <t>6.142.600</t>
-  </si>
-  <si>
-    <t>6.475.200</t>
-  </si>
-  <si>
-    <t>6.428.200</t>
-  </si>
-  <si>
-    <t>7.375.200</t>
-  </si>
-  <si>
-    <t>7.328.200</t>
-  </si>
-  <si>
-    <t>4.375.200</t>
-  </si>
-  <si>
-    <t>4.328.200</t>
-  </si>
-  <si>
-    <t>2.327.500</t>
-  </si>
-  <si>
-    <t>6.179.500</t>
-  </si>
-  <si>
-    <t>2.426.100</t>
-  </si>
-  <si>
-    <t>6.468.100</t>
-  </si>
-  <si>
-    <t>2.756.100</t>
-  </si>
-  <si>
-    <t>7.368.100</t>
-  </si>
-  <si>
-    <t>1.656.100</t>
-  </si>
-  <si>
-    <t>4.368.100</t>
-  </si>
-  <si>
-    <t>6.169.000</t>
-  </si>
-  <si>
-    <t>6.457.000</t>
-  </si>
-  <si>
-    <t>7.357.000</t>
-  </si>
-  <si>
-    <t>4.357.000</t>
-  </si>
-  <si>
-    <t>6.163.800</t>
-  </si>
-  <si>
-    <t>6.113.800</t>
-  </si>
-  <si>
-    <t>6.025.000</t>
-  </si>
-  <si>
-    <t>6.450.825</t>
-  </si>
-  <si>
-    <t>6.400.825</t>
-  </si>
-  <si>
-    <t>6.325.000</t>
-  </si>
-  <si>
-    <t>7.350.825</t>
-  </si>
-  <si>
-    <t>7.300.825</t>
-  </si>
-  <si>
-    <t>7.225.000</t>
-  </si>
-  <si>
-    <t>4.350.825</t>
-  </si>
-  <si>
-    <t>4.300.825</t>
-  </si>
-  <si>
-    <t>4.225.000</t>
-  </si>
-  <si>
-    <t>6.142.800</t>
-  </si>
-  <si>
-    <t>6.432.825</t>
-  </si>
-  <si>
-    <t>7.333.325</t>
-  </si>
-  <si>
-    <t>4.332.825</t>
-  </si>
-  <si>
-    <t>6.133.000</t>
-  </si>
-  <si>
-    <t>6.420.000</t>
-  </si>
-  <si>
-    <t>7.320.000</t>
-  </si>
-  <si>
-    <t>4.320.000</t>
-  </si>
-  <si>
-    <t>6.123.400</t>
-  </si>
-  <si>
-    <t>6.121.400</t>
-  </si>
-  <si>
-    <t>6.414.625</t>
-  </si>
-  <si>
-    <t>6.412.625</t>
-  </si>
-  <si>
-    <t>7.314.625</t>
-  </si>
-  <si>
-    <t>7.312.625</t>
-  </si>
-  <si>
-    <t>4.314.625</t>
-  </si>
-  <si>
-    <t>4.312.625</t>
-  </si>
-  <si>
-    <t>6.113.500</t>
-  </si>
-  <si>
-    <t>6.600.000</t>
-  </si>
-  <si>
-    <t>6.413.500</t>
-  </si>
-  <si>
-    <t>4.270.000</t>
-  </si>
-  <si>
-    <t>7.313.500</t>
-  </si>
-  <si>
-    <t>7.910.000</t>
-  </si>
-  <si>
-    <t>4.313.500</t>
-  </si>
-  <si>
-    <t>4.640.000</t>
-  </si>
-  <si>
-    <t>6.930.000</t>
-  </si>
-  <si>
-    <t>Шестая монета серии «Федеральные земли Германии» — Кёльнский собор</t>
   </si>
   <si>
     <t>ES</t>
@@ -2892,7 +2389,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2929,14 +2426,8 @@
         <bgColor rgb="FFCCC0D9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor rgb="FFCCC0D9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -3051,17 +2542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -3082,19 +2562,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -3129,7 +2596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3170,7 +2637,7 @@
     <xf numFmtId="3" fontId="13" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3197,15 +2664,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3221,36 +2679,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3262,47 +2713,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="102">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="97">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4085,9 +3496,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="101"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="100" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="99"/>
+    <tableColumn id="1" name="№" dataDxfId="96"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="95" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4356,1113 +3767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="13" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N1" sqref="N1"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" style="4" customWidth="1"/>
-    <col min="2" max="6" width="12.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="82.54296875" style="4" customWidth="1"/>
-    <col min="8" max="12" width="3.7265625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="15" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2006</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7" t="str">
-        <f>IF(OR(AND(H3&gt;1,I3&lt;&gt;"-"),AND(I3&gt;1,I3&lt;&gt;"-"),AND(J3&gt;1,J3&lt;&gt;"-"),AND(K3&gt;1,K3&lt;&gt;"-"),AND(L3&gt;1,L3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="str">
-        <f t="shared" ref="M4:M24" si="0">IF(OR(AND(H4&gt;1,I4&lt;&gt;"-"),AND(I4&gt;1,I4&lt;&gt;"-"),AND(J4&gt;1,J4&lt;&gt;"-"),AND(K4&gt;1,K4&lt;&gt;"-"),AND(L4&gt;1,L4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>1</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H24">
-    <cfRule type="containsText" dxfId="98" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H24">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I24">
-    <cfRule type="containsText" dxfId="97" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(I3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I24">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J24">
-    <cfRule type="containsText" dxfId="96" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(J3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K24">
-    <cfRule type="containsText" dxfId="95" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(K3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K24">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L24">
-    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3:L24">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5476,490 +3787,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="42"/>
+      <c r="D1" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>161</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>317</v>
+        <v>51</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
+      <c r="E3" s="3" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>256</v>
+        <v>52</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f t="shared" ref="F4:F20" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>318</v>
+        <v>53</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="7" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F6" s="7" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>319</v>
+        <v>57</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" s="7" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>320</v>
+        <v>57</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="E8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F9" s="7" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>321</v>
+        <v>60</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>329</v>
+        <v>61</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="7" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>330</v>
+        <v>62</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F11" s="7" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" s="7" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>323</v>
+        <v>63</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="str">
+        <v>66</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>324</v>
+        <v>63</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="str">
+        <v>65</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>325</v>
+        <v>63</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
         <v>2017</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+      <c r="B17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>2018</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="6">
+      <c r="B19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="8">
         <v>1</v>
       </c>
-      <c r="F17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="E21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8">
         <v>1</v>
       </c>
-      <c r="F18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="str">
+      <c r="E22" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D12">
-    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D12">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4 E13:E20">
-    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E20 D4">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D20">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D20">
+  <conditionalFormatting sqref="D3:D22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -5971,12 +4188,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -5998,26 +4220,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>161</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6026,7 +4248,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>337</v>
+        <v>223</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>21</v>
@@ -6044,10 +4266,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>338</v>
+        <v>224</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>344</v>
+        <v>230</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6062,10 +4284,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6080,10 +4302,10 @@
         <v>2013</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>346</v>
+        <v>232</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6098,10 +4320,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6116,10 +4338,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6135,10 +4357,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>349</v>
+        <v>235</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6153,10 +4375,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>343</v>
+        <v>229</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6171,10 +4393,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>342</v>
+        <v>228</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -6212,7 +4434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6231,26 +4453,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>316</v>
+        <v>202</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6259,7 +4481,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>352</v>
+        <v>238</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>6</v>
@@ -6277,7 +4499,7 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>353</v>
+        <v>239</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>41</v>
@@ -6295,10 +4517,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>354</v>
+        <v>240</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6313,10 +4535,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6331,10 +4553,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>356</v>
+        <v>242</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6349,7 +4571,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>20</v>
@@ -6368,10 +4590,10 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>357</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6386,10 +4608,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6427,7 +4649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -6449,26 +4671,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>358</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>244</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6477,10 +4699,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>367</v>
+        <v>253</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -6495,10 +4717,10 @@
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>224</v>
+        <v>110</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6513,10 +4735,10 @@
         <v>2008</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6531,10 +4753,10 @@
         <v>2009</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>359</v>
+        <v>245</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6549,7 +4771,7 @@
         <v>2009</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>361</v>
+        <v>247</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>41</v>
@@ -6567,7 +4789,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>362</v>
+        <v>248</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>19</v>
@@ -6586,10 +4808,10 @@
         <v>2011</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6604,10 +4826,10 @@
         <v>2012</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>370</v>
+        <v>256</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6622,7 +4844,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -6640,10 +4862,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>364</v>
+        <v>250</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6658,10 +4880,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>364</v>
+        <v>250</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>372</v>
+        <v>258</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -6676,10 +4898,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>364</v>
+        <v>250</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>486</v>
+        <v>372</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -6695,10 +4917,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -6713,10 +4935,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -6731,10 +4953,10 @@
         <v>2015</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -6749,10 +4971,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>375</v>
+        <v>261</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -6767,10 +4989,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>376</v>
+        <v>262</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -6785,10 +5007,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>377</v>
+        <v>263</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -6803,10 +5025,10 @@
         <v>2017</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>363</v>
+        <v>249</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -6821,10 +5043,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -6839,10 +5061,10 @@
         <v>2018</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>366</v>
+        <v>252</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>380</v>
+        <v>266</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -6857,10 +5079,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>491</v>
+        <v>377</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>489</v>
+        <v>375</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -6871,10 +5093,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>490</v>
+        <v>376</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -6909,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -6931,26 +5153,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>163</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6959,10 +5181,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>339</v>
+        <v>225</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>392</v>
+        <v>278</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -6977,10 +5199,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>393</v>
+        <v>279</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6995,10 +5217,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>382</v>
+        <v>268</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>394</v>
+        <v>280</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -7013,10 +5235,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>395</v>
+        <v>281</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -7031,7 +5253,7 @@
         <v>2008</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>18</v>
@@ -7049,7 +5271,7 @@
         <v>2009</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -7068,10 +5290,10 @@
         <v>2010</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>396</v>
+        <v>282</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -7086,7 +5308,7 @@
         <v>2011</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>16</v>
@@ -7104,7 +5326,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -7122,10 +5344,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>383</v>
+        <v>269</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>397</v>
+        <v>283</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7140,10 +5362,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>384</v>
+        <v>270</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>398</v>
+        <v>284</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7158,10 +5380,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>385</v>
+        <v>271</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -7176,7 +5398,7 @@
         <v>2015</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>15</v>
@@ -7195,10 +5417,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>386</v>
+        <v>272</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -7213,7 +5435,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>387</v>
+        <v>273</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>14</v>
@@ -7231,7 +5453,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>388</v>
+        <v>274</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>13</v>
@@ -7249,10 +5471,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>400</v>
+        <v>286</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -7267,10 +5489,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>401</v>
+        <v>287</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -7285,10 +5507,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>390</v>
+        <v>276</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -7303,10 +5525,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>390</v>
+        <v>276</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>403</v>
+        <v>289</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -7321,10 +5543,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>391</v>
+        <v>277</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>404</v>
+        <v>290</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -7339,10 +5561,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>391</v>
+        <v>277</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -7380,7 +5602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -7402,26 +5624,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>406</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>292</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -7430,10 +5652,10 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>407</v>
+        <v>293</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -7448,7 +5670,7 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>41</v>
@@ -7466,10 +5688,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>408</v>
+        <v>294</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -7484,7 +5706,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>1</v>
@@ -7502,10 +5724,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>409</v>
+        <v>295</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -7520,10 +5742,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>410</v>
+        <v>296</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -7539,10 +5761,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -7557,10 +5779,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -7575,10 +5797,10 @@
         <v>2016</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -7593,10 +5815,10 @@
         <v>2017</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>413</v>
+        <v>299</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7611,10 +5833,10 @@
         <v>2018</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>414</v>
+        <v>300</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7629,10 +5851,10 @@
         <v>2019</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>415</v>
+        <v>301</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -7670,7 +5892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -7691,37 +5913,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="D1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>163</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7729,7 +5951,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>6</v>
@@ -7738,13 +5960,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7756,22 +5978,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>416</v>
+        <v>302</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H15" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-"),AND(G4&gt;1,G4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7783,7 +6005,7 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>41</v>
@@ -7792,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7810,22 +6032,22 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>417</v>
+        <v>303</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7837,7 +6059,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>12</v>
@@ -7846,13 +6068,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7864,22 +6086,22 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7891,22 +6113,22 @@
         <v>2013</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>418</v>
+        <v>304</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7918,22 +6140,22 @@
         <v>2014</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7945,22 +6167,22 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>419</v>
+        <v>305</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7972,22 +6194,22 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7999,19 +6221,19 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -8026,22 +6248,22 @@
         <v>2017</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>421</v>
+        <v>307</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8053,22 +6275,22 @@
         <v>2018</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>422</v>
+        <v>308</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8080,20 +6302,20 @@
         <v>2019</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>494</v>
+        <v>380</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -8807,7 +7029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -8826,26 +7048,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>315</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>201</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -8854,10 +7076,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -8872,10 +7094,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>426</v>
+        <v>312</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -8890,10 +7112,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>427</v>
+        <v>313</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -8908,10 +7130,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>428</v>
+        <v>314</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -8926,7 +7148,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
@@ -8944,10 +7166,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -8963,10 +7185,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>429</v>
+        <v>315</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -8981,7 +7203,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>423</v>
+        <v>309</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>41</v>
@@ -8999,10 +7221,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>430</v>
+        <v>316</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -9017,10 +7239,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>424</v>
+        <v>310</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>431</v>
+        <v>317</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -9035,10 +7257,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -9053,7 +7275,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1</v>
@@ -9071,10 +7293,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>433</v>
+        <v>319</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -9090,10 +7312,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>434</v>
+        <v>320</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -9108,10 +7330,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>435</v>
+        <v>321</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -9126,7 +7348,7 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>10</v>
@@ -9144,10 +7366,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>436</v>
+        <v>322</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -9162,10 +7384,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>437</v>
+        <v>323</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -9176,10 +7398,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -9190,10 +7412,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>438</v>
+        <v>324</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -9204,10 +7426,10 @@
         <v>2016</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>439</v>
+        <v>325</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -9218,10 +7440,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>440</v>
+        <v>326</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -9232,10 +7454,10 @@
         <v>2017</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>441</v>
+        <v>327</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -9246,10 +7468,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>442</v>
+        <v>328</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -9260,10 +7482,10 @@
         <v>2018</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>443</v>
+        <v>329</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -9297,7 +7519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -9319,26 +7541,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>161</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -9347,7 +7569,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>444</v>
+        <v>330</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>6</v>
@@ -9365,7 +7587,7 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>445</v>
+        <v>331</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
@@ -9383,7 +7605,7 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>446</v>
+        <v>332</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>41</v>
@@ -9401,10 +7623,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>447</v>
+        <v>333</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>458</v>
+        <v>344</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9419,10 +7641,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>448</v>
+        <v>334</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>459</v>
+        <v>345</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -9437,7 +7659,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>449</v>
+        <v>335</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>2</v>
@@ -9456,7 +7678,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
@@ -9474,10 +7696,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>451</v>
+        <v>337</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9492,7 +7714,7 @@
         <v>2013</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>449</v>
+        <v>335</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>9</v>
@@ -9510,10 +7732,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>465</v>
+        <v>351</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -9528,10 +7750,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>452</v>
+        <v>338</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -9546,7 +7768,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>453</v>
+        <v>339</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>8</v>
@@ -9564,10 +7786,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -9583,10 +7805,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>454</v>
+        <v>340</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -9601,7 +7823,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>0</v>
@@ -9619,7 +7841,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>7</v>
@@ -9637,10 +7859,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>450</v>
+        <v>336</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>466</v>
+        <v>352</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -9655,10 +7877,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>467</v>
+        <v>353</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -9673,10 +7895,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>456</v>
+        <v>342</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>468</v>
+        <v>354</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -9691,10 +7913,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>463</v>
+        <v>349</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -9709,10 +7931,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>464</v>
+        <v>350</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>469</v>
+        <v>355</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -9723,10 +7945,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -9760,7 +7982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -9781,33 +8003,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="D1" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>406</v>
+        <v>158</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -9815,7 +8037,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
@@ -9824,10 +8046,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9839,19 +8061,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9863,19 +8085,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>471</v>
+        <v>357</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9887,19 +8109,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>472</v>
+        <v>358</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9911,19 +8133,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9935,19 +8157,19 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>470</v>
+        <v>356</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>473</v>
+        <v>359</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -9959,16 +8181,16 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -9983,16 +8205,16 @@
         <v>2019</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>475</v>
+        <v>361</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -10119,440 +8341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -10572,68 +8361,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>476</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s">
-        <v>477</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s">
-        <v>478</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>479</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>482</v>
+      <c r="B2" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>480</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>485</v>
+      <c r="B3" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>485</v>
+      <c r="B4" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>484</v>
+      <c r="B5" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>493</v>
+      <c r="B6" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -10651,7 +8440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -10673,26 +8462,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>189</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>75</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -10701,7 +8490,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>6</v>
@@ -10716,7 +8505,7 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>41</v>
@@ -10734,10 +8523,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -10752,10 +8541,10 @@
         <v>2015</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -10770,10 +8559,10 @@
         <v>2016</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>198</v>
+        <v>84</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -10788,10 +8577,10 @@
         <v>2019</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -10830,7 +8619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -10852,26 +8641,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>160</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -10880,10 +8669,10 @@
         <v>2005</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -10898,7 +8687,7 @@
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>6</v>
@@ -10916,7 +8705,7 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>41</v>
@@ -10934,12 +8723,12 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>1</v>
       </c>
       <c r="E6" s="9" t="str">
@@ -10952,7 +8741,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>4</v>
@@ -10970,7 +8759,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>36</v>
@@ -10989,7 +8778,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
@@ -11007,10 +8796,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -11025,10 +8814,10 @@
         <v>2014</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -11043,10 +8832,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>206</v>
+        <v>92</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -11061,10 +8850,10 @@
         <v>2015</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -11079,10 +8868,10 @@
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -11097,7 +8886,7 @@
         <v>2016</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>35</v>
@@ -11116,10 +8905,10 @@
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -11134,10 +8923,10 @@
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -11152,10 +8941,10 @@
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>216</v>
+        <v>102</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -11173,7 +8962,7 @@
         <v>1000000</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -11188,10 +8977,10 @@
         <v>2020</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>218</v>
+        <v>104</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -11207,7 +8996,7 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -11223,7 +9012,7 @@
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -11262,7 +9051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -11284,26 +9073,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>163</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -11312,10 +9101,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -11330,10 +9119,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -11348,10 +9137,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>242</v>
+        <v>128</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>223</v>
+        <v>109</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -11366,7 +9155,7 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>6</v>
@@ -11384,10 +9173,10 @@
         <v>2008</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>225</v>
+        <v>111</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -11402,10 +9191,10 @@
         <v>2009</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -11421,7 +9210,7 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>41</v>
@@ -11439,10 +9228,10 @@
         <v>2010</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -11457,10 +9246,10 @@
         <v>2011</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>228</v>
+        <v>114</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -11475,10 +9264,10 @@
         <v>2012</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>229</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -11493,7 +9282,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>1</v>
@@ -11511,10 +9300,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>230</v>
+        <v>116</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -11529,10 +9318,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>231</v>
+        <v>117</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -11548,10 +9337,10 @@
         <v>2014</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -11566,7 +9355,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>34</v>
@@ -11584,10 +9373,10 @@
         <v>2015</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -11602,7 +9391,7 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>15</v>
@@ -11620,10 +9409,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -11638,7 +9427,7 @@
         <v>2016</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>14</v>
@@ -11656,10 +9445,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -11674,10 +9463,10 @@
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>236</v>
+        <v>122</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -11692,10 +9481,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>249</v>
+        <v>135</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -11710,10 +9499,10 @@
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>238</v>
+        <v>124</v>
       </c>
       <c r="D25" s="8">
         <v>2</v>
@@ -11728,10 +9517,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -11746,10 +9535,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>251</v>
+        <v>137</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -11765,7 +9554,7 @@
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -11781,7 +9570,7 @@
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
-        <v>253</v>
+        <v>139</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -11836,7 +9625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -11858,29 +9647,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="40"/>
+      <c r="D1" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -11888,13 +9677,13 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -11909,7 +9698,7 @@
         <v>2012</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>1</v>
@@ -11918,7 +9707,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -11930,16 +9719,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>254</v>
+        <v>140</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -11951,16 +9740,16 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>255</v>
+        <v>141</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-"),AND(E6&gt;1,E6&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -12081,7 +9870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -12103,29 +9892,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="42"/>
+      <c r="D1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>271</v>
+        <v>157</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -12133,16 +9922,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>257</v>
+        <v>143</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>258</v>
+        <v>144</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -12154,7 +9943,7 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>29</v>
@@ -12163,7 +9952,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -12175,7 +9964,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>260</v>
+        <v>146</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>28</v>
@@ -12184,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12196,16 +9985,16 @@
         <v>2015</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12217,13 +10006,13 @@
         <v>2016</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -12238,13 +10027,13 @@
         <v>2016</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>195</v>
+        <v>81</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -12259,16 +10048,16 @@
         <v>2017</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12280,16 +10069,16 @@
         <v>2017</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12301,13 +10090,13 @@
         <v>2018</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -12322,16 +10111,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12537,7 +10326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -12559,26 +10348,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>272</v>
+        <v>158</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -12587,7 +10376,7 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>31</v>
@@ -12605,10 +10394,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>179</v>
+        <v>65</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -12623,7 +10412,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>30</v>
@@ -12641,10 +10430,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>273</v>
+        <v>159</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -12659,10 +10448,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>267</v>
+        <v>153</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -12677,10 +10466,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -12696,10 +10485,10 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>487</v>
+        <v>373</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -12710,10 +10499,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>488</v>
+        <v>374</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -12781,7 +10570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -12804,33 +10593,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="D1" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>161</v>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -12838,19 +10627,19 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>295</v>
+        <v>181</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -12862,19 +10651,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>276</v>
+        <v>162</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>296</v>
+        <v>182</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7" t="str">
         <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -12886,19 +10675,19 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>297</v>
+        <v>183</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -12910,16 +10699,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -12934,16 +10723,16 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>279</v>
+        <v>165</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -12958,16 +10747,16 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>194</v>
+        <v>80</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -12982,19 +10771,19 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>280</v>
+        <v>166</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13006,7 +10795,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>41</v>
@@ -13015,10 +10804,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13030,7 +10819,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>32</v>
@@ -13039,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13054,19 +10843,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13078,19 +10867,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>284</v>
+        <v>170</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>301</v>
+        <v>187</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13102,19 +10891,19 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13126,19 +10915,19 @@
         <v>2012</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13150,19 +10939,19 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>286</v>
+        <v>172</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>303</v>
+        <v>189</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13174,19 +10963,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>304</v>
+        <v>190</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13198,19 +10987,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>305</v>
+        <v>191</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13222,19 +11011,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13246,19 +11035,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>307</v>
+        <v>193</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13270,19 +11059,19 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>290</v>
+        <v>176</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13294,19 +11083,19 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>308</v>
+        <v>194</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13318,19 +11107,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>309</v>
+        <v>195</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13342,19 +11131,19 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>310</v>
+        <v>196</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13366,19 +11155,19 @@
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>291</v>
+        <v>177</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>311</v>
+        <v>197</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13390,19 +11179,19 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>292</v>
+        <v>178</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13414,19 +11203,19 @@
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>293</v>
+        <v>179</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13438,19 +11227,19 @@
         <v>2019</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>294</v>
+        <v>180</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>314</v>
+        <v>200</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -13723,4 +11512,526 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f t="shared" ref="F4:F20" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5:D12">
+    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D12">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4 E13:E20">
+    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E20 D4">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D20">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D20">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Греция" sheetId="11" r:id="rId1"/>
@@ -1107,7 +1107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="381">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -2686,9 +2686,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2707,13 +2704,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="99">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3496,9 +3512,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="96"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="95" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="94"/>
+    <tableColumn id="1" name="№" dataDxfId="98"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="97" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3769,24 +3785,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -3800,7 +3816,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -3808,7 +3824,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2004</v>
       </c>
@@ -3826,7 +3842,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2007</v>
       </c>
@@ -3844,7 +3860,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
@@ -3862,7 +3878,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
@@ -3880,7 +3896,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2011</v>
       </c>
@@ -3898,7 +3914,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2012</v>
       </c>
@@ -3917,7 +3933,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2013</v>
       </c>
@@ -3935,7 +3951,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2013</v>
       </c>
@@ -3953,7 +3969,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2014</v>
       </c>
@@ -3971,7 +3987,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2014</v>
       </c>
@@ -3989,7 +4005,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2015</v>
       </c>
@@ -4007,7 +4023,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2015</v>
       </c>
@@ -4025,7 +4041,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2016</v>
       </c>
@@ -4044,7 +4060,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2016</v>
       </c>
@@ -4062,7 +4078,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2017</v>
       </c>
@@ -4080,7 +4096,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2017</v>
       </c>
@@ -4098,7 +4114,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2018</v>
       </c>
@@ -4116,7 +4132,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2018</v>
       </c>
@@ -4134,7 +4150,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2019</v>
       </c>
@@ -4152,7 +4168,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2019</v>
       </c>
@@ -4189,7 +4205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4209,17 +4225,17 @@
       <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -4234,7 +4250,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4243,7 +4259,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
@@ -4261,7 +4277,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -4279,7 +4295,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -4297,7 +4313,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2013</v>
       </c>
@@ -4315,7 +4331,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2015</v>
       </c>
@@ -4333,7 +4349,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -4352,7 +4368,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -4370,7 +4386,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2018</v>
       </c>
@@ -4388,7 +4404,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2019</v>
       </c>
@@ -4413,7 +4429,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D11">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4442,17 +4458,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -4467,7 +4483,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4476,7 +4492,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
@@ -4494,7 +4510,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
@@ -4512,7 +4528,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2011</v>
       </c>
@@ -4530,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2012</v>
       </c>
@@ -4548,7 +4564,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2013</v>
       </c>
@@ -4566,7 +4582,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2013</v>
       </c>
@@ -4585,7 +4601,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2014</v>
       </c>
@@ -4603,7 +4619,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
@@ -4628,7 +4644,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4660,17 +4676,17 @@
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -4685,7 +4701,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -4694,7 +4710,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
@@ -4712,7 +4728,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2007</v>
       </c>
@@ -4730,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2008</v>
       </c>
@@ -4748,7 +4764,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2009</v>
       </c>
@@ -4766,7 +4782,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2009</v>
       </c>
@@ -4784,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2010</v>
       </c>
@@ -4803,7 +4819,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2011</v>
       </c>
@@ -4821,7 +4837,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2012</v>
       </c>
@@ -4839,7 +4855,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2012</v>
       </c>
@@ -4857,7 +4873,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2013</v>
       </c>
@@ -4875,7 +4891,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2014</v>
       </c>
@@ -4893,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2014</v>
       </c>
@@ -4912,7 +4928,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2015</v>
       </c>
@@ -4930,7 +4946,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -4948,7 +4964,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2015</v>
       </c>
@@ -4966,7 +4982,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2016</v>
       </c>
@@ -4984,7 +5000,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2016</v>
       </c>
@@ -5002,7 +5018,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2017</v>
       </c>
@@ -5020,7 +5036,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2017</v>
       </c>
@@ -5038,7 +5054,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2018</v>
       </c>
@@ -5056,7 +5072,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2018</v>
       </c>
@@ -5074,7 +5090,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2019</v>
       </c>
@@ -5088,7 +5104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>2019</v>
       </c>
@@ -5109,7 +5125,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5142,17 +5158,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -5167,7 +5183,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -5176,7 +5192,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2004</v>
       </c>
@@ -5194,7 +5210,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
@@ -5212,7 +5228,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
@@ -5230,7 +5246,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
@@ -5248,7 +5264,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2008</v>
       </c>
@@ -5266,7 +5282,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2009</v>
       </c>
@@ -5285,7 +5301,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2010</v>
       </c>
@@ -5303,7 +5319,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2011</v>
       </c>
@@ -5321,7 +5337,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2012</v>
       </c>
@@ -5339,7 +5355,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2013</v>
       </c>
@@ -5357,7 +5373,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2014</v>
       </c>
@@ -5375,7 +5391,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2014</v>
       </c>
@@ -5393,7 +5409,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2015</v>
       </c>
@@ -5412,7 +5428,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -5430,7 +5446,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -5448,7 +5464,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2016</v>
       </c>
@@ -5466,7 +5482,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2017</v>
       </c>
@@ -5484,7 +5500,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2017</v>
       </c>
@@ -5502,7 +5518,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2018</v>
       </c>
@@ -5520,7 +5536,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2018</v>
       </c>
@@ -5538,7 +5554,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2019</v>
       </c>
@@ -5556,7 +5572,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2019</v>
       </c>
@@ -5581,7 +5597,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5613,17 +5629,17 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -5638,7 +5654,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -5647,7 +5663,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2009</v>
       </c>
@@ -5665,7 +5681,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
@@ -5683,7 +5699,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2011</v>
       </c>
@@ -5701,7 +5717,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2012</v>
       </c>
@@ -5719,7 +5735,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2013</v>
       </c>
@@ -5737,7 +5753,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2014</v>
       </c>
@@ -5756,7 +5772,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2015</v>
       </c>
@@ -5774,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
@@ -5792,7 +5808,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2016</v>
       </c>
@@ -5810,7 +5826,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2017</v>
       </c>
@@ -5828,7 +5844,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2018</v>
       </c>
@@ -5846,7 +5862,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2019</v>
       </c>
@@ -5871,7 +5887,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D14">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5903,16 +5919,16 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -5922,14 +5938,14 @@
       <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -5946,7 +5962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
@@ -5973,7 +5989,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2008</v>
       </c>
@@ -6000,7 +6016,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
@@ -6027,7 +6043,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
@@ -6054,7 +6070,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2011</v>
       </c>
@@ -6081,7 +6097,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2012</v>
       </c>
@@ -6108,7 +6124,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2013</v>
       </c>
@@ -6135,7 +6151,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2014</v>
       </c>
@@ -6162,7 +6178,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2015</v>
       </c>
@@ -6189,7 +6205,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2015</v>
       </c>
@@ -6216,7 +6232,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2016</v>
       </c>
@@ -6243,7 +6259,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2017</v>
       </c>
@@ -6270,7 +6286,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2018</v>
       </c>
@@ -6297,7 +6313,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2019</v>
       </c>
@@ -6326,7 +6342,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6379,7 +6395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6396,7 +6412,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6413,7 +6429,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6430,7 +6446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6447,7 +6463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6464,7 +6480,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6481,7 +6497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6498,7 +6514,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6515,7 +6531,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6532,7 +6548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6549,7 +6565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6566,7 +6582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6583,7 +6599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6600,7 +6616,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6617,7 +6633,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6634,7 +6650,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6651,7 +6667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6668,7 +6684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6685,7 +6701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6714,7 +6730,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6731,7 +6747,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6748,7 +6764,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6777,7 +6793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6794,7 +6810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6811,7 +6827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6840,7 +6856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6857,7 +6873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6874,7 +6890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6891,7 +6907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6908,7 +6924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6925,7 +6941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6954,7 +6970,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6971,7 +6987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6988,7 +7004,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G16">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7037,17 +7053,17 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -7062,7 +7078,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -7071,7 +7087,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2004</v>
       </c>
@@ -7089,7 +7105,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
@@ -7107,7 +7123,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
@@ -7125,7 +7141,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
@@ -7143,7 +7159,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2007</v>
       </c>
@@ -7161,7 +7177,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2008</v>
       </c>
@@ -7180,7 +7196,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
@@ -7198,7 +7214,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -7216,7 +7232,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -7234,7 +7250,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -7252,7 +7268,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -7270,7 +7286,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2012</v>
       </c>
@@ -7288,7 +7304,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2013</v>
       </c>
@@ -7307,7 +7323,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2013</v>
       </c>
@@ -7325,7 +7341,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2014</v>
       </c>
@@ -7343,7 +7359,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2014</v>
       </c>
@@ -7361,7 +7377,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2015</v>
       </c>
@@ -7379,7 +7395,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2015</v>
       </c>
@@ -7393,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2015</v>
       </c>
@@ -7407,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2016</v>
       </c>
@@ -7421,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2016</v>
       </c>
@@ -7435,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2017</v>
       </c>
@@ -7449,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>2017</v>
       </c>
@@ -7463,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>2018</v>
       </c>
@@ -7477,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>2018</v>
       </c>
@@ -7498,7 +7514,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7530,17 +7546,17 @@
       <selection pane="bottomRight" activeCell="D23" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -7555,7 +7571,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -7564,7 +7580,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
@@ -7582,7 +7598,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2008</v>
       </c>
@@ -7600,7 +7616,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
@@ -7618,7 +7634,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
@@ -7636,7 +7652,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2011</v>
       </c>
@@ -7654,7 +7670,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2012</v>
       </c>
@@ -7673,7 +7689,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2012</v>
       </c>
@@ -7691,7 +7707,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2013</v>
       </c>
@@ -7709,7 +7725,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2013</v>
       </c>
@@ -7727,7 +7743,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2014</v>
       </c>
@@ -7745,7 +7761,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2014</v>
       </c>
@@ -7763,7 +7779,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2015</v>
       </c>
@@ -7781,7 +7797,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2015</v>
       </c>
@@ -7800,7 +7816,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
@@ -7818,7 +7834,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
@@ -7836,7 +7852,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2016</v>
       </c>
@@ -7854,7 +7870,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2017</v>
       </c>
@@ -7872,7 +7888,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2017</v>
       </c>
@@ -7890,7 +7906,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2018</v>
       </c>
@@ -7908,7 +7924,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2018</v>
       </c>
@@ -7926,7 +7942,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2019</v>
       </c>
@@ -7940,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2019</v>
       </c>
@@ -7961,7 +7977,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7993,16 +8009,16 @@
       <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="6" width="12.1796875" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -8012,13 +8028,13 @@
       <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="39" t="s">
         <v>45</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8032,7 +8048,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2012</v>
       </c>
@@ -8056,7 +8072,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
@@ -8080,7 +8096,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2016</v>
       </c>
@@ -8104,7 +8120,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2017</v>
       </c>
@@ -8128,7 +8144,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2018</v>
       </c>
@@ -8152,7 +8168,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
@@ -8176,7 +8192,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
@@ -8200,7 +8216,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2019</v>
       </c>
@@ -8224,7 +8240,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="4"/>
     </row>
   </sheetData>
@@ -8235,7 +8251,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8252,12 +8268,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8286,7 +8302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8303,7 +8319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8320,7 +8336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10 E9:E10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8352,14 +8368,14 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="61.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>362</v>
       </c>
@@ -8370,7 +8386,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -8381,7 +8397,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -8392,7 +8408,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -8403,7 +8419,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -8414,7 +8430,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -8451,17 +8467,17 @@
       <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -8476,7 +8492,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8485,7 +8501,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
@@ -8500,7 +8516,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
@@ -8518,7 +8534,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -8536,7 +8552,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2015</v>
       </c>
@@ -8554,7 +8570,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2016</v>
       </c>
@@ -8572,7 +8588,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2019</v>
       </c>
@@ -8598,7 +8614,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="92" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8630,17 +8646,17 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -8655,7 +8671,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8664,7 +8680,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2005</v>
       </c>
@@ -8682,7 +8698,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2007</v>
       </c>
@@ -8700,7 +8716,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
@@ -8718,7 +8734,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
@@ -8736,7 +8752,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2011</v>
       </c>
@@ -8754,7 +8770,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2012</v>
       </c>
@@ -8773,7 +8789,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2012</v>
       </c>
@@ -8791,7 +8807,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2013</v>
       </c>
@@ -8809,7 +8825,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2014</v>
       </c>
@@ -8827,7 +8843,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2014</v>
       </c>
@@ -8845,7 +8861,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2015</v>
       </c>
@@ -8863,7 +8879,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2015</v>
       </c>
@@ -8881,7 +8897,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2016</v>
       </c>
@@ -8900,7 +8916,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2017</v>
       </c>
@@ -8918,7 +8934,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2018</v>
       </c>
@@ -8936,7 +8952,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2018</v>
       </c>
@@ -8954,7 +8970,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2019</v>
       </c>
@@ -8972,7 +8988,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2020</v>
       </c>
@@ -8990,7 +9006,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2021</v>
       </c>
@@ -9006,7 +9022,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2022</v>
       </c>
@@ -9029,7 +9045,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9062,17 +9078,17 @@
       <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -9087,7 +9103,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -9096,7 +9112,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2004</v>
       </c>
@@ -9114,7 +9130,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
@@ -9132,7 +9148,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
@@ -9150,7 +9166,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
@@ -9168,7 +9184,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2008</v>
       </c>
@@ -9186,7 +9202,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2009</v>
       </c>
@@ -9205,7 +9221,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
@@ -9223,7 +9239,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2010</v>
       </c>
@@ -9241,7 +9257,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2011</v>
       </c>
@@ -9259,7 +9275,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2012</v>
       </c>
@@ -9277,7 +9293,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -9295,7 +9311,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
@@ -9313,7 +9329,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2013</v>
       </c>
@@ -9332,7 +9348,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2014</v>
       </c>
@@ -9350,7 +9366,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2014</v>
       </c>
@@ -9368,7 +9384,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2015</v>
       </c>
@@ -9386,7 +9402,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2015</v>
       </c>
@@ -9404,7 +9420,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2015</v>
       </c>
@@ -9422,7 +9438,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2016</v>
       </c>
@@ -9440,7 +9456,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2016</v>
       </c>
@@ -9458,7 +9474,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2017</v>
       </c>
@@ -9476,7 +9492,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2017</v>
       </c>
@@ -9494,7 +9510,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>2018</v>
       </c>
@@ -9512,7 +9528,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>2018</v>
       </c>
@@ -9530,7 +9546,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>2019</v>
       </c>
@@ -9548,7 +9564,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>2020</v>
       </c>
@@ -9564,7 +9580,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>2020</v>
       </c>
@@ -9587,7 +9603,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27 D29">
-    <cfRule type="containsText" dxfId="90" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9604,7 +9620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="89" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9636,17 +9652,17 @@
       <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -9659,9 +9675,9 @@
       <c r="D1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -9672,7 +9688,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2009</v>
       </c>
@@ -9693,7 +9709,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
@@ -9714,7 +9730,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2016</v>
       </c>
@@ -9735,7 +9751,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2017</v>
       </c>
@@ -9764,7 +9780,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="88" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9781,7 +9797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 D4:D5">
-    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9798,7 +9814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9815,7 +9831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9832,7 +9848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9849,7 +9865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9881,17 +9897,17 @@
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -9901,12 +9917,12 @@
       <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -9917,7 +9933,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2014</v>
       </c>
@@ -9938,7 +9954,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
@@ -9959,7 +9975,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2015</v>
       </c>
@@ -9980,7 +9996,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2015</v>
       </c>
@@ -10001,7 +10017,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2016</v>
       </c>
@@ -10022,7 +10038,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
@@ -10043,7 +10059,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
@@ -10064,7 +10080,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
@@ -10085,7 +10101,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
@@ -10106,7 +10122,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2018</v>
       </c>
@@ -10135,7 +10151,7 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D10 D12">
-    <cfRule type="containsText" dxfId="82" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10152,7 +10168,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="81" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10169,7 +10185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D5 E7:E8 E11">
-    <cfRule type="containsText" dxfId="80" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10186,7 +10202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="79" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10203,7 +10219,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10220,7 +10236,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10237,7 +10253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10254,7 +10270,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10271,7 +10287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="74" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10288,7 +10304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10305,7 +10321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10337,17 +10353,17 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -10362,7 +10378,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10371,7 +10387,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2015</v>
       </c>
@@ -10389,7 +10405,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
@@ -10407,7 +10423,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2016</v>
       </c>
@@ -10425,7 +10441,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2017</v>
       </c>
@@ -10443,7 +10459,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2018</v>
       </c>
@@ -10461,7 +10477,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
@@ -10480,7 +10496,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
@@ -10494,7 +10510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2019</v>
       </c>
@@ -10515,7 +10531,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10532,7 +10548,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10549,7 +10565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10581,18 +10597,18 @@
       <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -10602,13 +10618,13 @@
       <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E1" s="37"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -10622,7 +10638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2004</v>
       </c>
@@ -10646,7 +10662,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
@@ -10670,7 +10686,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
@@ -10694,7 +10710,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
@@ -10718,7 +10734,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2007</v>
       </c>
@@ -10742,7 +10758,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2008</v>
       </c>
@@ -10766,7 +10782,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
@@ -10790,7 +10806,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
@@ -10814,7 +10830,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
@@ -10838,7 +10854,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
@@ -10862,7 +10878,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
@@ -10886,7 +10902,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2012</v>
       </c>
@@ -10910,7 +10926,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2012</v>
       </c>
@@ -10934,7 +10950,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2013</v>
       </c>
@@ -10958,7 +10974,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2014</v>
       </c>
@@ -10982,7 +10998,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2014</v>
       </c>
@@ -11006,7 +11022,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2015</v>
       </c>
@@ -11030,7 +11046,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2015</v>
       </c>
@@ -11054,7 +11070,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>2015</v>
       </c>
@@ -11078,7 +11094,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>2016</v>
       </c>
@@ -11102,7 +11118,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>2017</v>
       </c>
@@ -11126,7 +11142,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>2017</v>
       </c>
@@ -11150,7 +11166,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>2018</v>
       </c>
@@ -11174,7 +11190,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>2018</v>
       </c>
@@ -11198,7 +11214,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>2019</v>
       </c>
@@ -11222,7 +11238,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>2019</v>
       </c>
@@ -11254,7 +11270,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3 E4:E5 F6:F8 D9:D28">
-    <cfRule type="containsText" dxfId="68" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11271,7 +11287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11288,7 +11304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11305,7 +11321,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11322,7 +11338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11339,7 +11355,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="63" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11356,7 +11372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11373,7 +11389,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11390,7 +11406,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11407,7 +11423,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11424,7 +11440,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11441,7 +11457,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11458,7 +11474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11475,7 +11491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F28">
-    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11492,7 +11508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E28">
-    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11516,26 +11532,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>38</v>
       </c>
@@ -11545,12 +11561,12 @@
       <c r="C1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -11561,7 +11577,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2009</v>
       </c>
@@ -11582,7 +11598,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
@@ -11599,11 +11615,11 @@
         <v>48</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f t="shared" ref="F4:F20" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F4:F21" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
@@ -11624,7 +11640,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2012</v>
       </c>
@@ -11645,7 +11661,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>2013</v>
       </c>
@@ -11666,7 +11682,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2014</v>
       </c>
@@ -11687,7 +11703,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>2014</v>
       </c>
@@ -11708,7 +11724,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
@@ -11729,7 +11745,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>2015</v>
       </c>
@@ -11750,7 +11766,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>2015</v>
       </c>
@@ -11771,7 +11787,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>2016</v>
       </c>
@@ -11792,7 +11808,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>2016</v>
       </c>
@@ -11813,7 +11829,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>2017</v>
       </c>
@@ -11834,7 +11850,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>2017</v>
       </c>
@@ -11855,7 +11871,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>2018</v>
       </c>
@@ -11876,7 +11892,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>2018</v>
       </c>
@@ -11897,7 +11913,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>2019</v>
       </c>
@@ -11911,22 +11927,22 @@
         <v>48</v>
       </c>
       <c r="E19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>48</v>
@@ -11934,7 +11950,25 @@
       <c r="E20" s="6">
         <v>1</v>
       </c>
-      <c r="F20" s="7" t="str">
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -11947,11 +11981,28 @@
     <mergeCell ref="D1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D12">
-    <cfRule type="containsText" dxfId="53" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D12">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4 E13:E19 E21">
+    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E19 D4 E21">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11963,13 +12014,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4 E13:E20">
-    <cfRule type="containsText" dxfId="52" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13:E20 D4">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -11980,13 +12031,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="containsText" dxfId="52" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -11997,13 +12048,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
-    <cfRule type="containsText" dxfId="50" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E12">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="D13:D19 D21">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D19 D21">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -12014,12 +12065,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D20">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D20">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D20))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -5,32 +5,31 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Евро\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleksey.ilyushin\Documents\GitHub\CoinCollection\Collections\Евро\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Греция" sheetId="11" r:id="rId1"/>
-    <sheet name="Ирландия" sheetId="12" r:id="rId2"/>
-    <sheet name="Испания" sheetId="14" r:id="rId3"/>
-    <sheet name="Италия" sheetId="15" r:id="rId4"/>
-    <sheet name="Кипр" sheetId="16" r:id="rId5"/>
-    <sheet name="Латвия" sheetId="17" r:id="rId6"/>
-    <sheet name="Литва" sheetId="18" r:id="rId7"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId8"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId9"/>
-    <sheet name="Монако" sheetId="21" r:id="rId10"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId11"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId12"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId13"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId14"/>
-    <sheet name="Словения" sheetId="26" r:id="rId15"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId16"/>
-    <sheet name="Франция" sheetId="28" r:id="rId17"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId18"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId19"/>
+    <sheet name="Ирландия" sheetId="12" r:id="rId1"/>
+    <sheet name="Испания" sheetId="14" r:id="rId2"/>
+    <sheet name="Италия" sheetId="15" r:id="rId3"/>
+    <sheet name="Кипр" sheetId="16" r:id="rId4"/>
+    <sheet name="Латвия" sheetId="17" r:id="rId5"/>
+    <sheet name="Литва" sheetId="18" r:id="rId6"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId7"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId8"/>
+    <sheet name="Монако" sheetId="21" r:id="rId9"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId10"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId11"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId12"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId13"/>
+    <sheet name="Словения" sheetId="26" r:id="rId14"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId15"/>
+    <sheet name="Франция" sheetId="28" r:id="rId16"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId17"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,7 +83,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Греции (Афины)</t>
+          <t>Монетный двор Ирландии (Дублин)</t>
         </r>
       </text>
     </comment>
@@ -135,7 +134,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
         </r>
       </text>
     </comment>
@@ -186,7 +185,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+          <t>Монетный двор Португалии (Лиссабон)</t>
         </r>
       </text>
     </comment>
@@ -237,7 +236,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -288,7 +287,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Словакии (Кремница)</t>
         </r>
       </text>
     </comment>
@@ -297,57 +296,6 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -443,7 +391,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -494,7 +442,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -545,7 +493,7 @@
 </comments>
 </file>
 
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -669,7 +617,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Ирландии (Дублин)</t>
+          <t>Королевский монетный двор Испании</t>
         </r>
       </text>
     </comment>
@@ -720,7 +668,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Испании</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -729,57 +677,6 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -845,7 +742,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -913,7 +810,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -964,7 +861,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1045,7 +942,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1125,8 +1022,59 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Парижский монетный двор</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="362">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -1239,9 +1187,6 @@
     <t>Кафедральный собор в г.Бургос</t>
   </si>
   <si>
-    <t>2500 лет Марафонской битве</t>
-  </si>
-  <si>
     <t>Год</t>
   </si>
   <si>
@@ -1281,76 +1226,22 @@
     <t>GR</t>
   </si>
   <si>
-    <t>35.000.000</t>
-  </si>
-  <si>
-    <t>3.978.549</t>
-  </si>
-  <si>
     <t>4.000.000</t>
   </si>
   <si>
-    <t>Летние Олимпийские игры 2004</t>
-  </si>
-  <si>
     <t>2.500.000</t>
   </si>
   <si>
-    <t>XIII Всемирные Специальные Олимпийские игры</t>
-  </si>
-  <si>
     <t>1.000.000</t>
   </si>
   <si>
     <t>10-летие введения евро</t>
   </si>
   <si>
-    <t>100-летие воссоединения с Критом</t>
-  </si>
-  <si>
-    <t>754.000</t>
-  </si>
-  <si>
-    <t>2400 лет с основания Платоновской Академии</t>
-  </si>
-  <si>
-    <t>150-летие союза Ионических островов с Грецией</t>
-  </si>
-  <si>
     <t>750.000</t>
   </si>
   <si>
-    <t>400 лет со дня смерти Доменикоса Теотокопулоса</t>
-  </si>
-  <si>
     <t>30 лет флагу ЕС</t>
-  </si>
-  <si>
-    <t>75 лет со дня смерти С.Луиса</t>
-  </si>
-  <si>
-    <t>120 лет со дня рождения Д.Митропулоса</t>
-  </si>
-  <si>
-    <t>150-летие холокоста Аркади</t>
-  </si>
-  <si>
-    <t>60 лет со дня смерти Н.Казандзакиса</t>
-  </si>
-  <si>
-    <t>Археологический комплекс Филиппы</t>
-  </si>
-  <si>
-    <t>75 лет со дня смерти К.Паламаса</t>
-  </si>
-  <si>
-    <t>70-летие союза островов Додеканес с Грецией</t>
-  </si>
-  <si>
-    <t>100 лет со дня рождения Манолиса Андроникоса</t>
-  </si>
-  <si>
-    <t>150 лет со дня смерти Андреаса Калвасаа</t>
   </si>
   <si>
     <t>IE</t>
@@ -2713,15 +2604,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="98">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3512,9 +3395,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="98"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="97" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="96"/>
+    <tableColumn id="1" name="№" dataDxfId="97"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="96" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3783,408 +3666,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f>IF(OR(AND(D7&gt;1,D7&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="str">
-        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="C8" s="22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="str">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f>IF(OR(AND(D8&gt;1,D8&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="8">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4192,7 +3821,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D22">
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4204,11 +3838,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="95" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -4216,288 +3845,52 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" ref="E5:E11" si="0">IF(OR(AND(D5&gt;1,D5&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D11">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D11">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>6</v>
@@ -4510,15 +3903,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -4528,15 +3921,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -4546,15 +3939,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4564,15 +3957,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -4582,12 +3975,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2013</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>20</v>
@@ -4601,15 +3994,15 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -4619,15 +4012,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -4644,7 +4037,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4665,7 +4058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -4676,49 +4069,49 @@
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -4728,15 +4121,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -4746,15 +4139,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2008</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -4764,15 +4157,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2009</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4782,15 +4175,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2009</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -4800,12 +4193,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2010</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>19</v>
@@ -4819,15 +4212,15 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2011</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -4837,15 +4230,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2012</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -4855,12 +4248,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2012</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -4873,15 +4266,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2013</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -4891,15 +4284,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -4909,15 +4302,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2014</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -4928,15 +4321,15 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -4946,15 +4339,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -4964,15 +4357,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2015</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -4982,15 +4375,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -5000,15 +4393,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2016</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -5018,15 +4411,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -5036,15 +4429,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2017</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -5054,15 +4447,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -5072,15 +4465,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2018</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -5090,29 +4483,29 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2019</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -5125,7 +4518,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5147,7 +4540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -5158,49 +4551,49 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2004</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5210,15 +4603,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -5228,15 +4621,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -5246,15 +4639,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -5264,12 +4657,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2008</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>18</v>
@@ -5282,12 +4675,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2009</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -5301,15 +4694,15 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2010</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -5319,12 +4712,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2011</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>16</v>
@@ -5337,12 +4730,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2012</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -5355,15 +4748,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2013</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -5373,15 +4766,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2014</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -5391,15 +4784,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2014</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -5409,12 +4802,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2015</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>15</v>
@@ -5428,15 +4821,15 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -5446,12 +4839,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>14</v>
@@ -5464,12 +4857,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2016</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>13</v>
@@ -5482,15 +4875,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2017</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -5500,15 +4893,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2017</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -5518,15 +4911,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -5536,15 +4929,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -5554,15 +4947,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -5572,15 +4965,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2019</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -5597,7 +4990,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5618,7 +5011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -5629,49 +5022,49 @@
       <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5681,15 +5074,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -5699,15 +5092,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -5717,12 +5110,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>1</v>
@@ -5735,15 +5128,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -5753,15 +5146,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -5772,15 +5165,15 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2015</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -5790,15 +5183,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -5808,15 +5201,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2016</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -5826,15 +5219,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2017</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -5844,15 +5237,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2018</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -5862,15 +5255,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2019</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -5887,7 +5280,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D14">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5908,7 +5301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -5919,55 +5312,55 @@
       <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="4" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
       <c r="G1" s="40"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>6</v>
@@ -5976,106 +5369,106 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H15" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-"),AND(G4&gt;1,G4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>12</v>
@@ -6084,172 +5477,172 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2013</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2014</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -6259,79 +5652,79 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2017</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2018</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2019</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -6342,7 +5735,7 @@
     <mergeCell ref="D1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D7">
-    <cfRule type="containsText" dxfId="45" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6395,7 +5788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="44" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6412,7 +5805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="43" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6429,7 +5822,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="42" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6446,7 +5839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="41" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6463,7 +5856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="40" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6480,7 +5873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="39" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6497,7 +5890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="38" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6514,7 +5907,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="37" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6531,7 +5924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="36" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6548,7 +5941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="35" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6565,7 +5958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="34" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6582,7 +5975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="33" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6599,7 +5992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="32" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6616,7 +6009,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="31" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6633,7 +6026,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6650,7 +6043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="29" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6667,7 +6060,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9">
-    <cfRule type="containsText" dxfId="28" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6684,7 +6077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:E9">
-    <cfRule type="containsText" dxfId="27" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6701,7 +6094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="containsText" dxfId="26" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6730,7 +6123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6747,7 +6140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6764,7 +6157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="23" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6793,7 +6186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6810,7 +6203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6827,7 +6220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6856,7 +6249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6873,7 +6266,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6890,7 +6283,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6907,7 +6300,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="containsText" dxfId="16" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6924,7 +6317,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6941,7 +6334,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6970,7 +6363,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6987,7 +6380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E16">
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7004,7 +6397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G16">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7045,7 +6438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -7053,49 +6446,49 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -7105,15 +6498,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -7123,15 +6516,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -7141,15 +6534,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -7159,12 +6552,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
@@ -7177,15 +6570,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -7196,15 +6589,15 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -7214,15 +6607,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -7232,15 +6625,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -7250,15 +6643,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7268,15 +6661,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7286,12 +6679,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1</v>
@@ -7304,15 +6697,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -7323,15 +6716,15 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -7341,15 +6734,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -7359,12 +6752,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>10</v>
@@ -7377,15 +6770,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -7395,113 +6788,113 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2016</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2017</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2018</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -7514,7 +6907,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D27">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7535,7 +6928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -7546,46 +6939,46 @@
       <selection pane="bottomRight" activeCell="D23" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>6</v>
@@ -7598,12 +6991,12 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
@@ -7616,15 +7009,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -7634,15 +7027,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -7652,15 +7045,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -7670,12 +7063,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>2</v>
@@ -7689,12 +7082,12 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
@@ -7707,15 +7100,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -7725,12 +7118,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2013</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>9</v>
@@ -7743,15 +7136,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7761,15 +7154,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7779,12 +7172,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>8</v>
@@ -7797,15 +7190,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -7816,15 +7209,15 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -7834,12 +7227,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>0</v>
@@ -7852,12 +7245,12 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>7</v>
@@ -7870,15 +7263,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -7888,15 +7281,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -7906,15 +7299,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -7924,15 +7317,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -7942,29 +7335,29 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -7977,7 +7370,7 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7998,7 +7391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -8009,51 +7402,51 @@
       <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="4" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="40"/>
       <c r="F1" s="40"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2012</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
@@ -8062,151 +7455,151 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -8216,21 +7609,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2019</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -8240,7 +7633,7 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" s="4"/>
     </row>
   </sheetData>
@@ -8251,7 +7644,7 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8268,12 +7661,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E8">
-    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8302,7 +7695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8319,7 +7712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F8">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8336,7 +7729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10 E9:E10">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8357,7 +7750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -8368,77 +7761,77 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="C1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -8458,185 +7851,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f>IF(OR(AND(D7&gt;1,D7&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f>IF(OR(AND(D8&gt;1,D8&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -8646,49 +7860,49 @@
       <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2005</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -8698,12 +7912,12 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>6</v>
@@ -8716,15 +7930,15 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
@@ -8734,12 +7948,12 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>5</v>
@@ -8752,12 +7966,12 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>4</v>
@@ -8770,12 +7984,12 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>36</v>
@@ -8789,12 +8003,12 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>1</v>
@@ -8807,15 +8021,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -8825,15 +8039,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2014</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -8843,15 +8057,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -8861,15 +8075,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2015</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -8879,15 +8093,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -8897,12 +8111,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2016</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>35</v>
@@ -8916,15 +8130,15 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -8934,15 +8148,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -8952,15 +8166,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -8970,7 +8184,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2019</v>
       </c>
@@ -8978,7 +8192,7 @@
         <v>1000000</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -8988,15 +8202,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2020</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -9006,13 +8220,13 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2021</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="22" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -9022,13 +8236,13 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2022</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="22" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -9067,7 +8281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -9078,49 +8292,49 @@
       <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9130,15 +8344,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -9148,15 +8362,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -9166,12 +8380,12 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>6</v>
@@ -9184,15 +8398,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2008</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -9202,15 +8416,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2009</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -9221,15 +8435,15 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9239,15 +8453,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2010</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9257,15 +8471,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2011</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -9275,15 +8489,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2012</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -9293,12 +8507,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>1</v>
@@ -9311,15 +8525,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2013</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -9329,15 +8543,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -9348,15 +8562,15 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2014</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -9366,12 +8580,12 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>34</v>
@@ -9384,15 +8598,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2015</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -9402,12 +8616,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>15</v>
@@ -9420,15 +8634,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -9438,12 +8652,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2016</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>14</v>
@@ -9456,15 +8670,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -9474,15 +8688,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -9492,15 +8706,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -9510,15 +8724,15 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D25" s="8">
         <v>2</v>
@@ -9528,15 +8742,15 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -9546,15 +8760,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -9564,13 +8778,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>2020</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -9580,13 +8794,13 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <v>2020</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -9641,7 +8855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -9652,54 +8866,54 @@
       <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -9709,12 +8923,12 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2012</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>1</v>
@@ -9723,49 +8937,49 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-"),AND(E6&gt;1,E6&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9886,7 +9100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -9897,69 +9111,69 @@
       <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2014</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>29</v>
@@ -9968,19 +9182,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2015</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>28</v>
@@ -9989,46 +9203,46 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2015</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2016</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -10038,18 +9252,18 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2016</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -10059,60 +9273,60 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2017</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2017</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2018</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -10122,21 +9336,21 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2018</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10342,7 +9556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -10353,46 +9567,46 @@
       <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>31</v>
@@ -10405,15 +9619,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -10423,12 +9637,12 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>30</v>
@@ -10441,15 +9655,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -10459,15 +9673,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -10477,15 +9691,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -10496,29 +9710,29 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2019</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -10586,7 +9800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -10597,134 +9811,134 @@
       <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" s="7" t="str">
         <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -10734,21 +9948,21 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -10758,21 +9972,21 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -10782,60 +9996,60 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>185</v>
-      </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>32</v>
@@ -10844,418 +10058,418 @@
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2012</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <v>2019</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -11530,80 +10744,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="D1" s="34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="35"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="31"/>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>27</v>
@@ -11612,19 +10826,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F21" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>26</v>
@@ -11633,40 +10847,40 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>25</v>
@@ -11675,40 +10889,40 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>24</v>
@@ -11717,88 +10931,88 @@
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -11808,18 +11022,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <v>2016</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -11829,18 +11043,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>2017</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -11850,18 +11064,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -11871,18 +11085,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -11892,18 +11106,18 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -11913,18 +11127,18 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>2019</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -11934,36 +11148,36 @@
         <v>Есть на обмен</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <v>2019</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
       </c>
       <c r="F20" s="7"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <v>2019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -12066,7 +11280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12083,7 +11297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D20))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12102,4 +11316,240 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" ref="E5:E11" si="0">IF(OR(AND(D5&gt;1,D5&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="containsText" dxfId="48" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,24 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Ирландия" sheetId="12" r:id="rId1"/>
-    <sheet name="Испания" sheetId="14" r:id="rId2"/>
-    <sheet name="Италия" sheetId="15" r:id="rId3"/>
-    <sheet name="Кипр" sheetId="16" r:id="rId4"/>
-    <sheet name="Латвия" sheetId="17" r:id="rId5"/>
-    <sheet name="Литва" sheetId="18" r:id="rId6"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId7"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId8"/>
-    <sheet name="Монако" sheetId="21" r:id="rId9"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId10"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId11"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId12"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId13"/>
-    <sheet name="Словения" sheetId="26" r:id="rId14"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId15"/>
-    <sheet name="Франция" sheetId="28" r:id="rId16"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId17"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId18"/>
+    <sheet name="Испания" sheetId="14" r:id="rId1"/>
+    <sheet name="Италия" sheetId="15" r:id="rId2"/>
+    <sheet name="Кипр" sheetId="16" r:id="rId3"/>
+    <sheet name="Латвия" sheetId="17" r:id="rId4"/>
+    <sheet name="Литва" sheetId="18" r:id="rId5"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId6"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId7"/>
+    <sheet name="Монако" sheetId="21" r:id="rId8"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId9"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId10"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId11"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId12"/>
+    <sheet name="Словения" sheetId="26" r:id="rId13"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId14"/>
+    <sheet name="Франция" sheetId="28" r:id="rId15"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId16"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -83,7 +82,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Ирландии (Дублин)</t>
+          <t>Королевский монетный двор Испании</t>
         </r>
       </text>
     </comment>
@@ -134,7 +133,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+          <t>Монетный двор Португалии (Лиссабон)</t>
         </r>
       </text>
     </comment>
@@ -185,7 +184,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -236,7 +235,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Словакии (Кремница)</t>
         </r>
       </text>
     </comment>
@@ -245,57 +244,6 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -391,7 +339,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -442,7 +390,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -493,7 +441,7 @@
 </comments>
 </file>
 
-<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -617,7 +565,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Испании</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -626,57 +574,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -742,7 +639,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -810,7 +707,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -861,7 +758,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -942,7 +839,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1022,7 +919,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1073,8 +970,59 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="354">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -1244,18 +1192,9 @@
     <t>30 лет флагу ЕС</t>
   </si>
   <si>
-    <t>IE</t>
-  </si>
-  <si>
     <t>7.200.000</t>
   </si>
   <si>
-    <t>4.745.000</t>
-  </si>
-  <si>
-    <t>3.807.000</t>
-  </si>
-  <si>
     <t>1.010.000</t>
   </si>
   <si>
@@ -1263,21 +1202,6 @@
   </si>
   <si>
     <t>1.012.000</t>
-  </si>
-  <si>
-    <t>1.355.000</t>
-  </si>
-  <si>
-    <t>1.059.677</t>
-  </si>
-  <si>
-    <t>4.624.000</t>
-  </si>
-  <si>
-    <t>100-летие Пасхального восстания</t>
-  </si>
-  <si>
-    <t>100 лет со дня первого заседания Дойл Эрен</t>
   </si>
   <si>
     <t>Дон Кихот</t>
@@ -2604,15 +2528,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="98">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="97">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3395,9 +3311,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="97"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="96" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="95"/>
+    <tableColumn id="1" name="№" dataDxfId="96"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="95" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3666,7 +3582,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
@@ -3705,115 +3621,367 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="9" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
+        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v>Есть на обмен</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Есть на обмен</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f>IF(OR(AND(D7&gt;1,D7&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>2019</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="B19" s="19">
+        <v>1000000</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="8">
         <v>1</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f>IF(OR(AND(D8&gt;1,D8&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3821,12 +3989,12 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="94" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3:D22">
+    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="D3:D22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3839,226 +4007,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D10">
-    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D10">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -4099,7 +4053,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -4108,10 +4062,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>226</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>234</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -4126,10 +4080,10 @@
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -4144,10 +4098,10 @@
         <v>2008</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -4162,10 +4116,10 @@
         <v>2009</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4180,7 +4134,7 @@
         <v>2009</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>40</v>
@@ -4198,7 +4152,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>19</v>
@@ -4217,10 +4171,10 @@
         <v>2011</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -4235,10 +4189,10 @@
         <v>2012</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -4253,7 +4207,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -4271,10 +4225,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -4289,10 +4243,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>231</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -4307,10 +4261,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -4326,10 +4280,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -4344,10 +4298,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -4362,10 +4316,10 @@
         <v>2015</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -4380,10 +4334,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -4398,10 +4352,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -4416,10 +4370,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -4434,10 +4388,10 @@
         <v>2017</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -4452,10 +4406,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -4470,10 +4424,10 @@
         <v>2018</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -4488,10 +4442,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -4505,7 +4459,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -4540,7 +4494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -4590,10 +4544,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -4608,10 +4562,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -4626,10 +4580,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -4644,10 +4598,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4662,7 +4616,7 @@
         <v>2008</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>18</v>
@@ -4680,7 +4634,7 @@
         <v>2009</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -4699,10 +4653,10 @@
         <v>2010</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -4717,7 +4671,7 @@
         <v>2011</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>16</v>
@@ -4735,7 +4689,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -4753,10 +4707,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -4771,10 +4725,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -4789,10 +4743,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -4807,7 +4761,7 @@
         <v>2015</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>15</v>
@@ -4826,7 +4780,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>41</v>
@@ -4844,7 +4798,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>14</v>
@@ -4862,7 +4816,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>13</v>
@@ -4880,10 +4834,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -4898,10 +4852,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -4916,10 +4870,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -4934,10 +4888,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -4952,10 +4906,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -4970,10 +4924,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -5011,7 +4965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -5052,7 +5006,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -5064,7 +5018,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5100,7 +5054,7 @@
         <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -5136,7 +5090,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -5154,7 +5108,7 @@
         <v>52</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -5173,7 +5127,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -5209,7 +5163,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -5227,7 +5181,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -5245,7 +5199,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -5263,7 +5217,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -5301,7 +5255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -5343,13 +5297,13 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>48</v>
@@ -5360,7 +5314,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>6</v>
@@ -5390,7 +5344,7 @@
         <v>52</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>47</v>
@@ -5444,7 +5398,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -5525,7 +5479,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>47</v>
@@ -5579,7 +5533,7 @@
         <v>52</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>47</v>
@@ -5606,7 +5560,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>47</v>
@@ -5633,7 +5587,7 @@
         <v>52</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>47</v>
@@ -5660,7 +5614,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>47</v>
@@ -5687,7 +5641,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>47</v>
@@ -5714,7 +5668,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>47</v>
@@ -6438,7 +6392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -6476,7 +6430,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6488,7 +6442,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -6503,10 +6457,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6524,7 +6478,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6539,10 +6493,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6557,7 +6511,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
@@ -6575,10 +6529,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6594,10 +6548,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6612,7 +6566,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>40</v>
@@ -6630,10 +6584,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -6648,10 +6602,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6666,10 +6620,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -6684,7 +6638,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1</v>
@@ -6705,7 +6659,7 @@
         <v>52</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -6721,10 +6675,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -6739,10 +6693,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -6778,7 +6732,7 @@
         <v>52</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -6793,10 +6747,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -6807,10 +6761,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -6824,7 +6778,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -6838,7 +6792,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -6852,7 +6806,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -6863,10 +6817,10 @@
         <v>2017</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -6880,7 +6834,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -6894,7 +6848,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -6928,7 +6882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -6978,7 +6932,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>6</v>
@@ -6996,7 +6950,7 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
@@ -7014,7 +6968,7 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>40</v>
@@ -7032,10 +6986,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -7050,10 +7004,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -7068,7 +7022,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>2</v>
@@ -7087,7 +7041,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
@@ -7105,10 +7059,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -7123,7 +7077,7 @@
         <v>2013</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>9</v>
@@ -7141,10 +7095,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7159,10 +7113,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7177,7 +7131,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>8</v>
@@ -7195,10 +7149,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>321</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>329</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -7214,7 +7168,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>55</v>
@@ -7232,7 +7186,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>0</v>
@@ -7250,7 +7204,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>7</v>
@@ -7268,10 +7222,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -7286,10 +7240,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -7304,10 +7258,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -7322,10 +7276,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -7340,10 +7294,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -7354,7 +7308,7 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>42</v>
@@ -7391,7 +7345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -7435,10 +7389,10 @@
         <v>43</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -7446,7 +7400,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
@@ -7470,10 +7424,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>47</v>
@@ -7494,10 +7448,10 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>47</v>
@@ -7518,10 +7472,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>47</v>
@@ -7542,10 +7496,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>47</v>
@@ -7566,10 +7520,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>47</v>
@@ -7593,7 +7547,7 @@
         <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>47</v>
@@ -7617,7 +7571,7 @@
         <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>47</v>
@@ -7750,7 +7704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7770,13 +7724,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -7784,10 +7738,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -7795,10 +7749,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -7806,10 +7760,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -7817,10 +7771,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -7828,10 +7782,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -7850,438 +7804,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1000000</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2022</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -8331,10 +7853,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -8349,10 +7871,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -8367,10 +7889,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -8385,7 +7907,7 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>6</v>
@@ -8406,7 +7928,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -8421,10 +7943,10 @@
         <v>2009</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -8440,7 +7962,7 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>40</v>
@@ -8461,7 +7983,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -8476,10 +7998,10 @@
         <v>2011</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -8494,10 +8016,10 @@
         <v>2012</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -8512,7 +8034,7 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>1</v>
@@ -8530,10 +8052,10 @@
         <v>2013</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -8548,10 +8070,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -8567,10 +8089,10 @@
         <v>2014</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -8585,7 +8107,7 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>34</v>
@@ -8603,10 +8125,10 @@
         <v>2015</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -8621,7 +8143,7 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>15</v>
@@ -8642,7 +8164,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -8657,7 +8179,7 @@
         <v>2016</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>14</v>
@@ -8675,10 +8197,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -8693,10 +8215,10 @@
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -8711,10 +8233,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -8732,7 +8254,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D25" s="8">
         <v>2</v>
@@ -8747,10 +8269,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -8765,10 +8287,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -8784,7 +8306,7 @@
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="22" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D28" s="8">
         <v>0</v>
@@ -8800,7 +8322,7 @@
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="22" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
@@ -8855,7 +8377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -8949,7 +8471,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>55</v>
@@ -8970,10 +8492,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9100,7 +8622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -9141,10 +8663,10 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -9152,10 +8674,10 @@
         <v>2014</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9173,7 +8695,7 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>29</v>
@@ -9194,7 +8716,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>28</v>
@@ -9215,7 +8737,7 @@
         <v>2015</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>55</v>
@@ -9236,10 +8758,10 @@
         <v>2016</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>47</v>
@@ -9257,10 +8779,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>47</v>
@@ -9278,10 +8800,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9299,10 +8821,10 @@
         <v>2017</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9320,10 +8842,10 @@
         <v>2018</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>47</v>
@@ -9341,10 +8863,10 @@
         <v>2018</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -9556,7 +9078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -9597,7 +9119,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -9663,7 +9185,7 @@
         <v>52</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9681,7 +9203,7 @@
         <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -9696,10 +9218,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -9715,10 +9237,10 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -9729,10 +9251,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -9800,7 +9322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -9843,10 +9365,10 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="25" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>46</v>
@@ -9857,10 +9379,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9881,10 +9403,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>47</v>
@@ -9905,10 +9427,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>47</v>
@@ -9929,7 +9451,7 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>33</v>
@@ -9953,7 +9475,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>6</v>
@@ -9977,10 +9499,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>47</v>
@@ -10001,10 +9523,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -10025,7 +9547,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>40</v>
@@ -10049,7 +9571,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>32</v>
@@ -10073,10 +9595,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -10097,10 +9619,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -10121,10 +9643,10 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -10145,7 +9667,7 @@
         <v>2012</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>53</v>
@@ -10169,10 +9691,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -10193,10 +9715,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -10217,10 +9739,10 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -10241,10 +9763,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -10265,10 +9787,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -10289,10 +9811,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -10313,10 +9835,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -10337,10 +9859,10 @@
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -10361,10 +9883,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
@@ -10385,10 +9907,10 @@
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -10409,10 +9931,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
@@ -10433,10 +9955,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -10457,10 +9979,10 @@
         <v>2019</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
@@ -10744,7 +10266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -10785,7 +10307,7 @@
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="23" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>46</v>
@@ -10796,7 +10318,7 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>40</v>
@@ -10817,7 +10339,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>27</v>
@@ -10838,7 +10360,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>26</v>
@@ -10859,7 +10381,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>53</v>
@@ -10880,7 +10402,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>25</v>
@@ -10901,10 +10423,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>195</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -10922,7 +10444,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>24</v>
@@ -10943,10 +10465,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>188</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>196</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -10964,10 +10486,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>189</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -10985,7 +10507,7 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>55</v>
@@ -11006,10 +10528,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>190</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>198</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>47</v>
@@ -11027,7 +10549,7 @@
         <v>2016</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>23</v>
@@ -11048,10 +10570,10 @@
         <v>2017</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>47</v>
@@ -11069,7 +10591,7 @@
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>22</v>
@@ -11090,10 +10612,10 @@
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>47</v>
@@ -11111,10 +10633,10 @@
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>47</v>
@@ -11132,10 +10654,10 @@
         <v>2019</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>47</v>
@@ -11153,10 +10675,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>47</v>
@@ -11171,10 +10693,10 @@
         <v>2019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>47</v>
@@ -11318,7 +10840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -11368,7 +10890,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>21</v>
@@ -11386,10 +10908,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -11404,10 +10926,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -11422,10 +10944,10 @@
         <v>2013</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -11440,10 +10962,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -11458,10 +10980,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -11477,10 +10999,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -11495,10 +11017,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -11513,10 +11035,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -11552,4 +11074,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="containsText" dxfId="47" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D10">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,23 +12,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Испания" sheetId="14" r:id="rId1"/>
-    <sheet name="Италия" sheetId="15" r:id="rId2"/>
-    <sheet name="Кипр" sheetId="16" r:id="rId3"/>
-    <sheet name="Латвия" sheetId="17" r:id="rId4"/>
-    <sheet name="Литва" sheetId="18" r:id="rId5"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId6"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId7"/>
-    <sheet name="Монако" sheetId="21" r:id="rId8"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId9"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId10"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId11"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId12"/>
-    <sheet name="Словения" sheetId="26" r:id="rId13"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId14"/>
-    <sheet name="Франция" sheetId="28" r:id="rId15"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId16"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId17"/>
+    <sheet name="Италия" sheetId="15" r:id="rId1"/>
+    <sheet name="Кипр" sheetId="16" r:id="rId2"/>
+    <sheet name="Латвия" sheetId="17" r:id="rId3"/>
+    <sheet name="Литва" sheetId="18" r:id="rId4"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId5"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId6"/>
+    <sheet name="Монако" sheetId="21" r:id="rId7"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId8"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId9"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId10"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId11"/>
+    <sheet name="Словения" sheetId="26" r:id="rId12"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId13"/>
+    <sheet name="Франция" sheetId="28" r:id="rId14"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId15"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -82,7 +81,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Испании</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -133,7 +132,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -184,7 +183,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Словакии (Кремница)</t>
         </r>
       </text>
     </comment>
@@ -193,57 +192,6 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -339,7 +287,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -390,7 +338,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -441,7 +389,7 @@
 </comments>
 </file>
 
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -565,57 +513,6 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
           <t>Монетный двор Греции (Афины)</t>
         </r>
       </text>
@@ -639,7 +536,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -707,7 +604,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -758,7 +655,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -839,7 +736,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -919,7 +816,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -970,7 +867,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -1021,8 +918,59 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Монетный двор Португалии (Лиссабон)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="332">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -1036,12 +984,6 @@
     <t>Председательство Франции в Совете ЕС</t>
   </si>
   <si>
-    <t>Альгамбра, Хенералифе и Альбайсин в Гранаде</t>
-  </si>
-  <si>
-    <t>Исторический центр г.Кордова</t>
-  </si>
-  <si>
     <t>50-летие подписания Римского договора</t>
   </si>
   <si>
@@ -1129,12 +1071,6 @@
     <t>450 лет со дня рождения Галилео Галилея</t>
   </si>
   <si>
-    <t>Старинный город Сеговия с римским акведуком</t>
-  </si>
-  <si>
-    <t>Кафедральный собор в г.Бургос</t>
-  </si>
-  <si>
     <t>Год</t>
   </si>
   <si>
@@ -1159,9 +1095,6 @@
     <t>Монетный двор</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>FR</t>
   </si>
   <si>
@@ -1204,64 +1137,13 @@
     <t>1.012.000</t>
   </si>
   <si>
-    <t>Дон Кихот</t>
-  </si>
-  <si>
-    <t>8.000.000</t>
-  </si>
-  <si>
-    <t>Архитектурный ансамбль Эскориал</t>
-  </si>
-  <si>
-    <t>Работы А.Гауди в Барселоне</t>
-  </si>
-  <si>
-    <t>8.100.000</t>
-  </si>
-  <si>
-    <t>Провозглашение Филиппа VI королём Испании</t>
-  </si>
-  <si>
-    <t>Наскальные рисунки в пещере Альтамира</t>
-  </si>
-  <si>
-    <t>4.200.000</t>
-  </si>
-  <si>
-    <t>4.300.000</t>
-  </si>
-  <si>
-    <t>3.400.000</t>
-  </si>
-  <si>
-    <t>Церковь Санта-Мария-дель-Наранко в Овьедо</t>
-  </si>
-  <si>
     <t>500.000</t>
   </si>
   <si>
-    <t>Сантьяго-де-Компостела</t>
-  </si>
-  <si>
     <t>300.000</t>
   </si>
   <si>
     <t>400.000</t>
-  </si>
-  <si>
-    <t>50 лет со дня рождения короля Филиппа VI</t>
-  </si>
-  <si>
-    <t>Old town of Ávila with its extra-muros churches</t>
-  </si>
-  <si>
-    <t>Mudéjar Architecture of Aragon</t>
-  </si>
-  <si>
-    <t>Historic city of Toledo</t>
-  </si>
-  <si>
-    <t>Garajonay National Park (La Gomera)</t>
   </si>
   <si>
     <t>Всемирная продовольственная программа</t>
@@ -2411,7 +2293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2482,9 +2364,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2528,15 +2407,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="97">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="96">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3311,9 +3182,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="96"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="95" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="94"/>
+    <tableColumn id="1" name="№" dataDxfId="95"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="94" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3582,13 +3453,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3602,38 +3473,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2005</v>
+      <c r="A3" s="12">
+        <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -3645,52 +3516,52 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E22" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v>Есть на обмен</v>
+        <f t="shared" ref="E4:E29" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
       </c>
       <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3699,16 +3570,16 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3717,13 +3588,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="12">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -3736,16 +3607,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3754,13 +3625,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -3772,13 +3643,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -3790,13 +3661,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -3808,13 +3679,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -3826,13 +3697,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>55</v>
+        <v>82</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>67</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -3844,13 +3715,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -3863,13 +3734,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -3881,13 +3752,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -3899,13 +3770,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -3917,16 +3788,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B19" s="19">
-        <v>1000000</v>
+        <v>2015</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="9" t="str">
         <f t="shared" si="0"/>
@@ -3935,13 +3806,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -3953,11 +3824,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
-        <v>2021</v>
-      </c>
-      <c r="B21" s="19"/>
+        <v>2016</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="C21" s="22" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -3969,16 +3842,140 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
-        <v>2022</v>
-      </c>
-      <c r="B22" s="19"/>
+        <v>2016</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>86</v>
+      </c>
       <c r="C22" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8">
+        <v>2</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -3989,12 +3986,29 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D22">
-    <cfRule type="containsText" dxfId="93" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3:D27 D29">
+    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D22">
+  <conditionalFormatting sqref="D3:D27 D29">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4007,494 +4021,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2007</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E23" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D25">
-    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -4516,26 +4047,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -4544,10 +4075,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -4562,10 +4093,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -4580,10 +4111,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -4598,10 +4129,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4616,10 +4147,10 @@
         <v>2008</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -4634,10 +4165,10 @@
         <v>2009</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -4653,10 +4184,10 @@
         <v>2010</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -4671,10 +4202,10 @@
         <v>2011</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -4689,7 +4220,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -4707,10 +4238,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -4725,10 +4256,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -4743,10 +4274,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -4761,10 +4292,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -4780,10 +4311,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -4798,10 +4329,10 @@
         <v>2016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -4816,10 +4347,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -4834,10 +4365,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -4852,10 +4383,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -4870,10 +4401,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -4888,10 +4419,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -4906,10 +4437,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -4924,10 +4455,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -4965,7 +4496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -4987,26 +4518,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -5015,10 +4546,10 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5033,10 +4564,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -5051,10 +4582,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -5069,7 +4600,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>1</v>
@@ -5087,10 +4618,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -5105,10 +4636,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -5124,10 +4655,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -5142,10 +4673,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -5160,10 +4691,10 @@
         <v>2016</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -5178,10 +4709,10 @@
         <v>2017</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -5196,10 +4727,10 @@
         <v>2018</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -5214,10 +4745,10 @@
         <v>2019</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -5255,7 +4786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -5276,37 +4807,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -5314,22 +4845,22 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -5341,22 +4872,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H15" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-"),AND(G4&gt;1,G4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -5368,22 +4899,22 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5395,22 +4926,22 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5422,22 +4953,22 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5449,22 +4980,22 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5476,22 +5007,22 @@
         <v>2013</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5503,22 +5034,22 @@
         <v>2014</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5530,22 +5061,22 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5557,22 +5088,22 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5584,19 +5115,19 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -5611,22 +5142,22 @@
         <v>2017</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5638,22 +5169,22 @@
         <v>2018</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5665,20 +5196,20 @@
         <v>2019</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6392,7 +5923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -6411,26 +5942,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6439,10 +5970,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -6457,10 +5988,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6475,10 +6006,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6493,10 +6024,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6511,10 +6042,10 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6529,10 +6060,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6548,10 +6079,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6566,10 +6097,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6584,10 +6115,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -6602,10 +6133,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6620,10 +6151,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -6638,7 +6169,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1</v>
@@ -6656,10 +6187,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -6675,10 +6206,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -6693,10 +6224,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -6711,10 +6242,10 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -6729,10 +6260,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -6747,10 +6278,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -6761,10 +6292,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>93</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -6775,10 +6306,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -6789,10 +6320,10 @@
         <v>2016</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -6803,10 +6334,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -6817,10 +6348,10 @@
         <v>2017</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -6831,10 +6362,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -6845,10 +6376,10 @@
         <v>2018</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -6882,7 +6413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -6904,26 +6435,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6932,10 +6463,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -6950,7 +6481,7 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
@@ -6968,10 +6499,10 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6986,10 +6517,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -7004,10 +6535,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -7022,7 +6553,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>2</v>
@@ -7041,7 +6572,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
@@ -7059,10 +6590,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -7077,10 +6608,10 @@
         <v>2013</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -7095,10 +6626,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7113,10 +6644,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7131,10 +6662,10 @@
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -7149,10 +6680,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -7168,10 +6699,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -7186,7 +6717,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>0</v>
@@ -7204,10 +6735,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -7222,10 +6753,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -7240,10 +6771,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -7258,10 +6789,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -7276,10 +6807,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -7294,10 +6825,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -7308,10 +6839,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -7345,7 +6876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -7366,33 +6897,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="24" t="s">
-        <v>43</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -7400,7 +6931,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
@@ -7409,10 +6940,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7424,19 +6955,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7448,19 +6979,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7472,19 +7003,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7496,19 +7027,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7520,19 +7051,19 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7544,16 +7075,16 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -7568,16 +7099,16 @@
         <v>2019</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -7704,7 +7235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7724,68 +7255,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>338</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>341</v>
+      <c r="B2" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>344</v>
+      <c r="B3" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>344</v>
+      <c r="B4" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>343</v>
+      <c r="B5" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>352</v>
+      <c r="B6" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -7804,580 +7335,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E29" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D27 D29">
-    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D27 D29">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -8399,29 +7356,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="32" t="s">
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -8429,13 +7386,13 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6">
         <v>0</v>
@@ -8450,7 +7407,7 @@
         <v>2012</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>1</v>
@@ -8459,7 +7416,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="str">
         <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -8471,16 +7428,16 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="str">
         <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -8492,16 +7449,16 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="str">
         <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-"),AND(E6&gt;1,E6&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -8622,7 +7579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -8644,29 +7601,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="35"/>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -8674,16 +7631,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -8695,16 +7652,16 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -8716,16 +7673,16 @@
         <v>2015</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8737,16 +7694,16 @@
         <v>2015</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8758,13 +7715,13 @@
         <v>2016</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -8779,13 +7736,13 @@
         <v>2016</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -8800,16 +7757,16 @@
         <v>2017</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8821,16 +7778,16 @@
         <v>2017</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8842,13 +7799,13 @@
         <v>2018</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -8863,16 +7820,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9078,7 +8035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -9100,26 +8057,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -9128,10 +8085,10 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9146,10 +8103,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -9164,10 +8121,10 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -9182,10 +8139,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9200,10 +8157,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -9218,10 +8175,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -9237,10 +8194,10 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -9251,10 +8208,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -9322,7 +8279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -9345,33 +8302,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -9379,19 +8336,19 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9403,19 +8360,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" s="7" t="str">
         <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9427,19 +8384,19 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9451,16 +8408,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -9475,16 +8432,16 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -9499,16 +8456,16 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -9523,19 +8480,19 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9547,19 +8504,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9571,19 +8528,19 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9595,19 +8552,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9619,19 +8576,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9643,19 +8600,19 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9667,19 +8624,19 @@
         <v>2012</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9691,19 +8648,19 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9715,19 +8672,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9739,19 +8696,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9763,19 +8720,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9787,19 +8744,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9811,19 +8768,19 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9835,19 +8792,19 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9859,19 +8816,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9883,19 +8840,19 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9907,19 +8864,19 @@
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9931,19 +8888,19 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9955,19 +8912,19 @@
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9979,19 +8936,19 @@
         <v>2019</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10266,7 +9223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -10288,29 +9245,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="35"/>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -10318,16 +9275,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -10339,16 +9296,16 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F21" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -10360,16 +9317,16 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10381,16 +9338,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10402,16 +9359,16 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10423,16 +9380,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10444,16 +9401,16 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10465,16 +9422,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10486,16 +9443,16 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10507,16 +9464,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -10528,13 +9485,13 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -10549,13 +9506,13 @@
         <v>2016</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -10570,13 +9527,13 @@
         <v>2017</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -10591,13 +9548,13 @@
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -10612,13 +9569,13 @@
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -10633,13 +9590,13 @@
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -10654,13 +9611,13 @@
         <v>2019</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -10675,13 +9632,13 @@
         <v>2019</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -10693,13 +9650,13 @@
         <v>2019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -10840,7 +9797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -10862,26 +9819,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -10890,10 +9847,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -10908,10 +9865,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -10926,10 +9883,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -10944,10 +9901,10 @@
         <v>2013</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -10962,10 +9919,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -10980,10 +9937,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -10999,10 +9956,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -11017,10 +9974,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -11035,10 +9992,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -11076,7 +10033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -11095,26 +10052,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>39</v>
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -11123,10 +10080,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -11141,10 +10098,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -11159,10 +10116,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -11177,10 +10134,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -11195,10 +10152,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -11213,10 +10170,10 @@
         <v>2013</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -11232,10 +10189,10 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -11250,10 +10207,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -11289,4 +10246,486 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E23" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,22 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Италия" sheetId="15" r:id="rId1"/>
-    <sheet name="Кипр" sheetId="16" r:id="rId2"/>
-    <sheet name="Латвия" sheetId="17" r:id="rId3"/>
-    <sheet name="Литва" sheetId="18" r:id="rId4"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId5"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId6"/>
-    <sheet name="Монако" sheetId="21" r:id="rId7"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId8"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId9"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId10"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId11"/>
-    <sheet name="Словения" sheetId="26" r:id="rId12"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId13"/>
-    <sheet name="Франция" sheetId="28" r:id="rId14"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId15"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId16"/>
+    <sheet name="Кипр" sheetId="16" r:id="rId1"/>
+    <sheet name="Латвия" sheetId="17" r:id="rId2"/>
+    <sheet name="Литва" sheetId="18" r:id="rId3"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId4"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId5"/>
+    <sheet name="Монако" sheetId="21" r:id="rId6"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId7"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId8"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId9"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId10"/>
+    <sheet name="Словения" sheetId="26" r:id="rId11"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId12"/>
+    <sheet name="Франция" sheetId="28" r:id="rId13"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId14"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -81,7 +80,22 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Греции (Афины)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Парижский монетный двор</t>
         </r>
       </text>
     </comment>
@@ -132,7 +146,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Словакии (Кремница)</t>
         </r>
       </text>
     </comment>
@@ -141,57 +155,6 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -287,7 +250,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -338,7 +301,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -389,7 +352,7 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -513,7 +476,9 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Греции (Афины)</t>
+          <t>Немецкие монетные дворы:   
+  Монетный двор Штутгарта «F»
+  Монетный двор Карлсруэ «G»</t>
         </r>
       </text>
     </comment>
@@ -528,7 +493,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>Монетный двор Литвы</t>
         </r>
       </text>
     </comment>
@@ -579,23 +544,6 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Немецкие монетные дворы:   
-  Монетный двор Штутгарта «F»
-  Монетный двор Карлсруэ «G»</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
           <t>Монетный двор Литвы</t>
         </r>
       </text>
@@ -605,57 +553,6 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Литвы</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -736,7 +633,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -816,7 +713,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -867,7 +764,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -918,7 +815,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -969,8 +866,59 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="305">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -1068,9 +1016,6 @@
     <t>Дворец Великих герцогов</t>
   </si>
   <si>
-    <t>450 лет со дня рождения Галилео Галилея</t>
-  </si>
-  <si>
     <t>Год</t>
   </si>
   <si>
@@ -1107,9 +1052,6 @@
     <t>GR</t>
   </si>
   <si>
-    <t>4.000.000</t>
-  </si>
-  <si>
     <t>2.500.000</t>
   </si>
   <si>
@@ -1146,103 +1088,28 @@
     <t>400.000</t>
   </si>
   <si>
-    <t>Всемирная продовольственная программа</t>
-  </si>
-  <si>
-    <t>1-я годовщина подписания Европейской конституции</t>
-  </si>
-  <si>
-    <t>XX зимние Олимпийские игры</t>
-  </si>
-  <si>
     <t>Римский договор</t>
   </si>
   <si>
     <t>60-летие принятия Всеобщей декларации прав человека</t>
   </si>
   <si>
-    <t>200 лет со дня рождения Луи Брайля</t>
-  </si>
-  <si>
-    <t>200 лет со дня рождения Камилло Кавура</t>
-  </si>
-  <si>
-    <t>150-летие объединения Италии</t>
-  </si>
-  <si>
-    <t>100 лет со дня смерти Дж.Пасколи</t>
-  </si>
-  <si>
-    <t>200 лет со дня рождения Дж.Верди</t>
-  </si>
-  <si>
-    <t>700 лет со дня рождения Дж.Боккаччо</t>
-  </si>
-  <si>
-    <t>200 лет итальянским карабинерам</t>
-  </si>
-  <si>
-    <t>Expo 2015 в Милане</t>
-  </si>
-  <si>
     <t>30 лет флагу Европейского союза</t>
   </si>
   <si>
-    <t>2200 лет со дня смерти Тита Макция Плавта</t>
-  </si>
-  <si>
-    <t>400-летие завершения строительства собора Св.Марка в Венеции</t>
-  </si>
-  <si>
-    <t>2000 лет со дня смерти Тита Ливия</t>
-  </si>
-  <si>
-    <t>Конституция Итальянской Республики</t>
-  </si>
-  <si>
-    <t>Министерство здравоохранения Италии</t>
-  </si>
-  <si>
-    <t>16.000.000</t>
-  </si>
-  <si>
-    <t>18.000.000</t>
-  </si>
-  <si>
-    <t>40.000.000</t>
-  </si>
-  <si>
     <t>5.000.000</t>
   </si>
   <si>
     <t>2.000.000</t>
   </si>
   <si>
-    <t>10.000.000</t>
-  </si>
-  <si>
     <t>15.000.000</t>
   </si>
   <si>
-    <t>6.500.000</t>
-  </si>
-  <si>
     <t>3.500.000</t>
   </si>
   <si>
     <t>1.500.000</t>
-  </si>
-  <si>
-    <t>3.000.000</t>
-  </si>
-  <si>
-    <t>500 years since the death of Leonardo da Vinci</t>
-  </si>
-  <si>
-    <t>80th anniversary of the National Firefighters Corps</t>
-  </si>
-  <si>
-    <t>150 years since the birth of Maria Montessori</t>
   </si>
   <si>
     <t>350.000</t>
@@ -2407,23 +2274,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="94">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3182,9 +3033,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="95"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="94" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="93"/>
+    <tableColumn id="1" name="№" dataDxfId="93"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="92" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3453,13 +3304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3474,524 +3325,161 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="5"/>
+      <c r="D1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="12">
-        <v>2004</v>
+      <c r="A3" s="11">
+        <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v>35</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
-        <v>2005</v>
+        <v>2012</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E29" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v>45</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
-        <v>2006</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
-        <v>2007</v>
+        <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="12">
-        <v>2020</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="9" t="str">
-        <f t="shared" si="0"/>
+      <c r="E6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-"),AND(E6&gt;1,E6&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D27 D29">
-    <cfRule type="containsText" dxfId="92" priority="3" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3 D4:D5">
+    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D27 D29">
+  <conditionalFormatting sqref="D4:D5 E3">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4003,12 +3491,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="containsText" dxfId="91" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D28))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -4020,467 +3508,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E24" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D24">
-    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D24">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -4491,12 +3525,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -4519,16 +3570,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -4537,7 +3588,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -4546,10 +3597,10 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -4564,10 +3615,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -4582,10 +3633,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -4600,7 +3651,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>1</v>
@@ -4618,10 +3669,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -4636,10 +3687,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -4655,10 +3706,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -4673,10 +3724,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -4691,10 +3742,10 @@
         <v>2016</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -4709,10 +3760,10 @@
         <v>2017</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -4727,10 +3778,10 @@
         <v>2018</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -4745,10 +3796,10 @@
         <v>2019</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -4786,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -4808,16 +3859,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -4828,16 +3879,16 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -4845,7 +3896,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -4854,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -4872,22 +3923,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H15" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-"),AND(G4&gt;1,G4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -4899,22 +3950,22 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4926,22 +3977,22 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4953,7 +4004,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>10</v>
@@ -4962,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4980,22 +4031,22 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5007,22 +4058,22 @@
         <v>2013</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5034,22 +4085,22 @@
         <v>2014</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5061,22 +4112,22 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5088,22 +4139,22 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5115,19 +4166,19 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -5142,22 +4193,22 @@
         <v>2017</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5169,22 +4220,22 @@
         <v>2018</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -5196,20 +4247,20 @@
         <v>2019</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5923,7 +4974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -5943,16 +4994,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -5961,7 +5012,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -5970,10 +5021,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5988,10 +5039,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6006,10 +5057,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6024,10 +5075,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6042,7 +5093,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>4</v>
@@ -6060,10 +5111,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6079,10 +5130,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6097,10 +5148,10 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6115,10 +5166,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -6133,10 +5184,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6151,10 +5202,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -6169,7 +5220,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1</v>
@@ -6187,10 +5238,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -6206,10 +5257,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -6224,10 +5275,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -6242,7 +5293,7 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>8</v>
@@ -6260,10 +5311,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -6278,10 +5329,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -6292,10 +5343,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -6306,10 +5357,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -6320,10 +5371,10 @@
         <v>2016</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -6334,10 +5385,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -6348,10 +5399,10 @@
         <v>2017</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -6362,10 +5413,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -6376,10 +5427,10 @@
         <v>2018</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -6413,7 +5464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -6436,16 +5487,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -6454,7 +5505,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6463,7 +5514,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>4</v>
@@ -6481,7 +5532,7 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
@@ -6499,10 +5550,10 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6517,10 +5568,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6535,10 +5586,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -6553,7 +5604,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>2</v>
@@ -6572,7 +5623,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
@@ -6590,10 +5641,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6608,7 +5659,7 @@
         <v>2013</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>7</v>
@@ -6626,10 +5677,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6644,10 +5695,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -6662,7 +5713,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>6</v>
@@ -6680,10 +5731,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -6699,10 +5750,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -6717,7 +5768,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>0</v>
@@ -6735,7 +5786,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>5</v>
@@ -6753,10 +5804,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -6771,10 +5822,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -6789,10 +5840,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -6807,10 +5858,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -6825,10 +5876,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -6839,10 +5890,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -6876,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -6898,16 +5949,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="39"/>
       <c r="F1" s="39"/>
@@ -6917,13 +5968,13 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -6931,7 +5982,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
@@ -6940,10 +5991,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -6955,19 +6006,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -6979,19 +6030,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7003,19 +6054,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7027,19 +6078,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7051,19 +6102,19 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7075,16 +6126,16 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -7099,16 +6150,16 @@
         <v>2019</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -7235,7 +6286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7255,13 +6306,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -7269,10 +6320,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -7280,10 +6331,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -7291,10 +6342,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -7302,10 +6353,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -7313,10 +6364,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -7335,251 +6386,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-"),AND(E6&gt;1,E6&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3 D4:D5">
-    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E3">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -7602,16 +6408,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="34"/>
     </row>
@@ -7620,10 +6426,10 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -7631,16 +6437,16 @@
         <v>2014</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7652,7 +6458,7 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>27</v>
@@ -7661,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7673,7 +6479,7 @@
         <v>2015</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>26</v>
@@ -7682,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7694,16 +6500,16 @@
         <v>2015</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7715,13 +6521,13 @@
         <v>2016</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -7736,13 +6542,13 @@
         <v>2016</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="6">
         <v>0</v>
@@ -7757,16 +6563,16 @@
         <v>2017</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7778,16 +6584,16 @@
         <v>2017</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -7799,13 +6605,13 @@
         <v>2018</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6">
         <v>1</v>
@@ -7820,16 +6626,16 @@
         <v>2018</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8035,7 +6841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -8058,16 +6864,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -8076,7 +6882,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -8085,7 +6891,7 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>29</v>
@@ -8103,10 +6909,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -8121,7 +6927,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>28</v>
@@ -8139,10 +6945,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -8157,10 +6963,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -8175,10 +6981,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -8194,10 +7000,10 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -8208,10 +7014,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -8279,7 +7085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -8303,16 +7109,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="36"/>
       <c r="F1" s="37"/>
@@ -8322,13 +7128,13 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -8336,19 +7142,19 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -8360,19 +7166,19 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="7" t="str">
         <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -8384,19 +7190,19 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8408,16 +7214,16 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="8">
         <v>0</v>
@@ -8432,16 +7238,16 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="8">
         <v>0</v>
@@ -8456,16 +7262,16 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
@@ -8480,19 +7286,19 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8504,19 +7310,19 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8528,7 +7334,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>30</v>
@@ -8537,10 +7343,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8552,19 +7358,19 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8576,19 +7382,19 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8600,19 +7406,19 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8624,19 +7430,19 @@
         <v>2012</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8648,19 +7454,19 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8672,19 +7478,19 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8696,19 +7502,19 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8720,19 +7526,19 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8744,19 +7550,19 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8768,19 +7574,19 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8792,19 +7598,19 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8816,19 +7622,19 @@
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8840,19 +7646,19 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8864,19 +7670,19 @@
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8888,19 +7694,19 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8912,19 +7718,19 @@
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8936,19 +7742,19 @@
         <v>2019</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9223,7 +8029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -9246,16 +8052,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="34"/>
     </row>
@@ -9264,10 +8070,10 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -9275,16 +8081,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9296,7 +8102,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>25</v>
@@ -9305,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F21" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -9317,7 +8123,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>24</v>
@@ -9326,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9338,16 +8144,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9359,7 +8165,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>23</v>
@@ -9368,7 +8174,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9380,16 +8186,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9401,7 +8207,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>22</v>
@@ -9410,7 +8216,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9422,16 +8228,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9443,16 +8249,16 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9464,16 +8270,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -9485,13 +8291,13 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -9506,13 +8312,13 @@
         <v>2016</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -9527,13 +8333,13 @@
         <v>2017</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -9548,13 +8354,13 @@
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -9569,13 +8375,13 @@
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -9590,13 +8396,13 @@
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -9611,13 +8417,13 @@
         <v>2019</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -9632,13 +8438,13 @@
         <v>2019</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -9650,13 +8456,13 @@
         <v>2019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -9797,7 +8603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -9820,16 +8626,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -9838,7 +8644,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -9847,7 +8653,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>19</v>
@@ -9865,10 +8671,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -9883,10 +8689,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -9901,10 +8707,10 @@
         <v>2013</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9919,10 +8725,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -9937,10 +8743,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -9956,10 +8762,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9974,10 +8780,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9992,10 +8798,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -10033,7 +8839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -10053,16 +8859,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -10071,7 +8877,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -10080,7 +8886,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -10098,10 +8904,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -10116,10 +8922,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -10134,10 +8940,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -10152,10 +8958,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -10170,7 +8976,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>18</v>
@@ -10189,10 +8995,10 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -10207,10 +9013,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -10248,7 +9054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -10271,16 +9077,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -10289,7 +9095,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -10298,10 +9104,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -10316,10 +9122,10 @@
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -10334,10 +9140,10 @@
         <v>2008</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -10352,10 +9158,10 @@
         <v>2009</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -10370,10 +9176,10 @@
         <v>2009</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -10388,7 +9194,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -10407,10 +9213,10 @@
         <v>2011</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -10425,10 +9231,10 @@
         <v>2012</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -10443,7 +9249,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -10461,10 +9267,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -10479,10 +9285,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -10497,10 +9303,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -10516,10 +9322,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -10534,10 +9340,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -10552,10 +9358,10 @@
         <v>2015</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -10570,10 +9376,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -10588,10 +9394,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -10606,10 +9412,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -10624,10 +9430,10 @@
         <v>2017</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -10642,10 +9448,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -10660,10 +9466,10 @@
         <v>2018</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -10678,10 +9484,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -10692,10 +9498,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -10728,4 +9534,475 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E24" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D24">
+    <cfRule type="containsText" dxfId="45" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,21 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Кипр" sheetId="16" r:id="rId1"/>
-    <sheet name="Латвия" sheetId="17" r:id="rId2"/>
-    <sheet name="Литва" sheetId="18" r:id="rId3"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId4"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId5"/>
-    <sheet name="Монако" sheetId="21" r:id="rId6"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId7"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId8"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId9"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId10"/>
-    <sheet name="Словения" sheetId="26" r:id="rId11"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId12"/>
-    <sheet name="Франция" sheetId="28" r:id="rId13"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId14"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId15"/>
+    <sheet name="Латвия" sheetId="17" r:id="rId1"/>
+    <sheet name="Литва" sheetId="18" r:id="rId2"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId3"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId4"/>
+    <sheet name="Монако" sheetId="21" r:id="rId5"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId6"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId7"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId8"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId9"/>
+    <sheet name="Словения" sheetId="26" r:id="rId10"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId11"/>
+    <sheet name="Франция" sheetId="28" r:id="rId12"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId13"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -80,7 +79,9 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Греции (Афины)</t>
+          <t>Немецкие монетные дворы:   
+  Монетный двор Штутгарта «F»
+  Монетный двор Карлсруэ «G»</t>
         </r>
       </text>
     </comment>
@@ -95,7 +96,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>Монетный двор Литвы</t>
         </r>
       </text>
     </comment>
@@ -104,57 +105,6 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -250,7 +200,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -301,7 +251,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -352,7 +302,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -476,23 +426,6 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Немецкие монетные дворы:   
-  Монетный двор Штутгарта «F»
-  Монетный двор Карлсруэ «G»</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
           <t>Монетный двор Литвы</t>
         </r>
       </text>
@@ -502,57 +435,6 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Литвы</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -633,7 +515,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -713,7 +595,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -764,7 +646,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -815,7 +697,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -866,7 +748,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -917,8 +799,59 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Монетный двор Словакии (Кремница)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="303">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -1049,9 +982,6 @@
     <t>IT</t>
   </si>
   <si>
-    <t>GR</t>
-  </si>
-  <si>
     <t>2.500.000</t>
   </si>
   <si>
@@ -1113,9 +1043,6 @@
   </si>
   <si>
     <t>350.000</t>
-  </si>
-  <si>
-    <t>Пафос - Культурная столица Европы 2017</t>
   </si>
   <si>
     <t>430.000</t>
@@ -2160,7 +2087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2244,12 +2171,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2274,55 +2195,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="88">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3033,9 +2906,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="93"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="92" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="91"/>
+    <tableColumn id="1" name="№" dataDxfId="87"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="86" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3304,13 +3177,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3343,27 +3216,27 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -3372,13 +3245,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -3387,19 +3260,19 @@
         <v>41</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -3408,28 +3281,154 @@
         <v>41</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>IF(OR(AND(D5&gt;1,D5&lt;&gt;"-"),AND(E5&gt;1,E5&lt;&gt;"-")),"Есть на обмен","")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
         <v>2017</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f>IF(OR(AND(D6&gt;1,D6&lt;&gt;"-"),AND(E6&gt;1,E6&lt;&gt;"-")),"Есть на обмен","")</f>
+      <c r="B9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -3440,13 +3439,13 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="90" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="D9:D10 D12">
+    <cfRule type="containsText" dxfId="84" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:D10 D12">
+    <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -3457,12 +3456,114 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3 D4:D5">
-    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
+    <cfRule type="containsText" dxfId="82" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E3">
+  <conditionalFormatting sqref="D3">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E6">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3474,12 +3575,29 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="88" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3491,12 +3609,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="87" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
+  <conditionalFormatting sqref="E12">
+    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3508,336 +3626,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="86" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E14" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D14">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D14">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -3867,25 +3661,25 @@
       <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>42</v>
@@ -3896,7 +3690,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -3923,10 +3717,10 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>41</v>
@@ -3950,7 +3744,7 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>35</v>
@@ -3977,10 +3771,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -4004,7 +3798,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>10</v>
@@ -4031,10 +3825,10 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>41</v>
@@ -4058,10 +3852,10 @@
         <v>2013</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>41</v>
@@ -4085,7 +3879,7 @@
         <v>2014</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>9</v>
@@ -4112,10 +3906,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>41</v>
@@ -4139,10 +3933,10 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>41</v>
@@ -4166,10 +3960,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>41</v>
@@ -4193,10 +3987,10 @@
         <v>2017</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>41</v>
@@ -4220,10 +4014,10 @@
         <v>2018</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>41</v>
@@ -4247,10 +4041,10 @@
         <v>2019</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>41</v>
@@ -4974,7 +4768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -5012,7 +4806,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -5021,10 +4815,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -5039,10 +4833,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -5057,10 +4851,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -5075,10 +4869,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -5093,7 +4887,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>4</v>
@@ -5111,10 +4905,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -5130,10 +4924,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -5148,7 +4942,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>35</v>
@@ -5166,10 +4960,10 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -5184,10 +4978,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -5202,10 +4996,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -5220,7 +5014,7 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>1</v>
@@ -5238,10 +5032,10 @@
         <v>2013</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -5257,10 +5051,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -5275,10 +5069,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -5293,7 +5087,7 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>8</v>
@@ -5311,10 +5105,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -5329,10 +5123,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -5343,10 +5137,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -5357,10 +5151,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -5371,10 +5165,10 @@
         <v>2016</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -5385,10 +5179,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -5399,10 +5193,10 @@
         <v>2017</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -5413,10 +5207,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
@@ -5427,10 +5221,10 @@
         <v>2018</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -5464,7 +5258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -5514,7 +5308,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>4</v>
@@ -5532,7 +5326,7 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
@@ -5550,7 +5344,7 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>35</v>
@@ -5568,10 +5362,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -5586,10 +5380,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -5604,7 +5398,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>2</v>
@@ -5623,7 +5417,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
@@ -5641,10 +5435,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -5659,7 +5453,7 @@
         <v>2013</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>7</v>
@@ -5677,10 +5471,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -5695,10 +5489,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -5713,7 +5507,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>6</v>
@@ -5731,10 +5525,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -5750,10 +5544,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -5768,7 +5562,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>0</v>
@@ -5786,7 +5580,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>5</v>
@@ -5804,10 +5598,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -5822,10 +5616,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -5840,10 +5634,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -5858,10 +5652,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -5876,10 +5670,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -5890,7 +5684,7 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>37</v>
@@ -5927,7 +5721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -5957,11 +5751,11 @@
       <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
@@ -5971,10 +5765,10 @@
         <v>38</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -5982,7 +5776,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
@@ -6006,10 +5800,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>41</v>
@@ -6030,10 +5824,10 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>41</v>
@@ -6054,10 +5848,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>41</v>
@@ -6078,10 +5872,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>41</v>
@@ -6102,10 +5896,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>41</v>
@@ -6126,10 +5920,10 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>41</v>
@@ -6150,10 +5944,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>41</v>
@@ -6286,7 +6080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -6306,13 +6100,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C1" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -6320,10 +6114,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -6331,10 +6125,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -6342,10 +6136,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -6353,10 +6147,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -6364,10 +6158,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6386,462 +6180,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="7" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="7" t="str">
-        <f t="shared" ref="F4:F12" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D9:D10 D12">
-    <cfRule type="containsText" dxfId="84" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D10 D12">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
-    <cfRule type="containsText" dxfId="82" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D5 E7:E8 E11">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="81" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="containsText" dxfId="78" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E6">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="77" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D11))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="containsText" dxfId="74" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E12))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6882,7 +6220,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6891,7 +6229,7 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>29</v>
@@ -6909,10 +6247,10 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6927,7 +6265,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>28</v>
@@ -6945,10 +6283,10 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6963,10 +6301,10 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -6981,10 +6319,10 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -7000,10 +6338,10 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -7014,10 +6352,10 @@
         <v>2019</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -7085,7 +6423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -7117,21 +6455,21 @@
       <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>40</v>
@@ -7142,10 +6480,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -7166,10 +6504,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>41</v>
@@ -7190,10 +6528,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>41</v>
@@ -7214,7 +6552,7 @@
         <v>2007</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>31</v>
@@ -7238,7 +6576,7 @@
         <v>2007</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>4</v>
@@ -7262,10 +6600,10 @@
         <v>2008</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>41</v>
@@ -7286,10 +6624,10 @@
         <v>2009</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -7310,7 +6648,7 @@
         <v>2009</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>35</v>
@@ -7334,7 +6672,7 @@
         <v>2010</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>30</v>
@@ -7358,10 +6696,10 @@
         <v>2011</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7382,10 +6720,10 @@
         <v>2012</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7406,10 +6744,10 @@
         <v>2012</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -7430,10 +6768,10 @@
         <v>2012</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -7454,10 +6792,10 @@
         <v>2013</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -7478,10 +6816,10 @@
         <v>2014</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -7502,10 +6840,10 @@
         <v>2014</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -7526,10 +6864,10 @@
         <v>2015</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -7550,10 +6888,10 @@
         <v>2015</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -7574,10 +6912,10 @@
         <v>2015</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -7598,10 +6936,10 @@
         <v>2016</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -7622,10 +6960,10 @@
         <v>2017</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -7646,10 +6984,10 @@
         <v>2017</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D24" s="8">
         <v>2</v>
@@ -7670,10 +7008,10 @@
         <v>2018</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="8">
         <v>0</v>
@@ -7694,10 +7032,10 @@
         <v>2018</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D26" s="8">
         <v>2</v>
@@ -7718,10 +7056,10 @@
         <v>2019</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -7742,10 +7080,10 @@
         <v>2019</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="8">
         <v>2</v>
@@ -8029,7 +7367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -8060,17 +7398,17 @@
       <c r="C1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="34"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="23" t="s">
         <v>40</v>
@@ -8081,7 +7419,7 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>35</v>
@@ -8102,7 +7440,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>25</v>
@@ -8123,7 +7461,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>24</v>
@@ -8144,10 +7482,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -8165,7 +7503,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>23</v>
@@ -8186,10 +7524,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -8207,7 +7545,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>22</v>
@@ -8228,10 +7566,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -8249,10 +7587,10 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -8270,10 +7608,10 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -8291,10 +7629,10 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>41</v>
@@ -8312,7 +7650,7 @@
         <v>2016</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>21</v>
@@ -8333,10 +7671,10 @@
         <v>2017</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>41</v>
@@ -8354,7 +7692,7 @@
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>20</v>
@@ -8375,10 +7713,10 @@
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>41</v>
@@ -8396,10 +7734,10 @@
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>41</v>
@@ -8417,10 +7755,10 @@
         <v>2019</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>41</v>
@@ -8438,10 +7776,10 @@
         <v>2019</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>41</v>
@@ -8456,10 +7794,10 @@
         <v>2019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>41</v>
@@ -8603,7 +7941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -8653,7 +7991,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>19</v>
@@ -8671,10 +8009,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -8689,10 +8027,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -8707,10 +8045,10 @@
         <v>2013</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -8725,10 +8063,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -8743,10 +8081,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -8762,10 +8100,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -8780,10 +8118,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -8798,10 +8136,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -8839,7 +8177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -8877,7 +8215,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -8886,7 +8224,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -8904,7 +8242,7 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>35</v>
@@ -8922,10 +8260,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -8940,10 +8278,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -8958,10 +8296,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -8976,7 +8314,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>18</v>
@@ -8995,10 +8333,10 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9013,10 +8351,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9054,7 +8392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -9095,7 +8433,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -9104,10 +8442,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9122,10 +8460,10 @@
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -9140,10 +8478,10 @@
         <v>2008</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -9158,10 +8496,10 @@
         <v>2009</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9176,7 +8514,7 @@
         <v>2009</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>35</v>
@@ -9194,7 +8532,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -9213,10 +8551,10 @@
         <v>2011</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9231,10 +8569,10 @@
         <v>2012</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -9249,7 +8587,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -9267,10 +8605,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -9285,10 +8623,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -9303,10 +8641,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -9322,10 +8660,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -9340,10 +8678,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -9358,10 +8696,10 @@
         <v>2015</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -9376,10 +8714,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -9394,10 +8732,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -9412,10 +8750,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -9430,10 +8768,10 @@
         <v>2017</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -9448,10 +8786,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -9466,10 +8804,10 @@
         <v>2018</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -9484,10 +8822,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -9498,10 +8836,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -9536,7 +8874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -9586,10 +8924,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -9604,10 +8942,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -9622,10 +8960,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -9640,10 +8978,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -9658,7 +8996,7 @@
         <v>2008</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>16</v>
@@ -9676,7 +9014,7 @@
         <v>2009</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>15</v>
@@ -9695,10 +9033,10 @@
         <v>2010</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -9713,7 +9051,7 @@
         <v>2011</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
@@ -9731,7 +9069,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -9749,10 +9087,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -9767,10 +9105,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -9785,10 +9123,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -9803,7 +9141,7 @@
         <v>2015</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>13</v>
@@ -9822,7 +9160,7 @@
         <v>2015</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>36</v>
@@ -9840,7 +9178,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>12</v>
@@ -9858,7 +9196,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>11</v>
@@ -9876,10 +9214,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -9894,10 +9232,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -9912,10 +9250,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -9930,10 +9268,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -9948,10 +9286,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -9966,10 +9304,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -10005,4 +9343,294 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2009</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E14" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D14">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,19 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Литва" sheetId="18" r:id="rId1"/>
-    <sheet name="Люксембург" sheetId="19" r:id="rId2"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId3"/>
-    <sheet name="Монако" sheetId="21" r:id="rId4"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId5"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId6"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId7"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId8"/>
-    <sheet name="Словения" sheetId="26" r:id="rId9"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId10"/>
-    <sheet name="Франция" sheetId="28" r:id="rId11"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId12"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId13"/>
+    <sheet name="Люксембург" sheetId="19" r:id="rId1"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId2"/>
+    <sheet name="Монако" sheetId="21" r:id="rId3"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId4"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId5"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId6"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId7"/>
+    <sheet name="Словения" sheetId="26" r:id="rId8"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId9"/>
+    <sheet name="Франция" sheetId="28" r:id="rId10"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId11"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -78,7 +77,37 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Литвы</t>
+          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Монетный двор Финляндии (Вантаа)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Парижский монетный двор</t>
         </r>
       </text>
     </comment>
@@ -129,7 +158,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Финляндии (Вантаа)</t>
+          <t>Парижский монетный двор</t>
         </r>
       </text>
     </comment>
@@ -138,57 +167,6 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Парижский монетный двор</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -327,11 +305,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Финляндии (Вантаа)</t>
+          <t>Парижский монетный двор</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -339,10 +317,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>с F на заезде</t>
         </r>
       </text>
     </comment>
@@ -393,36 +370,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
           <t>Парижский монетный двор</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>с F на заезде</t>
         </r>
       </text>
     </comment>
@@ -473,7 +421,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
         </r>
       </text>
     </comment>
@@ -524,7 +472,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+          <t>Монетный двор Португалии (Лиссабон)</t>
         </r>
       </text>
     </comment>
@@ -575,7 +523,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -626,7 +574,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Словакии (Кремница)</t>
         </r>
       </text>
     </comment>
@@ -635,57 +583,6 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -781,8 +678,59 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Монетный двор Финляндии (Вантаа)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="281">
   <si>
     <t>Чемпионат Европы по футболу 2016 во Франции</t>
   </si>
@@ -862,12 +810,6 @@
     <t>Первые избранные представители совета Мальты 1849 года</t>
   </si>
   <si>
-    <t>Балтийская культура</t>
-  </si>
-  <si>
-    <t>Литовский язык</t>
-  </si>
-  <si>
     <t>Герб Великого герцога Люксембурга</t>
   </si>
   <si>
@@ -979,12 +921,6 @@
     <t>LT</t>
   </si>
   <si>
-    <t>Вильнюс</t>
-  </si>
-  <si>
-    <t>Праздник песни</t>
-  </si>
-  <si>
     <t>2.481.800</t>
   </si>
   <si>
@@ -1619,12 +1555,6 @@
   </si>
   <si>
     <t>Международный год семейных фермерских хозяйств</t>
-  </si>
-  <si>
-    <t>Сутартинес</t>
-  </si>
-  <si>
-    <t>Жемайтия</t>
   </si>
   <si>
     <t>500-летие кругосветного плавания Фернана Магеллана</t>
@@ -2054,12 +1984,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2067,6 +1991,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2078,31 +2008,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2701,9 +2607,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="76"/>
-    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="75" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="74"/>
+    <tableColumn id="1" name="№" dataDxfId="73"/>
+    <tableColumn id="2" name="Cсылка на сайт:" dataDxfId="72" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Что можно найти (единая таблица, набор таблиц, тиражи, цены):" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2972,13 +2878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2989,181 +2895,880 @@
     <col min="4" max="4" width="12.1796875" customWidth="1"/>
     <col min="5" max="5" width="13.7265625" customWidth="1"/>
     <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="7" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+      <c r="C4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
         <v>2015</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f t="shared" ref="E3:E8" si="0">IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+      <c r="B19" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
         <v>2015</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="B20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
         <v>2016</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="B22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
         <v>2017</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="B23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="8">
+        <v>2</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
         <v>2018</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="8">
+        <v>2</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Есть на обмен</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="8">
         <v>1</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="E27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="12">
         <v>2019</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
+      <c r="B28" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Есть на обмен</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D8">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="*-">
+  <conditionalFormatting sqref="D3 E4:E5 F6:F8 D9:D28">
+    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D8">
+  <conditionalFormatting sqref="E4:E5 D3 F6:F8 D9:D28">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3175,12 +3780,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="containsText" dxfId="72" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="F9:F28">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F28">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3192,12 +3797,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="containsText" dxfId="71" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="E9:E28">
+    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E28">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -3210,501 +3815,12 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f t="shared" ref="E4:E19" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="8">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="9" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3:D27">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D27">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -3727,16 +3843,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -3745,7 +3861,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -3754,7 +3870,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>4</v>
@@ -3772,7 +3888,7 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>3</v>
@@ -3790,10 +3906,10 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -3808,10 +3924,10 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -3826,10 +3942,10 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -3844,7 +3960,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>2</v>
@@ -3863,7 +3979,7 @@
         <v>2012</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>1</v>
@@ -3881,10 +3997,10 @@
         <v>2013</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -3899,7 +4015,7 @@
         <v>2013</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>7</v>
@@ -3917,10 +4033,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -3935,10 +4051,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -3953,7 +4069,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>6</v>
@@ -3971,10 +4087,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -3990,10 +4106,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -4008,7 +4124,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>0</v>
@@ -4026,7 +4142,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>5</v>
@@ -4044,10 +4160,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -4062,10 +4178,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -4080,10 +4196,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -4098,10 +4214,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -4116,10 +4232,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -4130,10 +4246,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -4167,7 +4283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -4189,16 +4305,16 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -4208,13 +4324,13 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -4222,7 +4338,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>1</v>
@@ -4231,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -4246,19 +4362,19 @@
         <v>2015</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G10" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -4270,19 +4386,19 @@
         <v>2016</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4294,19 +4410,19 @@
         <v>2017</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4318,19 +4434,19 @@
         <v>2018</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4342,19 +4458,19 @@
         <v>2018</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -4366,16 +4482,16 @@
         <v>2019</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -4390,16 +4506,16 @@
         <v>2019</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="8">
         <v>2</v>
@@ -4526,7 +4642,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -4546,13 +4662,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -4560,10 +4676,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -4571,10 +4687,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -4582,10 +4698,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -4593,10 +4709,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -4604,10 +4720,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4626,950 +4742,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E31" sqref="E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
-        <v>2004</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="7" t="str">
-        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>2005</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="7" t="str">
-        <f t="shared" ref="G4:G28" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-")),"Есть на обмен","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>2006</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
-        <v>2007</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
-        <v>2012</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
-        <v>2014</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
-        <v>2015</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
-        <v>2016</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="12">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="12">
-        <v>2018</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G27" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="12">
-        <v>2019</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D28" s="8">
-        <v>2</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Есть на обмен</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:F1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="D3 E4:E5 F6:F8 D9:D28">
-    <cfRule type="containsText" dxfId="70" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:E5 D3 F6:F8 D9:D28">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="69" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="68" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="containsText" dxfId="67" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="66" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="65" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F5))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="64" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="containsText" dxfId="63" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="containsText" dxfId="62" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="61" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E7))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="60" priority="9" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E6))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="containsText" dxfId="59" priority="7" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="58" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(D8))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F28">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F28">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E28">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(E9))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E28">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -5592,28 +4764,28 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="32"/>
+      <c r="D1" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -5621,16 +4793,16 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="7" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -5642,7 +4814,7 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>25</v>
@@ -5651,7 +4823,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" s="7" t="str">
         <f t="shared" ref="F4:F21" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -5663,7 +4835,7 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>24</v>
@@ -5672,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5684,16 +4856,16 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5705,7 +4877,7 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>23</v>
@@ -5714,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5726,16 +4898,16 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5747,7 +4919,7 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>22</v>
@@ -5756,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5768,16 +4940,16 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5789,16 +4961,16 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5810,16 +4982,16 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5831,13 +5003,13 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
@@ -5852,13 +5024,13 @@
         <v>2016</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="6">
         <v>0</v>
@@ -5873,13 +5045,13 @@
         <v>2017</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="6">
         <v>0</v>
@@ -5894,13 +5066,13 @@
         <v>2017</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="6">
         <v>0</v>
@@ -5915,13 +5087,13 @@
         <v>2018</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="6">
         <v>1</v>
@@ -5936,13 +5108,13 @@
         <v>2018</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="6">
         <v>1</v>
@@ -5957,13 +5129,13 @@
         <v>2019</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
@@ -5978,13 +5150,13 @@
         <v>2019</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="6">
         <v>1</v>
@@ -5996,13 +5168,13 @@
         <v>2019</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="6">
         <v>1</v>
@@ -6143,7 +5315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -6166,16 +5338,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -6184,7 +5356,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6193,7 +5365,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>19</v>
@@ -6211,10 +5383,10 @@
         <v>2011</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6229,10 +5401,10 @@
         <v>2012</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6247,10 +5419,10 @@
         <v>2013</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6265,10 +5437,10 @@
         <v>2015</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6283,10 +5455,10 @@
         <v>2016</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -6302,10 +5474,10 @@
         <v>2017</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6320,10 +5492,10 @@
         <v>2018</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6338,10 +5510,10 @@
         <v>2019</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -6379,7 +5551,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -6399,16 +5571,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -6417,7 +5589,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6426,7 +5598,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -6444,10 +5616,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6462,10 +5634,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6480,10 +5652,10 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6498,10 +5670,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6516,7 +5688,7 @@
         <v>2013</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>18</v>
@@ -6535,10 +5707,10 @@
         <v>2014</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6553,10 +5725,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6594,7 +5766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -6617,16 +5789,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -6635,7 +5807,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -6644,10 +5816,10 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -6662,10 +5834,10 @@
         <v>2007</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -6680,10 +5852,10 @@
         <v>2008</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -6698,10 +5870,10 @@
         <v>2009</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -6716,10 +5888,10 @@
         <v>2009</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -6734,7 +5906,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>17</v>
@@ -6753,10 +5925,10 @@
         <v>2011</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -6771,10 +5943,10 @@
         <v>2012</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -6789,7 +5961,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -6807,10 +5979,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -6825,10 +5997,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -6843,10 +6015,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -6862,10 +6034,10 @@
         <v>2015</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D15" s="8">
         <v>0</v>
@@ -6880,10 +6052,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -6898,10 +6070,10 @@
         <v>2015</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8">
         <v>0</v>
@@ -6916,10 +6088,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -6934,10 +6106,10 @@
         <v>2016</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -6952,10 +6124,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -6970,10 +6142,10 @@
         <v>2017</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -6988,10 +6160,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -7006,10 +6178,10 @@
         <v>2018</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -7024,10 +6196,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -7038,10 +6210,10 @@
         <v>2019</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -7076,7 +6248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -7099,16 +6271,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -7117,7 +6289,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -7126,10 +6298,10 @@
         <v>2004</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -7144,10 +6316,10 @@
         <v>2005</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -7162,10 +6334,10 @@
         <v>2006</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -7180,10 +6352,10 @@
         <v>2007</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
@@ -7198,7 +6370,7 @@
         <v>2008</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>16</v>
@@ -7216,7 +6388,7 @@
         <v>2009</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>15</v>
@@ -7235,10 +6407,10 @@
         <v>2010</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -7253,7 +6425,7 @@
         <v>2011</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>14</v>
@@ -7271,7 +6443,7 @@
         <v>2012</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>1</v>
@@ -7289,10 +6461,10 @@
         <v>2013</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7307,10 +6479,10 @@
         <v>2014</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7325,10 +6497,10 @@
         <v>2014</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -7343,7 +6515,7 @@
         <v>2015</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>13</v>
@@ -7362,10 +6534,10 @@
         <v>2015</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -7380,7 +6552,7 @@
         <v>2016</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>12</v>
@@ -7398,7 +6570,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>11</v>
@@ -7416,10 +6588,10 @@
         <v>2017</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -7434,10 +6606,10 @@
         <v>2017</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -7452,10 +6624,10 @@
         <v>2018</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D21" s="8">
         <v>0</v>
@@ -7470,10 +6642,10 @@
         <v>2018</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D22" s="8">
         <v>0</v>
@@ -7488,10 +6660,10 @@
         <v>2019</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D23" s="8">
         <v>0</v>
@@ -7506,10 +6678,10 @@
         <v>2019</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D24" s="8">
         <v>0</v>
@@ -7547,7 +6719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
@@ -7570,16 +6742,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5"/>
     </row>
@@ -7588,7 +6760,7 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -7597,10 +6769,10 @@
         <v>2009</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -7615,10 +6787,10 @@
         <v>2009</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8">
         <v>0</v>
@@ -7633,10 +6805,10 @@
         <v>2011</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
@@ -7651,7 +6823,7 @@
         <v>2012</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>1</v>
@@ -7669,10 +6841,10 @@
         <v>2013</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D7" s="8">
         <v>0</v>
@@ -7687,10 +6859,10 @@
         <v>2014</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D8" s="8">
         <v>0</v>
@@ -7706,10 +6878,10 @@
         <v>2015</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D9" s="8">
         <v>0</v>
@@ -7724,10 +6896,10 @@
         <v>2015</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="8">
         <v>0</v>
@@ -7742,10 +6914,10 @@
         <v>2016</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D11" s="8">
         <v>0</v>
@@ -7760,10 +6932,10 @@
         <v>2017</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -7778,10 +6950,10 @@
         <v>2018</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -7796,10 +6968,10 @@
         <v>2019</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -7837,7 +7009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -7859,16 +7031,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="D1" s="36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" s="37"/>
       <c r="F1" s="37"/>
@@ -7879,16 +7051,16 @@
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -7896,7 +7068,7 @@
         <v>2007</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>4</v>
@@ -7905,13 +7077,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3" t="str">
         <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-"),AND(E3&gt;1,E3&lt;&gt;"-"),AND(F3&gt;1,F3&lt;&gt;"-"),AND(G3&gt;1,G3&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7923,22 +7095,22 @@
         <v>2008</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8">
         <v>0</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3" t="str">
         <f t="shared" ref="H4:H15" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-"),AND(E4&gt;1,E4&lt;&gt;"-"),AND(F4&gt;1,F4&lt;&gt;"-"),AND(G4&gt;1,G4&lt;&gt;"-")),"Есть на обмен","")</f>
@@ -7950,22 +7122,22 @@
         <v>2009</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8">
         <v>0</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -7977,22 +7149,22 @@
         <v>2010</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8004,7 +7176,7 @@
         <v>2011</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>10</v>
@@ -8013,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8031,22 +7203,22 @@
         <v>2012</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8058,22 +7230,22 @@
         <v>2013</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8085,22 +7257,22 @@
         <v>2014</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="8">
         <v>0</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8112,22 +7284,22 @@
         <v>2015</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8139,22 +7311,22 @@
         <v>2015</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8166,19 +7338,19 @@
         <v>2016</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -8193,22 +7365,22 @@
         <v>2017</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8220,22 +7392,22 @@
         <v>2018</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -8247,20 +7419,20 @@
         <v>2019</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -8972,4 +8144,494 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f>IF(OR(AND(D3&gt;1,D3&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f t="shared" ref="E4:E19" si="0">IF(OR(AND(D4&gt;1,D4&lt;&gt;"-")),"Есть на обмен","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(D3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
+++ b/Collections/Евро/Юбилейные_2€_2004-н.в.xlsx
@@ -12,18 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Люксембург" sheetId="19" r:id="rId1"/>
-    <sheet name="Мальта" sheetId="20" r:id="rId2"/>
-    <sheet name="Монако" sheetId="21" r:id="rId3"/>
-    <sheet name="Нидерланды" sheetId="22" r:id="rId4"/>
-    <sheet name="Португалия" sheetId="23" r:id="rId5"/>
-    <sheet name="Сан-Марино" sheetId="24" r:id="rId6"/>
-    <sheet name="Словакия" sheetId="25" r:id="rId7"/>
-    <sheet name="Словения" sheetId="26" r:id="rId8"/>
-    <sheet name="Финляндия" sheetId="27" r:id="rId9"/>
-    <sheet name="Франция" sheetId="28" r:id="rId10"/>
-    <sheet name="Эстония" sheetId="29" r:id="rId11"/>
-    <sheet name="Сайты" sheetId="3" r:id="rId12"/>
+    <sheet name="Мальта" sheetId="20" r:id="rId1"/>
+    <sheet name="Монако" sheetId="21" r:id="rId2"/>
+    <sheet name="Нидерланды" sheetId="22" r:id="rId3"/>
+    <sheet name="Португалия" sheetId="23" r:id="rId4"/>
+    <sheet name="Сан-Марино" sheetId="24" r:id="rId5"/>
+    <sheet name="Словакия" sheetId="25" r:id="rId6"/>
+    <sheet name="Словения" sheetId="26" r:id="rId7"/>
+    <sheet name="Финляндия" sheetId="27" r:id="rId8"/>
+    <sheet name="Франция" sheetId="28" r:id="rId9"/>
+    <sheet name="Эстония" sheetId="29" r:id="rId10"/>
+    <sheet name="Сайты" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -92,11 +91,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Финляндии (Вантаа)</t>
+          <t>Парижский монетный двор</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,10 +103,9 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
+            <charset val="1"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>с F на заезде</t>
         </r>
       </text>
     </comment>
@@ -116,57 +114,6 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Парижский монетный двор</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -290,36 +237,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
           <t>Парижский монетный двор</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E20" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>с F на заезде</t>
         </r>
       </text>
     </comment>
@@ -370,7 +288,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Парижский монетный двор</t>
+          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
         </r>
       </text>
     </comment>
@@ -421,7 +339,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Королевский монетный двор Нидерландов (Утрехт)</t>
+          <t>Монетный двор Португалии (Лиссабон)</t>
         </r>
       </text>
     </comment>
@@ -472,7 +390,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Монетный двор Португалии (Лиссабон)</t>
+          <t>Государственный политехнический институт и монетный двор Италии</t>
         </r>
       </text>
     </comment>
@@ -523,7 +441,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Государственный политехнический институт и монетный двор Италии</t>
+          <t>Монетный двор Словакии (Кремница)</t>
         </r>
       </text>
     </comment>
@@ -532,57 +450,6 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Пользователь Windows</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Монетный двор Словакии (Кремница)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -678,7 +545,7 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Пользователь Windows</author>
@@ -729,8 +596,59 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Пользователь Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Выделены те тиражи монет, которые были эмитированы только в качестве чеканки BU и/или Proof</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Парижский монетный двор</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" 